--- a/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
+++ b/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C97BCF6F-1895-432A-9A1E-321028B3C538}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B07D47DE-09A7-488A-858B-A61906919571}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="332">
   <si>
     <t>County</t>
   </si>
@@ -1025,7 +1025,7 @@
     <t>Tests Through June 23</t>
   </si>
   <si>
-    <t>5. This file will be updated daily; the next cumulative update will be 6/25/2020.</t>
+    <t>5. This file will be updated daily; the next cumulative update will be 6/26/2020.</t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM267"/>
+  <dimension ref="A1:BN267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BM255" sqref="BM255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,16 +1491,15 @@
     <col min="40" max="45" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11.453125" style="2" customWidth="1"/>
     <col min="47" max="49" width="11.1796875" style="2" customWidth="1"/>
-    <col min="50" max="59" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="65" width="12.90625" customWidth="1"/>
+    <col min="50" max="66" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1696,8 +1695,11 @@
       <c r="BM2" s="7" t="s">
         <v>330</v>
       </c>
+      <c r="BN2" s="7" t="s">
+        <v>330</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1893,8 +1895,11 @@
       <c r="BM3" s="2">
         <v>5730</v>
       </c>
+      <c r="BN3" s="2">
+        <v>5803</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2090,8 +2095,11 @@
       <c r="BM4" s="2">
         <v>95</v>
       </c>
+      <c r="BN4" s="2">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2295,11 @@
       <c r="BM5" s="2">
         <v>3772</v>
       </c>
+      <c r="BN5" s="2">
+        <v>3793</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2484,8 +2495,11 @@
       <c r="BM6" s="2">
         <v>356</v>
       </c>
+      <c r="BN6" s="2">
+        <v>356</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2681,8 +2695,11 @@
       <c r="BM7" s="2">
         <v>98</v>
       </c>
+      <c r="BN7" s="2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2878,8 +2895,11 @@
       <c r="BM8" s="2">
         <v>180</v>
       </c>
+      <c r="BN8" s="2">
+        <v>180</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3075,8 +3095,11 @@
       <c r="BM9" s="2">
         <v>1447</v>
       </c>
+      <c r="BN9" s="2">
+        <v>1453</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3272,8 +3295,11 @@
       <c r="BM10" s="2">
         <v>1478</v>
       </c>
+      <c r="BN10" s="2">
+        <v>1486</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3469,8 +3495,11 @@
       <c r="BM11" s="2">
         <v>109</v>
       </c>
+      <c r="BN11" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3666,8 +3695,11 @@
       <c r="BM12" s="2">
         <v>433</v>
       </c>
+      <c r="BN12" s="2">
+        <v>436</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3863,8 +3895,11 @@
       <c r="BM13" s="2">
         <v>2407</v>
       </c>
+      <c r="BN13" s="2">
+        <v>2457</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -4060,8 +4095,11 @@
       <c r="BM14" s="2">
         <v>74</v>
       </c>
+      <c r="BN14" s="2">
+        <v>74</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4257,8 +4295,11 @@
       <c r="BM15" s="2">
         <v>2228</v>
       </c>
+      <c r="BN15" s="2">
+        <v>2228</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4454,8 +4495,11 @@
       <c r="BM16" s="2">
         <v>22783</v>
       </c>
+      <c r="BN16" s="2">
+        <v>23010</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -4651,8 +4695,11 @@
       <c r="BM17" s="2">
         <v>66467</v>
       </c>
+      <c r="BN17" s="2">
+        <v>67524</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -4848,8 +4895,11 @@
       <c r="BM18" s="2">
         <v>2163</v>
       </c>
+      <c r="BN18" s="2">
+        <v>2202</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -5045,8 +5095,11 @@
       <c r="BM19" s="2">
         <v>2</v>
       </c>
+      <c r="BN19" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -5242,8 +5295,11 @@
       <c r="BM20" s="2">
         <v>1014</v>
       </c>
+      <c r="BN20" s="2">
+        <v>1018</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -5439,8 +5495,11 @@
       <c r="BM21" s="2">
         <v>7004</v>
       </c>
+      <c r="BN21" s="2">
+        <v>7039</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -5636,8 +5695,11 @@
       <c r="BM22" s="2">
         <v>14404</v>
       </c>
+      <c r="BN22" s="2">
+        <v>14458</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -5833,8 +5895,11 @@
       <c r="BM23" s="2">
         <v>12620</v>
       </c>
+      <c r="BN23" s="2">
+        <v>12973</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -6030,8 +6095,11 @@
       <c r="BM24" s="2">
         <v>945</v>
       </c>
+      <c r="BN24" s="2">
+        <v>946</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -6227,8 +6295,11 @@
       <c r="BM25" s="2">
         <v>56</v>
       </c>
+      <c r="BN25" s="2">
+        <v>56</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -6424,8 +6495,11 @@
       <c r="BM26" s="2">
         <v>116</v>
       </c>
+      <c r="BN26" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -6621,8 +6695,11 @@
       <c r="BM27" s="2">
         <v>1066</v>
       </c>
+      <c r="BN27" s="2">
+        <v>1066</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -6818,8 +6895,11 @@
       <c r="BM28" s="2">
         <v>705</v>
       </c>
+      <c r="BN28" s="2">
+        <v>715</v>
+      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -7015,8 +7095,11 @@
       <c r="BM29" s="2">
         <v>1793</v>
       </c>
+      <c r="BN29" s="2">
+        <v>1834</v>
+      </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -7212,8 +7295,11 @@
       <c r="BM30" s="2">
         <v>1205</v>
       </c>
+      <c r="BN30" s="2">
+        <v>1230</v>
+      </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -7409,8 +7495,11 @@
       <c r="BM31" s="2">
         <v>1081</v>
       </c>
+      <c r="BN31" s="2">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -7606,8 +7695,11 @@
       <c r="BM32" s="2">
         <v>316</v>
       </c>
+      <c r="BN32" s="2">
+        <v>316</v>
+      </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -7803,8 +7895,11 @@
       <c r="BM33" s="2">
         <v>15058</v>
       </c>
+      <c r="BN33" s="2">
+        <v>15652</v>
+      </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -8000,8 +8095,11 @@
       <c r="BM34" s="2">
         <v>377</v>
       </c>
+      <c r="BN34" s="2">
+        <v>385</v>
+      </c>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -8197,8 +8295,11 @@
       <c r="BM35" s="2">
         <v>154</v>
       </c>
+      <c r="BN35" s="2">
+        <v>154</v>
+      </c>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -8394,8 +8495,11 @@
       <c r="BM36" s="2">
         <v>792</v>
       </c>
+      <c r="BN36" s="2">
+        <v>799</v>
+      </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -8591,8 +8695,11 @@
       <c r="BM37" s="2">
         <v>324</v>
       </c>
+      <c r="BN37" s="2">
+        <v>328</v>
+      </c>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -8788,8 +8895,11 @@
       <c r="BM38" s="2">
         <v>1456</v>
       </c>
+      <c r="BN38" s="2">
+        <v>1459</v>
+      </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -8985,8 +9095,11 @@
       <c r="BM39" s="2">
         <v>1422</v>
       </c>
+      <c r="BN39" s="2">
+        <v>1429</v>
+      </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -9182,8 +9295,11 @@
       <c r="BM40" s="2">
         <v>289</v>
       </c>
+      <c r="BN40" s="2">
+        <v>289</v>
+      </c>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -9379,8 +9495,11 @@
       <c r="BM41" s="2">
         <v>329</v>
       </c>
+      <c r="BN41" s="2">
+        <v>331</v>
+      </c>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -9576,8 +9695,11 @@
       <c r="BM42" s="2">
         <v>19</v>
       </c>
+      <c r="BN42" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -9773,8 +9895,11 @@
       <c r="BM43" s="2">
         <v>36</v>
       </c>
+      <c r="BN43" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -9970,8 +10095,11 @@
       <c r="BM44" s="2">
         <v>191</v>
       </c>
+      <c r="BN44" s="2">
+        <v>191</v>
+      </c>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -10167,8 +10295,11 @@
       <c r="BM45" s="2">
         <v>40325</v>
       </c>
+      <c r="BN45" s="2">
+        <v>40645</v>
+      </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -10364,8 +10495,11 @@
       <c r="BM46" s="2">
         <v>160</v>
       </c>
+      <c r="BN46" s="2">
+        <v>160</v>
+      </c>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -10561,8 +10695,11 @@
       <c r="BM47" s="2">
         <v>1207</v>
       </c>
+      <c r="BN47" s="2">
+        <v>1221</v>
+      </c>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -10758,8 +10895,11 @@
       <c r="BM48" s="2">
         <v>5654</v>
       </c>
+      <c r="BN48" s="2">
+        <v>5905</v>
+      </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -10955,8 +11095,11 @@
       <c r="BM49" s="2">
         <v>685</v>
       </c>
+      <c r="BN49" s="2">
+        <v>685</v>
+      </c>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -11152,8 +11295,11 @@
       <c r="BM50" s="2">
         <v>93</v>
       </c>
+      <c r="BN50" s="2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -11349,8 +11495,11 @@
       <c r="BM51" s="2">
         <v>1645</v>
       </c>
+      <c r="BN51" s="2">
+        <v>1653</v>
+      </c>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -11546,8 +11695,11 @@
       <c r="BM52" s="2">
         <v>6966</v>
       </c>
+      <c r="BN52" s="2">
+        <v>6992</v>
+      </c>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -11743,8 +11895,11 @@
       <c r="BM53" s="2">
         <v>37</v>
       </c>
+      <c r="BN53" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -11940,8 +12095,11 @@
       <c r="BM54" s="2">
         <v>159</v>
       </c>
+      <c r="BN54" s="2">
+        <v>169</v>
+      </c>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -12137,8 +12295,11 @@
       <c r="BM55" s="2">
         <v>109</v>
       </c>
+      <c r="BN55" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -12334,8 +12495,11 @@
       <c r="BM56" s="2">
         <v>159</v>
       </c>
+      <c r="BN56" s="2">
+        <v>162</v>
+      </c>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -12531,8 +12695,11 @@
       <c r="BM57" s="2">
         <v>38</v>
       </c>
+      <c r="BN57" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -12728,8 +12895,11 @@
       <c r="BM58" s="2">
         <v>10</v>
       </c>
+      <c r="BN58" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -12925,8 +13095,11 @@
       <c r="BM59" s="2">
         <v>154855</v>
       </c>
+      <c r="BN59" s="2">
+        <v>155980</v>
+      </c>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -13122,8 +13295,11 @@
       <c r="BM60" s="2">
         <v>444</v>
       </c>
+      <c r="BN60" s="2">
+        <v>446</v>
+      </c>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -13319,8 +13495,11 @@
       <c r="BM61" s="2">
         <v>433</v>
       </c>
+      <c r="BN61" s="2">
+        <v>435</v>
+      </c>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -13516,8 +13695,11 @@
       <c r="BM62" s="2">
         <v>106</v>
       </c>
+      <c r="BN62" s="2">
+        <v>106</v>
+      </c>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -13713,8 +13895,11 @@
       <c r="BM63" s="2">
         <v>36387</v>
       </c>
+      <c r="BN63" s="2">
+        <v>36657</v>
+      </c>
     </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -13910,8 +14095,11 @@
       <c r="BM64" s="2">
         <v>534</v>
       </c>
+      <c r="BN64" s="2">
+        <v>546</v>
+      </c>
     </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -14107,8 +14295,11 @@
       <c r="BM65" s="2">
         <v>26</v>
       </c>
+      <c r="BN65" s="2">
+        <v>28</v>
+      </c>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -14304,8 +14495,11 @@
       <c r="BM66" s="2">
         <v>188</v>
       </c>
+      <c r="BN66" s="2">
+        <v>188</v>
+      </c>
     </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -14501,8 +14695,11 @@
       <c r="BM67" s="2">
         <v>193</v>
       </c>
+      <c r="BN67" s="2">
+        <v>193</v>
+      </c>
     </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -14698,8 +14895,11 @@
       <c r="BM68" s="2">
         <v>393</v>
       </c>
+      <c r="BN68" s="2">
+        <v>393</v>
+      </c>
     </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -14895,8 +15095,11 @@
       <c r="BM69" s="2">
         <v>421</v>
       </c>
+      <c r="BN69" s="2">
+        <v>421</v>
+      </c>
     </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -15092,8 +15295,11 @@
       <c r="BM70" s="2">
         <v>4929</v>
       </c>
+      <c r="BN70" s="2">
+        <v>5101</v>
+      </c>
     </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -15289,8 +15495,11 @@
       <c r="BM71" s="2">
         <v>32</v>
       </c>
+      <c r="BN71" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="72" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -15486,8 +15695,11 @@
       <c r="BM72" s="2">
         <v>9176</v>
       </c>
+      <c r="BN72" s="2">
+        <v>9202</v>
+      </c>
     </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -15683,8 +15895,11 @@
       <c r="BM73" s="2">
         <v>44534</v>
       </c>
+      <c r="BN73" s="2">
+        <v>44566</v>
+      </c>
     </row>
-    <row r="74" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -15880,8 +16095,11 @@
       <c r="BM74" s="2">
         <v>1525</v>
       </c>
+      <c r="BN74" s="2">
+        <v>1526</v>
+      </c>
     </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -16077,8 +16295,11 @@
       <c r="BM75" s="2">
         <v>853</v>
       </c>
+      <c r="BN75" s="2">
+        <v>857</v>
+      </c>
     </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -16274,8 +16495,11 @@
       <c r="BM76" s="2">
         <v>1451</v>
       </c>
+      <c r="BN76" s="2">
+        <v>1454</v>
+      </c>
     </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -16471,8 +16695,11 @@
       <c r="BM77" s="2">
         <v>1503</v>
       </c>
+      <c r="BN77" s="2">
+        <v>1522</v>
+      </c>
     </row>
-    <row r="78" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -16668,8 +16895,11 @@
       <c r="BM78" s="2">
         <v>32</v>
       </c>
+      <c r="BN78" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="79" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -16865,8 +17095,11 @@
       <c r="BM79" s="2">
         <v>279</v>
       </c>
+      <c r="BN79" s="2">
+        <v>280</v>
+      </c>
     </row>
-    <row r="80" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -17062,8 +17295,11 @@
       <c r="BM80" s="2">
         <v>96</v>
       </c>
+      <c r="BN80" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="81" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -17259,8 +17495,11 @@
       <c r="BM81" s="2">
         <v>92332</v>
       </c>
+      <c r="BN81" s="2">
+        <v>93506</v>
+      </c>
     </row>
-    <row r="82" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -17456,8 +17695,11 @@
       <c r="BM82" s="2">
         <v>271</v>
       </c>
+      <c r="BN82" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="83" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -17653,8 +17895,11 @@
       <c r="BM83" s="2">
         <v>688</v>
       </c>
+      <c r="BN83" s="2">
+        <v>689</v>
+      </c>
     </row>
-    <row r="84" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -17850,8 +18095,11 @@
       <c r="BM84" s="2">
         <v>751</v>
       </c>
+      <c r="BN84" s="2">
+        <v>758</v>
+      </c>
     </row>
-    <row r="85" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -18047,8 +18295,11 @@
       <c r="BM85" s="2">
         <v>277</v>
       </c>
+      <c r="BN85" s="2">
+        <v>280</v>
+      </c>
     </row>
-    <row r="86" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -18244,8 +18495,11 @@
       <c r="BM86" s="2">
         <v>38645</v>
       </c>
+      <c r="BN86" s="2">
+        <v>38917</v>
+      </c>
     </row>
-    <row r="87" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -18441,8 +18695,11 @@
       <c r="BM87" s="2">
         <v>3</v>
       </c>
+      <c r="BN87" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -18638,8 +18895,11 @@
       <c r="BM88" s="2">
         <v>1100</v>
       </c>
+      <c r="BN88" s="2">
+        <v>1158</v>
+      </c>
     </row>
-    <row r="89" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -18835,8 +19095,11 @@
       <c r="BM89" s="2">
         <v>76</v>
       </c>
+      <c r="BN89" s="2">
+        <v>76</v>
+      </c>
     </row>
-    <row r="90" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -19032,8 +19295,11 @@
       <c r="BM90" s="2">
         <v>178</v>
       </c>
+      <c r="BN90" s="2">
+        <v>181</v>
+      </c>
     </row>
-    <row r="91" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -19229,8 +19495,11 @@
       <c r="BM91" s="2">
         <v>1117</v>
       </c>
+      <c r="BN91" s="2">
+        <v>1118</v>
+      </c>
     </row>
-    <row r="92" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -19426,8 +19695,11 @@
       <c r="BM92" s="2">
         <v>874</v>
       </c>
+      <c r="BN92" s="2">
+        <v>876</v>
+      </c>
     </row>
-    <row r="93" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -19623,8 +19895,11 @@
       <c r="BM93" s="2">
         <v>7487</v>
       </c>
+      <c r="BN93" s="2">
+        <v>7520</v>
+      </c>
     </row>
-    <row r="94" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -19820,8 +20095,11 @@
       <c r="BM94" s="2">
         <v>3067</v>
       </c>
+      <c r="BN94" s="2">
+        <v>3105</v>
+      </c>
     </row>
-    <row r="95" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -20017,8 +20295,11 @@
       <c r="BM95" s="2">
         <v>1115</v>
       </c>
+      <c r="BN95" s="2">
+        <v>1127</v>
+      </c>
     </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -20214,8 +20495,11 @@
       <c r="BM96" s="2">
         <v>3976</v>
       </c>
+      <c r="BN96" s="2">
+        <v>4091</v>
+      </c>
     </row>
-    <row r="97" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -20411,8 +20695,11 @@
       <c r="BM97" s="2">
         <v>451</v>
       </c>
+      <c r="BN97" s="2">
+        <v>459</v>
+      </c>
     </row>
-    <row r="98" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -20608,8 +20895,11 @@
       <c r="BM98" s="2">
         <v>163</v>
       </c>
+      <c r="BN98" s="2">
+        <v>163</v>
+      </c>
     </row>
-    <row r="99" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -20805,8 +21095,11 @@
       <c r="BM99" s="2">
         <v>815</v>
       </c>
+      <c r="BN99" s="2">
+        <v>816</v>
+      </c>
     </row>
-    <row r="100" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -21002,8 +21295,11 @@
       <c r="BM100" s="2">
         <v>56</v>
       </c>
+      <c r="BN100" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="101" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -21199,8 +21495,11 @@
       <c r="BM101" s="2">
         <v>60</v>
       </c>
+      <c r="BN101" s="2">
+        <v>60</v>
+      </c>
     </row>
-    <row r="102" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -21396,8 +21695,11 @@
       <c r="BM102" s="2">
         <v>913</v>
       </c>
+      <c r="BN102" s="2">
+        <v>914</v>
+      </c>
     </row>
-    <row r="103" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -21593,8 +21895,11 @@
       <c r="BM103" s="2">
         <v>261127</v>
       </c>
+      <c r="BN103" s="2">
+        <v>261461</v>
+      </c>
     </row>
-    <row r="104" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -21790,8 +22095,11 @@
       <c r="BM104" s="2">
         <v>4704</v>
       </c>
+      <c r="BN104" s="2">
+        <v>4739</v>
+      </c>
     </row>
-    <row r="105" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -21987,8 +22295,11 @@
       <c r="BM105" s="2">
         <v>90</v>
       </c>
+      <c r="BN105" s="2">
+        <v>90</v>
+      </c>
     </row>
-    <row r="106" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -22184,8 +22495,11 @@
       <c r="BM106" s="2">
         <v>286</v>
       </c>
+      <c r="BN106" s="2">
+        <v>286</v>
+      </c>
     </row>
-    <row r="107" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -22381,8 +22695,11 @@
       <c r="BM107" s="2">
         <v>11651</v>
       </c>
+      <c r="BN107" s="2">
+        <v>11968</v>
+      </c>
     </row>
-    <row r="108" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -22578,8 +22895,11 @@
       <c r="BM108" s="2">
         <v>183</v>
       </c>
+      <c r="BN108" s="2">
+        <v>183</v>
+      </c>
     </row>
-    <row r="109" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -22775,8 +23095,11 @@
       <c r="BM109" s="2">
         <v>2006</v>
       </c>
+      <c r="BN109" s="2">
+        <v>2013</v>
+      </c>
     </row>
-    <row r="110" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -22972,8 +23295,11 @@
       <c r="BM110" s="2">
         <v>24720</v>
       </c>
+      <c r="BN110" s="2">
+        <v>24992</v>
+      </c>
     </row>
-    <row r="111" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -23169,8 +23495,11 @@
       <c r="BM111" s="2">
         <v>1301</v>
       </c>
+      <c r="BN111" s="2">
+        <v>1312</v>
+      </c>
     </row>
-    <row r="112" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -23366,8 +23695,11 @@
       <c r="BM112" s="2">
         <v>96</v>
       </c>
+      <c r="BN112" s="2">
+        <v>105</v>
+      </c>
     </row>
-    <row r="113" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -23563,8 +23895,11 @@
       <c r="BM113" s="2">
         <v>1232</v>
       </c>
+      <c r="BN113" s="2">
+        <v>1233</v>
+      </c>
     </row>
-    <row r="114" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -23760,8 +24095,11 @@
       <c r="BM114" s="2">
         <v>737</v>
       </c>
+      <c r="BN114" s="2">
+        <v>738</v>
+      </c>
     </row>
-    <row r="115" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -23957,8 +24295,11 @@
       <c r="BM115" s="2">
         <v>1709</v>
       </c>
+      <c r="BN115" s="2">
+        <v>1715</v>
+      </c>
     </row>
-    <row r="116" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -24154,8 +24495,11 @@
       <c r="BM116" s="2">
         <v>416</v>
       </c>
+      <c r="BN116" s="2">
+        <v>454</v>
+      </c>
     </row>
-    <row r="117" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -24351,8 +24695,11 @@
       <c r="BM117" s="2">
         <v>58</v>
       </c>
+      <c r="BN117" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="118" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -24548,8 +24895,11 @@
       <c r="BM118" s="2">
         <v>3936</v>
       </c>
+      <c r="BN118" s="2">
+        <v>3946</v>
+      </c>
     </row>
-    <row r="119" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -24745,8 +25095,11 @@
       <c r="BM119" s="2">
         <v>648</v>
       </c>
+      <c r="BN119" s="2">
+        <v>649</v>
+      </c>
     </row>
-    <row r="120" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -24942,8 +25295,11 @@
       <c r="BM120" s="2">
         <v>6</v>
       </c>
+      <c r="BN120" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="121" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -25139,8 +25495,11 @@
       <c r="BM121" s="2">
         <v>107</v>
       </c>
+      <c r="BN121" s="2">
+        <v>107</v>
+      </c>
     </row>
-    <row r="122" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -25336,8 +25695,11 @@
       <c r="BM122" s="2">
         <v>892</v>
       </c>
+      <c r="BN122" s="2">
+        <v>901</v>
+      </c>
     </row>
-    <row r="123" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -25533,8 +25895,11 @@
       <c r="BM123" s="2">
         <v>880</v>
       </c>
+      <c r="BN123" s="2">
+        <v>884</v>
+      </c>
     </row>
-    <row r="124" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -25730,8 +26095,11 @@
       <c r="BM124" s="2">
         <v>11</v>
       </c>
+      <c r="BN124" s="2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="125" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -25927,8 +26295,11 @@
       <c r="BM125" s="2">
         <v>15609</v>
       </c>
+      <c r="BN125" s="2">
+        <v>15984</v>
+      </c>
     </row>
-    <row r="126" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -26124,8 +26495,11 @@
       <c r="BM126" s="2">
         <v>133</v>
       </c>
+      <c r="BN126" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="127" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -26321,8 +26695,11 @@
       <c r="BM127" s="2">
         <v>2235</v>
       </c>
+      <c r="BN127" s="2">
+        <v>2235</v>
+      </c>
     </row>
-    <row r="128" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -26518,8 +26895,11 @@
       <c r="BM128" s="2">
         <v>8159</v>
       </c>
+      <c r="BN128" s="2">
+        <v>8198</v>
+      </c>
     </row>
-    <row r="129" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -26715,8 +27095,11 @@
       <c r="BM129" s="2">
         <v>616</v>
       </c>
+      <c r="BN129" s="2">
+        <v>616</v>
+      </c>
     </row>
-    <row r="130" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -26912,8 +27295,11 @@
       <c r="BM130" s="2">
         <v>326</v>
       </c>
+      <c r="BN130" s="2">
+        <v>326</v>
+      </c>
     </row>
-    <row r="131" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -27109,8 +27495,11 @@
       <c r="BM131" s="2">
         <v>4708</v>
       </c>
+      <c r="BN131" s="2">
+        <v>4714</v>
+      </c>
     </row>
-    <row r="132" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -27306,8 +27695,11 @@
       <c r="BM132" s="2">
         <v>1321</v>
       </c>
+      <c r="BN132" s="2">
+        <v>1332</v>
+      </c>
     </row>
-    <row r="133" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -27503,8 +27895,11 @@
       <c r="BM133" s="2">
         <v>3</v>
       </c>
+      <c r="BN133" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="134" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -27700,8 +28095,11 @@
       <c r="BM134" s="2">
         <v>3</v>
       </c>
+      <c r="BN134" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="135" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -27897,8 +28295,11 @@
       <c r="BM135" s="2">
         <v>2582</v>
       </c>
+      <c r="BN135" s="2">
+        <v>2622</v>
+      </c>
     </row>
-    <row r="136" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -28094,8 +28495,11 @@
       <c r="BM136" s="2">
         <v>130</v>
       </c>
+      <c r="BN136" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="137" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -28291,8 +28695,11 @@
       <c r="BM137" s="2">
         <v>4</v>
       </c>
+      <c r="BN137" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="138" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -28488,8 +28895,11 @@
       <c r="BM138" s="2">
         <v>23</v>
       </c>
+      <c r="BN138" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="139" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -28685,8 +29095,11 @@
       <c r="BM139" s="2">
         <v>2388</v>
       </c>
+      <c r="BN139" s="2">
+        <v>2389</v>
+      </c>
     </row>
-    <row r="140" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -28882,8 +29295,11 @@
       <c r="BM140" s="2">
         <v>210</v>
       </c>
+      <c r="BN140" s="2">
+        <v>209</v>
+      </c>
     </row>
-    <row r="141" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -29079,8 +29495,11 @@
       <c r="BM141" s="2">
         <v>1388</v>
       </c>
+      <c r="BN141" s="2">
+        <v>1393</v>
+      </c>
     </row>
-    <row r="142" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -29276,8 +29695,11 @@
       <c r="BM142" s="2">
         <v>216</v>
       </c>
+      <c r="BN142" s="2">
+        <v>216</v>
+      </c>
     </row>
-    <row r="143" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -29473,8 +29895,11 @@
       <c r="BM143" s="2">
         <v>1541</v>
       </c>
+      <c r="BN143" s="2">
+        <v>1554</v>
+      </c>
     </row>
-    <row r="144" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -29670,8 +30095,11 @@
       <c r="BM144" s="2">
         <v>532</v>
       </c>
+      <c r="BN144" s="2">
+        <v>537</v>
+      </c>
     </row>
-    <row r="145" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -29867,8 +30295,11 @@
       <c r="BM145" s="2">
         <v>711</v>
       </c>
+      <c r="BN145" s="2">
+        <v>726</v>
+      </c>
     </row>
-    <row r="146" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -30064,8 +30495,11 @@
       <c r="BM146" s="2">
         <v>375</v>
       </c>
+      <c r="BN146" s="2">
+        <v>378</v>
+      </c>
     </row>
-    <row r="147" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -30261,8 +30695,11 @@
       <c r="BM147" s="2">
         <v>582</v>
       </c>
+      <c r="BN147" s="2">
+        <v>595</v>
+      </c>
     </row>
-    <row r="148" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -30458,8 +30895,11 @@
       <c r="BM148" s="2">
         <v>3499</v>
       </c>
+      <c r="BN148" s="2">
+        <v>3502</v>
+      </c>
     </row>
-    <row r="149" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -30655,8 +31095,11 @@
       <c r="BM149" s="2">
         <v>929</v>
       </c>
+      <c r="BN149" s="2">
+        <v>934</v>
+      </c>
     </row>
-    <row r="150" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -30852,8 +31295,11 @@
       <c r="BM150" s="2">
         <v>121</v>
       </c>
+      <c r="BN150" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="151" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -31049,8 +31495,11 @@
       <c r="BM151" s="2">
         <v>411</v>
       </c>
+      <c r="BN151" s="2">
+        <v>411</v>
+      </c>
     </row>
-    <row r="152" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -31246,8 +31695,11 @@
       <c r="BM152" s="2">
         <v>1162</v>
       </c>
+      <c r="BN152" s="2">
+        <v>1172</v>
+      </c>
     </row>
-    <row r="153" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -31443,8 +31895,11 @@
       <c r="BM153" s="2">
         <v>1</v>
       </c>
+      <c r="BN153" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -31640,8 +32095,11 @@
       <c r="BM154" s="2">
         <v>13890</v>
       </c>
+      <c r="BN154" s="2">
+        <v>14449</v>
+      </c>
     </row>
-    <row r="155" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -31837,8 +32295,11 @@
       <c r="BM155" s="2">
         <v>487</v>
       </c>
+      <c r="BN155" s="2">
+        <v>507</v>
+      </c>
     </row>
-    <row r="156" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -32034,8 +32495,11 @@
       <c r="BM156" s="2">
         <v>93</v>
       </c>
+      <c r="BN156" s="2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="157" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -32231,8 +32695,11 @@
       <c r="BM157" s="2">
         <v>13729</v>
       </c>
+      <c r="BN157" s="2">
+        <v>13896</v>
+      </c>
     </row>
-    <row r="158" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -32428,8 +32895,11 @@
       <c r="BM158" s="2">
         <v>11</v>
       </c>
+      <c r="BN158" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="159" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -32625,8 +33095,11 @@
       <c r="BM159" s="2">
         <v>584</v>
       </c>
+      <c r="BN159" s="2">
+        <v>587</v>
+      </c>
     </row>
-    <row r="160" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -32822,8 +33295,11 @@
       <c r="BM160" s="2">
         <v>119</v>
       </c>
+      <c r="BN160" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="161" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -33019,8 +33495,11 @@
       <c r="BM161" s="2">
         <v>116</v>
       </c>
+      <c r="BN161" s="2">
+        <v>116</v>
+      </c>
     </row>
-    <row r="162" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -33216,8 +33695,11 @@
       <c r="BM162" s="2">
         <v>360</v>
       </c>
+      <c r="BN162" s="2">
+        <v>362</v>
+      </c>
     </row>
-    <row r="163" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -33413,8 +33895,11 @@
       <c r="BM163" s="2">
         <v>1680</v>
       </c>
+      <c r="BN163" s="2">
+        <v>1684</v>
+      </c>
     </row>
-    <row r="164" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -33610,8 +34095,11 @@
       <c r="BM164" s="2">
         <v>3431</v>
       </c>
+      <c r="BN164" s="2">
+        <v>3435</v>
+      </c>
     </row>
-    <row r="165" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -33807,8 +34295,11 @@
       <c r="BM165" s="2">
         <v>1550</v>
       </c>
+      <c r="BN165" s="2">
+        <v>1562</v>
+      </c>
     </row>
-    <row r="166" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -34004,8 +34495,11 @@
       <c r="BM166" s="2">
         <v>31</v>
       </c>
+      <c r="BN166" s="2">
+        <v>32</v>
+      </c>
     </row>
-    <row r="167" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -34201,8 +34695,11 @@
       <c r="BM167" s="2">
         <v>5436</v>
       </c>
+      <c r="BN167" s="2">
+        <v>5489</v>
+      </c>
     </row>
-    <row r="168" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -34398,8 +34895,11 @@
       <c r="BM168" s="2">
         <v>1633</v>
       </c>
+      <c r="BN168" s="2">
+        <v>1646</v>
+      </c>
     </row>
-    <row r="169" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -34595,8 +35095,11 @@
       <c r="BM169" s="2">
         <v>108</v>
       </c>
+      <c r="BN169" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="170" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -34792,8 +35295,11 @@
       <c r="BM170" s="2">
         <v>228</v>
       </c>
+      <c r="BN170" s="2">
+        <v>228</v>
+      </c>
     </row>
-    <row r="171" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -34989,8 +35495,11 @@
       <c r="BM171" s="2">
         <v>327</v>
       </c>
+      <c r="BN171" s="2">
+        <v>327</v>
+      </c>
     </row>
-    <row r="172" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -35186,8 +35695,11 @@
       <c r="BM172" s="2">
         <v>26785</v>
       </c>
+      <c r="BN172" s="2">
+        <v>26800</v>
+      </c>
     </row>
-    <row r="173" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -35383,8 +35895,11 @@
       <c r="BM173" s="2">
         <v>2911</v>
       </c>
+      <c r="BN173" s="2">
+        <v>2912</v>
+      </c>
     </row>
-    <row r="174" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -35580,8 +36095,11 @@
       <c r="BM174" s="2">
         <v>249</v>
       </c>
+      <c r="BN174" s="2">
+        <v>254</v>
+      </c>
     </row>
-    <row r="175" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -35777,8 +36295,11 @@
       <c r="BM175" s="2">
         <v>28</v>
       </c>
+      <c r="BN175" s="2">
+        <v>29</v>
+      </c>
     </row>
-    <row r="176" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -35974,8 +36495,11 @@
       <c r="BM176" s="2">
         <v>3064</v>
       </c>
+      <c r="BN176" s="2">
+        <v>3088</v>
+      </c>
     </row>
-    <row r="177" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -36171,8 +36695,11 @@
       <c r="BM177" s="2">
         <v>1728</v>
       </c>
+      <c r="BN177" s="2">
+        <v>1734</v>
+      </c>
     </row>
-    <row r="178" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -36368,8 +36895,11 @@
       <c r="BM178" s="2">
         <v>317</v>
       </c>
+      <c r="BN178" s="2">
+        <v>317</v>
+      </c>
     </row>
-    <row r="179" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -36565,8 +37095,11 @@
       <c r="BM179" s="2">
         <v>162</v>
       </c>
+      <c r="BN179" s="2">
+        <v>164</v>
+      </c>
     </row>
-    <row r="180" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -36762,8 +37295,11 @@
       <c r="BM180" s="2">
         <v>6729</v>
       </c>
+      <c r="BN180" s="2">
+        <v>6735</v>
+      </c>
     </row>
-    <row r="181" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -36959,8 +37495,11 @@
       <c r="BM181" s="2">
         <v>147</v>
       </c>
+      <c r="BN181" s="2">
+        <v>147</v>
+      </c>
     </row>
-    <row r="182" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -37156,8 +37695,11 @@
       <c r="BM182" s="2">
         <v>115</v>
       </c>
+      <c r="BN182" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="183" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -37353,8 +37895,11 @@
       <c r="BM183" s="2">
         <v>1576</v>
       </c>
+      <c r="BN183" s="2">
+        <v>1578</v>
+      </c>
     </row>
-    <row r="184" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -37550,8 +38095,11 @@
       <c r="BM184" s="2">
         <v>677</v>
       </c>
+      <c r="BN184" s="2">
+        <v>680</v>
+      </c>
     </row>
-    <row r="185" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -37747,8 +38295,11 @@
       <c r="BM185" s="2">
         <v>663</v>
       </c>
+      <c r="BN185" s="2">
+        <v>679</v>
+      </c>
     </row>
-    <row r="186" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -37944,8 +38495,11 @@
       <c r="BM186" s="2">
         <v>5834</v>
       </c>
+      <c r="BN186" s="2">
+        <v>6276</v>
+      </c>
     </row>
-    <row r="187" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -38141,8 +38695,11 @@
       <c r="BM187" s="2">
         <v>331</v>
       </c>
+      <c r="BN187" s="2">
+        <v>331</v>
+      </c>
     </row>
-    <row r="188" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -38338,8 +38895,11 @@
       <c r="BM188" s="2">
         <v>1137</v>
       </c>
+      <c r="BN188" s="2">
+        <v>1137</v>
+      </c>
     </row>
-    <row r="189" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -38535,8 +39095,11 @@
       <c r="BM189" s="2">
         <v>1955</v>
       </c>
+      <c r="BN189" s="2">
+        <v>1958</v>
+      </c>
     </row>
-    <row r="190" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -38732,8 +39295,11 @@
       <c r="BM190" s="2">
         <v>14792</v>
       </c>
+      <c r="BN190" s="2">
+        <v>14838</v>
+      </c>
     </row>
-    <row r="191" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -38929,8 +39495,11 @@
       <c r="BM191" s="2">
         <v>133</v>
       </c>
+      <c r="BN191" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="192" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -39126,8 +39695,11 @@
       <c r="BM192" s="2">
         <v>119</v>
       </c>
+      <c r="BN192" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="193" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -39323,8 +39895,11 @@
       <c r="BM193" s="2">
         <v>5159</v>
       </c>
+      <c r="BN193" s="2">
+        <v>5182</v>
+      </c>
     </row>
-    <row r="194" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -39520,8 +40095,11 @@
       <c r="BM194" s="2">
         <v>115</v>
       </c>
+      <c r="BN194" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="195" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -39717,8 +40295,11 @@
       <c r="BM195" s="2">
         <v>140</v>
       </c>
+      <c r="BN195" s="2">
+        <v>140</v>
+      </c>
     </row>
-    <row r="196" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -39914,8 +40495,11 @@
       <c r="BM196" s="2">
         <v>443</v>
       </c>
+      <c r="BN196" s="2">
+        <v>456</v>
+      </c>
     </row>
-    <row r="197" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -40111,8 +40695,11 @@
       <c r="BM197" s="2">
         <v>239</v>
       </c>
+      <c r="BN197" s="2">
+        <v>239</v>
+      </c>
     </row>
-    <row r="198" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -40308,8 +40895,11 @@
       <c r="BM198" s="2">
         <v>217</v>
       </c>
+      <c r="BN198" s="2">
+        <v>223</v>
+      </c>
     </row>
-    <row r="199" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -40505,8 +41095,11 @@
       <c r="BM199" s="2">
         <v>7</v>
       </c>
+      <c r="BN199" s="2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="200" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -40702,8 +41295,11 @@
       <c r="BM200" s="2">
         <v>707</v>
       </c>
+      <c r="BN200" s="2">
+        <v>721</v>
+      </c>
     </row>
-    <row r="201" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -40899,8 +41495,11 @@
       <c r="BM201" s="2">
         <v>4992</v>
       </c>
+      <c r="BN201" s="2">
+        <v>5016</v>
+      </c>
     </row>
-    <row r="202" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -41096,8 +41695,11 @@
       <c r="BM202" s="2">
         <v>335</v>
       </c>
+      <c r="BN202" s="2">
+        <v>337</v>
+      </c>
     </row>
-    <row r="203" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -41293,8 +41895,11 @@
       <c r="BM203" s="2">
         <v>1322</v>
       </c>
+      <c r="BN203" s="2">
+        <v>1339</v>
+      </c>
     </row>
-    <row r="204" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -41490,8 +42095,11 @@
       <c r="BM204" s="2">
         <v>526</v>
       </c>
+      <c r="BN204" s="2">
+        <v>527</v>
+      </c>
     </row>
-    <row r="205" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -41687,8 +42295,11 @@
       <c r="BM205" s="2">
         <v>322</v>
       </c>
+      <c r="BN205" s="2">
+        <v>347</v>
+      </c>
     </row>
-    <row r="206" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -41884,8 +42495,11 @@
       <c r="BM206" s="2">
         <v>697</v>
       </c>
+      <c r="BN206" s="2">
+        <v>697</v>
+      </c>
     </row>
-    <row r="207" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -42081,8 +42695,11 @@
       <c r="BM207" s="2">
         <v>1260</v>
       </c>
+      <c r="BN207" s="2">
+        <v>1261</v>
+      </c>
     </row>
-    <row r="208" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -42278,8 +42895,11 @@
       <c r="BM208" s="2">
         <v>196</v>
       </c>
+      <c r="BN208" s="2">
+        <v>196</v>
+      </c>
     </row>
-    <row r="209" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -42475,8 +43095,11 @@
       <c r="BM209" s="2">
         <v>107</v>
       </c>
+      <c r="BN209" s="2">
+        <v>108</v>
+      </c>
     </row>
-    <row r="210" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -42672,8 +43295,11 @@
       <c r="BM210" s="2">
         <v>103</v>
       </c>
+      <c r="BN210" s="2">
+        <v>103</v>
+      </c>
     </row>
-    <row r="211" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -42869,8 +43495,11 @@
       <c r="BM211" s="2">
         <v>44</v>
       </c>
+      <c r="BN211" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="212" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -43066,8 +43695,11 @@
       <c r="BM212" s="2">
         <v>1504</v>
       </c>
+      <c r="BN212" s="2">
+        <v>1513</v>
+      </c>
     </row>
-    <row r="213" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -43263,8 +43895,11 @@
       <c r="BM213" s="2">
         <v>36</v>
       </c>
+      <c r="BN213" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="214" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -43460,8 +44095,11 @@
       <c r="BM214" s="2">
         <v>7548</v>
       </c>
+      <c r="BN214" s="2">
+        <v>7577</v>
+      </c>
     </row>
-    <row r="215" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -43657,8 +44295,11 @@
       <c r="BM215" s="2">
         <v>296</v>
       </c>
+      <c r="BN215" s="2">
+        <v>299</v>
+      </c>
     </row>
-    <row r="216" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -43854,8 +44495,11 @@
       <c r="BM216" s="2">
         <v>2879</v>
       </c>
+      <c r="BN216" s="2">
+        <v>2886</v>
+      </c>
     </row>
-    <row r="217" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -44051,8 +44695,11 @@
       <c r="BM217" s="2">
         <v>116</v>
       </c>
+      <c r="BN217" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="218" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -44248,8 +44895,11 @@
       <c r="BM218" s="2">
         <v>27</v>
       </c>
+      <c r="BN218" s="2">
+        <v>27</v>
+      </c>
     </row>
-    <row r="219" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -44445,8 +45095,11 @@
       <c r="BM219" s="2">
         <v>9</v>
       </c>
+      <c r="BN219" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="220" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -44642,8 +45295,11 @@
       <c r="BM220" s="2">
         <v>64</v>
       </c>
+      <c r="BN220" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="221" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -44839,8 +45495,11 @@
       <c r="BM221" s="2">
         <v>257</v>
       </c>
+      <c r="BN221" s="2">
+        <v>258</v>
+      </c>
     </row>
-    <row r="222" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -45036,8 +45695,11 @@
       <c r="BM222" s="2">
         <v>90269</v>
       </c>
+      <c r="BN222" s="2">
+        <v>90612</v>
+      </c>
     </row>
-    <row r="223" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -45233,8 +45895,11 @@
       <c r="BM223" s="2">
         <v>8559</v>
       </c>
+      <c r="BN223" s="2">
+        <v>8671</v>
+      </c>
     </row>
-    <row r="224" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -45430,8 +46095,11 @@
       <c r="BM224" s="2">
         <v>6</v>
       </c>
+      <c r="BN224" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="225" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -45627,8 +46295,11 @@
       <c r="BM225" s="2">
         <v>274</v>
       </c>
+      <c r="BN225" s="2">
+        <v>282</v>
+      </c>
     </row>
-    <row r="226" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -45824,8 +46495,11 @@
       <c r="BM226" s="2">
         <v>43</v>
       </c>
+      <c r="BN226" s="2">
+        <v>43</v>
+      </c>
     </row>
-    <row r="227" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -46021,8 +46695,11 @@
       <c r="BM227" s="2">
         <v>2916</v>
       </c>
+      <c r="BN227" s="2">
+        <v>2933</v>
+      </c>
     </row>
-    <row r="228" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -46218,8 +46895,11 @@
       <c r="BM228" s="2">
         <v>2765</v>
       </c>
+      <c r="BN228" s="2">
+        <v>2784</v>
+      </c>
     </row>
-    <row r="229" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -46415,8 +47095,11 @@
       <c r="BM229" s="2">
         <v>59205</v>
       </c>
+      <c r="BN229" s="2">
+        <v>60438</v>
+      </c>
     </row>
-    <row r="230" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -46612,8 +47295,11 @@
       <c r="BM230" s="2">
         <v>701</v>
       </c>
+      <c r="BN230" s="2">
+        <v>701</v>
+      </c>
     </row>
-    <row r="231" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -46809,8 +47495,11 @@
       <c r="BM231" s="2">
         <v>685</v>
       </c>
+      <c r="BN231" s="2">
+        <v>695</v>
+      </c>
     </row>
-    <row r="232" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -47006,8 +47695,11 @@
       <c r="BM232" s="2">
         <v>468</v>
       </c>
+      <c r="BN232" s="2">
+        <v>480</v>
+      </c>
     </row>
-    <row r="233" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -47203,8 +47895,11 @@
       <c r="BM233" s="2">
         <v>156</v>
       </c>
+      <c r="BN233" s="2">
+        <v>157</v>
+      </c>
     </row>
-    <row r="234" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -47400,8 +48095,11 @@
       <c r="BM234" s="2">
         <v>938</v>
       </c>
+      <c r="BN234" s="2">
+        <v>985</v>
+      </c>
     </row>
-    <row r="235" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -47597,8 +48295,11 @@
       <c r="BM235" s="2">
         <v>1523</v>
       </c>
+      <c r="BN235" s="2">
+        <v>1643</v>
+      </c>
     </row>
-    <row r="236" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -47794,8 +48495,11 @@
       <c r="BM236" s="2">
         <v>1504</v>
       </c>
+      <c r="BN236" s="2">
+        <v>1509</v>
+      </c>
     </row>
-    <row r="237" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -47991,8 +48695,11 @@
       <c r="BM237" s="2">
         <v>3791</v>
       </c>
+      <c r="BN237" s="2">
+        <v>3846</v>
+      </c>
     </row>
-    <row r="238" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -48188,8 +48895,11 @@
       <c r="BM238" s="2">
         <v>10649</v>
       </c>
+      <c r="BN238" s="2">
+        <v>10974</v>
+      </c>
     </row>
-    <row r="239" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -48385,8 +49095,11 @@
       <c r="BM239" s="2">
         <v>1782</v>
       </c>
+      <c r="BN239" s="2">
+        <v>1786</v>
+      </c>
     </row>
-    <row r="240" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -48582,8 +49295,11 @@
       <c r="BM240" s="2">
         <v>250</v>
       </c>
+      <c r="BN240" s="2">
+        <v>251</v>
+      </c>
     </row>
-    <row r="241" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -48779,8 +49495,11 @@
       <c r="BM241" s="2">
         <v>2489</v>
       </c>
+      <c r="BN241" s="2">
+        <v>2510</v>
+      </c>
     </row>
-    <row r="242" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -48976,8 +49695,11 @@
       <c r="BM242" s="2">
         <v>8573</v>
       </c>
+      <c r="BN242" s="2">
+        <v>8772</v>
+      </c>
     </row>
-    <row r="243" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -49173,8 +49895,11 @@
       <c r="BM243" s="2">
         <v>2248</v>
       </c>
+      <c r="BN243" s="2">
+        <v>2366</v>
+      </c>
     </row>
-    <row r="244" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -49370,8 +50095,11 @@
       <c r="BM244" s="2">
         <v>137</v>
       </c>
+      <c r="BN244" s="2">
+        <v>137</v>
+      </c>
     </row>
-    <row r="245" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -49567,8 +50295,11 @@
       <c r="BM245" s="2">
         <v>6975</v>
       </c>
+      <c r="BN245" s="2">
+        <v>6994</v>
+      </c>
     </row>
-    <row r="246" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -49764,8 +50495,11 @@
       <c r="BM246" s="2">
         <v>294</v>
       </c>
+      <c r="BN246" s="2">
+        <v>293</v>
+      </c>
     </row>
-    <row r="247" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -49961,8 +50695,11 @@
       <c r="BM247" s="2">
         <v>1642</v>
       </c>
+      <c r="BN247" s="2">
+        <v>1645</v>
+      </c>
     </row>
-    <row r="248" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -50158,8 +50895,11 @@
       <c r="BM248" s="2">
         <v>19687</v>
       </c>
+      <c r="BN248" s="2">
+        <v>20111</v>
+      </c>
     </row>
-    <row r="249" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -50355,8 +51095,11 @@
       <c r="BM249" s="2">
         <v>1280</v>
       </c>
+      <c r="BN249" s="2">
+        <v>1325</v>
+      </c>
     </row>
-    <row r="250" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -50552,8 +51295,11 @@
       <c r="BM250" s="2">
         <v>35</v>
       </c>
+      <c r="BN250" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="251" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -50749,8 +51495,11 @@
       <c r="BM251" s="2">
         <v>1527</v>
       </c>
+      <c r="BN251" s="2">
+        <v>1529</v>
+      </c>
     </row>
-    <row r="252" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -50946,8 +51695,11 @@
       <c r="BM252" s="2">
         <v>892</v>
       </c>
+      <c r="BN252" s="2">
+        <v>904</v>
+      </c>
     </row>
-    <row r="253" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -51143,8 +51895,11 @@
       <c r="BM253" s="2">
         <v>226</v>
       </c>
+      <c r="BN253" s="2">
+        <v>236</v>
+      </c>
     </row>
-    <row r="254" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -51340,8 +52095,11 @@
       <c r="BM254" s="2">
         <v>731</v>
       </c>
+      <c r="BN254" s="2">
+        <v>738</v>
+      </c>
     </row>
-    <row r="255" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -51537,8 +52295,11 @@
       <c r="BM255" s="2">
         <v>594</v>
       </c>
+      <c r="BN255" s="2">
+        <v>594</v>
+      </c>
     </row>
-    <row r="256" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -51734,8 +52495,11 @@
       <c r="BM256" s="2">
         <v>126</v>
       </c>
+      <c r="BN256" s="2">
+        <v>126</v>
+      </c>
     </row>
-    <row r="257" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -51931,8 +52695,11 @@
       <c r="BM257" s="2">
         <v>4586</v>
       </c>
+      <c r="BN257" s="2">
+        <v>4581</v>
+      </c>
     </row>
-    <row r="258" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -52129,8 +52896,11 @@
       <c r="BM258" s="2">
         <v>414824</v>
       </c>
+      <c r="BN258" s="2">
+        <v>432152</v>
+      </c>
     </row>
-    <row r="259" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>257</v>
       </c>
@@ -52331,8 +53101,12 @@
         <f>SUM(BM3:BM258)</f>
         <v>1805642</v>
       </c>
+      <c r="BN259" s="10">
+        <f>SUM(BN3:BN258)</f>
+        <v>1836037</v>
+      </c>
     </row>
-    <row r="261" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -52345,7 +53119,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
         <v>258</v>
       </c>
@@ -52358,7 +53132,7 @@
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:65" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:66" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>259</v>
       </c>
@@ -52371,7 +53145,7 @@
       <c r="H263" s="24"/>
       <c r="I263" s="24"/>
     </row>
-    <row r="264" spans="1:65" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>260</v>
       </c>
@@ -52384,7 +53158,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
     </row>
-    <row r="265" spans="1:65" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:66" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>288</v>
       </c>
@@ -52446,8 +53220,15 @@
       <c r="BE265" s="13"/>
       <c r="BF265" s="13"/>
       <c r="BG265" s="13"/>
+      <c r="BH265" s="13"/>
+      <c r="BI265" s="13"/>
+      <c r="BJ265" s="13"/>
+      <c r="BK265" s="13"/>
+      <c r="BL265" s="13"/>
+      <c r="BM265" s="13"/>
+      <c r="BN265" s="13"/>
     </row>
-    <row r="266" spans="1:65" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>331</v>
       </c>
@@ -52460,7 +53241,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:65" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:66" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="23" t="s">
         <v>278</v>
       </c>

--- a/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
+++ b/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B07D47DE-09A7-488A-858B-A61906919571}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2A60E936-9D70-41A9-ABF2-E4B53C982510}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="336">
   <si>
     <t>County</t>
   </si>
@@ -1025,7 +1025,19 @@
     <t>Tests Through June 23</t>
   </si>
   <si>
-    <t>5. This file will be updated daily; the next cumulative update will be 6/26/2020.</t>
+    <t>Tests Through June 24</t>
+  </si>
+  <si>
+    <t>Tests Through June 25</t>
+  </si>
+  <si>
+    <t>Tests Through June 26</t>
+  </si>
+  <si>
+    <t>Tests Through June 27</t>
+  </si>
+  <si>
+    <t>5. This file will be updated daily; the next cumulative update will be 6/29/2020.</t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN267"/>
+  <dimension ref="A1:BQ267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM255" sqref="BM255"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,15 +1503,15 @@
     <col min="40" max="45" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11.453125" style="2" customWidth="1"/>
     <col min="47" max="49" width="11.1796875" style="2" customWidth="1"/>
-    <col min="50" max="66" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="69" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:66" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1696,10 +1708,19 @@
         <v>330</v>
       </c>
       <c r="BN2" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1898,8 +1919,17 @@
       <c r="BN3" s="2">
         <v>5803</v>
       </c>
+      <c r="BO3" s="2">
+        <v>6116</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>6548</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>6563</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2098,8 +2128,17 @@
       <c r="BN4" s="2">
         <v>95</v>
       </c>
+      <c r="BO4" s="2">
+        <v>96</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>112</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2298,8 +2337,17 @@
       <c r="BN5" s="2">
         <v>3793</v>
       </c>
+      <c r="BO5" s="2">
+        <v>3805</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>3872</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2498,8 +2546,17 @@
       <c r="BN6" s="2">
         <v>356</v>
       </c>
+      <c r="BO6" s="2">
+        <v>356</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>360</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>364</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2698,8 +2755,17 @@
       <c r="BN7" s="2">
         <v>99</v>
       </c>
+      <c r="BO7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>101</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2898,8 +2964,17 @@
       <c r="BN8" s="2">
         <v>180</v>
       </c>
+      <c r="BO8" s="2">
+        <v>180</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>180</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>180</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3098,8 +3173,17 @@
       <c r="BN9" s="2">
         <v>1453</v>
       </c>
+      <c r="BO9" s="2">
+        <v>1454</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>1511</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>1593</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3298,8 +3382,17 @@
       <c r="BN10" s="2">
         <v>1486</v>
       </c>
+      <c r="BO10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>1511</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>1582</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3498,8 +3591,17 @@
       <c r="BN11" s="2">
         <v>113</v>
       </c>
+      <c r="BO11" s="2">
+        <v>114</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>119</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3698,8 +3800,17 @@
       <c r="BN12" s="2">
         <v>436</v>
       </c>
+      <c r="BO12" s="2">
+        <v>436</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>457</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>457</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3898,8 +4009,17 @@
       <c r="BN13" s="2">
         <v>2457</v>
       </c>
+      <c r="BO13" s="2">
+        <v>2476</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>2518</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>2601</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -4098,8 +4218,17 @@
       <c r="BN14" s="2">
         <v>74</v>
       </c>
+      <c r="BO14" s="2">
+        <v>74</v>
+      </c>
+      <c r="BP14" s="2">
+        <v>73</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>75</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4298,8 +4427,17 @@
       <c r="BN15" s="2">
         <v>2228</v>
       </c>
+      <c r="BO15" s="2">
+        <v>2228</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>2473</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>2482</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4498,8 +4636,17 @@
       <c r="BN16" s="2">
         <v>23010</v>
       </c>
+      <c r="BO16" s="2">
+        <v>23329</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>23421</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>23489</v>
+      </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -4698,8 +4845,17 @@
       <c r="BN17" s="2">
         <v>67524</v>
       </c>
+      <c r="BO17" s="2">
+        <v>67591</v>
+      </c>
+      <c r="BP17" s="2">
+        <v>68876</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>70510</v>
+      </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -4898,8 +5054,17 @@
       <c r="BN18" s="2">
         <v>2202</v>
       </c>
+      <c r="BO18" s="2">
+        <v>2216</v>
+      </c>
+      <c r="BP18" s="2">
+        <v>2251</v>
+      </c>
+      <c r="BQ18" s="2">
+        <v>2319</v>
+      </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -5098,8 +5263,17 @@
       <c r="BN19" s="2">
         <v>2</v>
       </c>
+      <c r="BO19" s="2">
+        <v>2</v>
+      </c>
+      <c r="BP19" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ19" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -5298,8 +5472,17 @@
       <c r="BN20" s="2">
         <v>1018</v>
       </c>
+      <c r="BO20" s="2">
+        <v>1026</v>
+      </c>
+      <c r="BP20" s="2">
+        <v>1034</v>
+      </c>
+      <c r="BQ20" s="2">
+        <v>1040</v>
+      </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -5498,8 +5681,17 @@
       <c r="BN21" s="2">
         <v>7039</v>
       </c>
+      <c r="BO21" s="2">
+        <v>7067</v>
+      </c>
+      <c r="BP21" s="2">
+        <v>7114</v>
+      </c>
+      <c r="BQ21" s="2">
+        <v>7333</v>
+      </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -5698,8 +5890,17 @@
       <c r="BN22" s="2">
         <v>14458</v>
       </c>
+      <c r="BO22" s="2">
+        <v>14650</v>
+      </c>
+      <c r="BP22" s="2">
+        <v>15089</v>
+      </c>
+      <c r="BQ22" s="2">
+        <v>15749</v>
+      </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -5898,8 +6099,17 @@
       <c r="BN23" s="2">
         <v>12973</v>
       </c>
+      <c r="BO23" s="2">
+        <v>13129</v>
+      </c>
+      <c r="BP23" s="2">
+        <v>13408</v>
+      </c>
+      <c r="BQ23" s="2">
+        <v>13613</v>
+      </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -6098,8 +6308,17 @@
       <c r="BN24" s="2">
         <v>946</v>
       </c>
+      <c r="BO24" s="2">
+        <v>950</v>
+      </c>
+      <c r="BP24" s="2">
+        <v>979</v>
+      </c>
+      <c r="BQ24" s="2">
+        <v>986</v>
+      </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -6298,8 +6517,17 @@
       <c r="BN25" s="2">
         <v>56</v>
       </c>
+      <c r="BO25" s="2">
+        <v>56</v>
+      </c>
+      <c r="BP25" s="2">
+        <v>56</v>
+      </c>
+      <c r="BQ25" s="2">
+        <v>56</v>
+      </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -6498,8 +6726,17 @@
       <c r="BN26" s="2">
         <v>116</v>
       </c>
+      <c r="BO26" s="2">
+        <v>116</v>
+      </c>
+      <c r="BP26" s="2">
+        <v>132</v>
+      </c>
+      <c r="BQ26" s="2">
+        <v>135</v>
+      </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -6698,8 +6935,17 @@
       <c r="BN27" s="2">
         <v>1066</v>
       </c>
+      <c r="BO27" s="2">
+        <v>1067</v>
+      </c>
+      <c r="BP27" s="2">
+        <v>1086</v>
+      </c>
+      <c r="BQ27" s="2">
+        <v>1103</v>
+      </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -6898,8 +7144,17 @@
       <c r="BN28" s="2">
         <v>715</v>
       </c>
+      <c r="BO28" s="2">
+        <v>718</v>
+      </c>
+      <c r="BP28" s="2">
+        <v>729</v>
+      </c>
+      <c r="BQ28" s="2">
+        <v>741</v>
+      </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -7098,8 +7353,17 @@
       <c r="BN29" s="2">
         <v>1834</v>
       </c>
+      <c r="BO29" s="2">
+        <v>1839</v>
+      </c>
+      <c r="BP29" s="2">
+        <v>1855</v>
+      </c>
+      <c r="BQ29" s="2">
+        <v>1925</v>
+      </c>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -7298,8 +7562,17 @@
       <c r="BN30" s="2">
         <v>1230</v>
       </c>
+      <c r="BO30" s="2">
+        <v>1259</v>
+      </c>
+      <c r="BP30" s="2">
+        <v>1304</v>
+      </c>
+      <c r="BQ30" s="2">
+        <v>1343</v>
+      </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -7498,8 +7771,17 @@
       <c r="BN31" s="2">
         <v>1108</v>
       </c>
+      <c r="BO31" s="2">
+        <v>1111</v>
+      </c>
+      <c r="BP31" s="2">
+        <v>1113</v>
+      </c>
+      <c r="BQ31" s="2">
+        <v>1116</v>
+      </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -7698,8 +7980,17 @@
       <c r="BN32" s="2">
         <v>316</v>
       </c>
+      <c r="BO32" s="2">
+        <v>316</v>
+      </c>
+      <c r="BP32" s="2">
+        <v>321</v>
+      </c>
+      <c r="BQ32" s="2">
+        <v>325</v>
+      </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -7898,8 +8189,17 @@
       <c r="BN33" s="2">
         <v>15652</v>
       </c>
+      <c r="BO33" s="2">
+        <v>15975</v>
+      </c>
+      <c r="BP33" s="2">
+        <v>16978</v>
+      </c>
+      <c r="BQ33" s="2">
+        <v>17668</v>
+      </c>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -8098,8 +8398,17 @@
       <c r="BN34" s="2">
         <v>385</v>
       </c>
+      <c r="BO34" s="2">
+        <v>393</v>
+      </c>
+      <c r="BP34" s="2">
+        <v>393</v>
+      </c>
+      <c r="BQ34" s="2">
+        <v>393</v>
+      </c>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -8298,8 +8607,17 @@
       <c r="BN35" s="2">
         <v>154</v>
       </c>
+      <c r="BO35" s="2">
+        <v>154</v>
+      </c>
+      <c r="BP35" s="2">
+        <v>155</v>
+      </c>
+      <c r="BQ35" s="2">
+        <v>158</v>
+      </c>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -8498,8 +8816,17 @@
       <c r="BN36" s="2">
         <v>799</v>
       </c>
+      <c r="BO36" s="2">
+        <v>810</v>
+      </c>
+      <c r="BP36" s="2">
+        <v>817</v>
+      </c>
+      <c r="BQ36" s="2">
+        <v>819</v>
+      </c>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -8698,8 +9025,17 @@
       <c r="BN37" s="2">
         <v>328</v>
       </c>
+      <c r="BO37" s="2">
+        <v>328</v>
+      </c>
+      <c r="BP37" s="2">
+        <v>328</v>
+      </c>
+      <c r="BQ37" s="2">
+        <v>331</v>
+      </c>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -8898,8 +9234,17 @@
       <c r="BN38" s="2">
         <v>1459</v>
       </c>
+      <c r="BO38" s="2">
+        <v>1463</v>
+      </c>
+      <c r="BP38" s="2">
+        <v>1588</v>
+      </c>
+      <c r="BQ38" s="2">
+        <v>1795</v>
+      </c>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -9098,8 +9443,17 @@
       <c r="BN39" s="2">
         <v>1429</v>
       </c>
+      <c r="BO39" s="2">
+        <v>1437</v>
+      </c>
+      <c r="BP39" s="2">
+        <v>1449</v>
+      </c>
+      <c r="BQ39" s="2">
+        <v>1464</v>
+      </c>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -9298,8 +9652,17 @@
       <c r="BN40" s="2">
         <v>289</v>
       </c>
+      <c r="BO40" s="2">
+        <v>290</v>
+      </c>
+      <c r="BP40" s="2">
+        <v>290</v>
+      </c>
+      <c r="BQ40" s="2">
+        <v>294</v>
+      </c>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -9498,8 +9861,17 @@
       <c r="BN41" s="2">
         <v>331</v>
       </c>
+      <c r="BO41" s="2">
+        <v>332</v>
+      </c>
+      <c r="BP41" s="2">
+        <v>333</v>
+      </c>
+      <c r="BQ41" s="2">
+        <v>333</v>
+      </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -9698,8 +10070,17 @@
       <c r="BN42" s="2">
         <v>20</v>
       </c>
+      <c r="BO42" s="2">
+        <v>20</v>
+      </c>
+      <c r="BP42" s="2">
+        <v>21</v>
+      </c>
+      <c r="BQ42" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -9898,8 +10279,17 @@
       <c r="BN43" s="2">
         <v>36</v>
       </c>
+      <c r="BO43" s="2">
+        <v>37</v>
+      </c>
+      <c r="BP43" s="2">
+        <v>37</v>
+      </c>
+      <c r="BQ43" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -10098,8 +10488,17 @@
       <c r="BN44" s="2">
         <v>191</v>
       </c>
+      <c r="BO44" s="2">
+        <v>191</v>
+      </c>
+      <c r="BP44" s="2">
+        <v>194</v>
+      </c>
+      <c r="BQ44" s="2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -10298,8 +10697,17 @@
       <c r="BN45" s="2">
         <v>40645</v>
       </c>
+      <c r="BO45" s="2">
+        <v>40938</v>
+      </c>
+      <c r="BP45" s="2">
+        <v>41666</v>
+      </c>
+      <c r="BQ45" s="2">
+        <v>42742</v>
+      </c>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -10498,8 +10906,17 @@
       <c r="BN46" s="2">
         <v>160</v>
       </c>
+      <c r="BO46" s="2">
+        <v>160</v>
+      </c>
+      <c r="BP46" s="2">
+        <v>160</v>
+      </c>
+      <c r="BQ46" s="2">
+        <v>160</v>
+      </c>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -10698,8 +11115,17 @@
       <c r="BN47" s="2">
         <v>1221</v>
       </c>
+      <c r="BO47" s="2">
+        <v>1224</v>
+      </c>
+      <c r="BP47" s="2">
+        <v>1240</v>
+      </c>
+      <c r="BQ47" s="2">
+        <v>1268</v>
+      </c>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -10898,8 +11324,17 @@
       <c r="BN48" s="2">
         <v>5905</v>
       </c>
+      <c r="BO48" s="2">
+        <v>5957</v>
+      </c>
+      <c r="BP48" s="2">
+        <v>6032</v>
+      </c>
+      <c r="BQ48" s="2">
+        <v>6144</v>
+      </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -11098,8 +11533,17 @@
       <c r="BN49" s="2">
         <v>685</v>
       </c>
+      <c r="BO49" s="2">
+        <v>692</v>
+      </c>
+      <c r="BP49" s="2">
+        <v>693</v>
+      </c>
+      <c r="BQ49" s="2">
+        <v>698</v>
+      </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -11298,8 +11742,17 @@
       <c r="BN50" s="2">
         <v>93</v>
       </c>
+      <c r="BO50" s="2">
+        <v>93</v>
+      </c>
+      <c r="BP50" s="2">
+        <v>93</v>
+      </c>
+      <c r="BQ50" s="2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -11498,8 +11951,17 @@
       <c r="BN51" s="2">
         <v>1653</v>
       </c>
+      <c r="BO51" s="2">
+        <v>1667</v>
+      </c>
+      <c r="BP51" s="2">
+        <v>1710</v>
+      </c>
+      <c r="BQ51" s="2">
+        <v>1786</v>
+      </c>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -11698,8 +12160,17 @@
       <c r="BN52" s="2">
         <v>6992</v>
       </c>
+      <c r="BO52" s="2">
+        <v>7033</v>
+      </c>
+      <c r="BP52" s="2">
+        <v>7092</v>
+      </c>
+      <c r="BQ52" s="2">
+        <v>7108</v>
+      </c>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -11898,8 +12369,17 @@
       <c r="BN53" s="2">
         <v>38</v>
       </c>
+      <c r="BO53" s="2">
+        <v>38</v>
+      </c>
+      <c r="BP53" s="2">
+        <v>38</v>
+      </c>
+      <c r="BQ53" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -12098,8 +12578,17 @@
       <c r="BN54" s="2">
         <v>169</v>
       </c>
+      <c r="BO54" s="2">
+        <v>170</v>
+      </c>
+      <c r="BP54" s="2">
+        <v>170</v>
+      </c>
+      <c r="BQ54" s="2">
+        <v>170</v>
+      </c>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -12298,8 +12787,17 @@
       <c r="BN55" s="2">
         <v>109</v>
       </c>
+      <c r="BO55" s="2">
+        <v>110</v>
+      </c>
+      <c r="BP55" s="2">
+        <v>110</v>
+      </c>
+      <c r="BQ55" s="2">
+        <v>112</v>
+      </c>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -12498,8 +12996,17 @@
       <c r="BN56" s="2">
         <v>162</v>
       </c>
+      <c r="BO56" s="2">
+        <v>163</v>
+      </c>
+      <c r="BP56" s="2">
+        <v>163</v>
+      </c>
+      <c r="BQ56" s="2">
+        <v>163</v>
+      </c>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -12698,8 +13205,17 @@
       <c r="BN57" s="2">
         <v>38</v>
       </c>
+      <c r="BO57" s="2">
+        <v>39</v>
+      </c>
+      <c r="BP57" s="2">
+        <v>39</v>
+      </c>
+      <c r="BQ57" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -12898,8 +13414,17 @@
       <c r="BN58" s="2">
         <v>10</v>
       </c>
+      <c r="BO58" s="2">
+        <v>10</v>
+      </c>
+      <c r="BP58" s="2">
+        <v>10</v>
+      </c>
+      <c r="BQ58" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -13098,8 +13623,17 @@
       <c r="BN59" s="2">
         <v>155980</v>
       </c>
+      <c r="BO59" s="2">
+        <v>156766</v>
+      </c>
+      <c r="BP59" s="2">
+        <v>160408</v>
+      </c>
+      <c r="BQ59" s="2">
+        <v>166110</v>
+      </c>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -13298,8 +13832,17 @@
       <c r="BN60" s="2">
         <v>446</v>
       </c>
+      <c r="BO60" s="2">
+        <v>446</v>
+      </c>
+      <c r="BP60" s="2">
+        <v>447</v>
+      </c>
+      <c r="BQ60" s="2">
+        <v>447</v>
+      </c>
     </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -13498,8 +14041,17 @@
       <c r="BN61" s="2">
         <v>435</v>
       </c>
+      <c r="BO61" s="2">
+        <v>444</v>
+      </c>
+      <c r="BP61" s="2">
+        <v>449</v>
+      </c>
+      <c r="BQ61" s="2">
+        <v>457</v>
+      </c>
     </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -13698,8 +14250,17 @@
       <c r="BN62" s="2">
         <v>106</v>
       </c>
+      <c r="BO62" s="2">
+        <v>107</v>
+      </c>
+      <c r="BP62" s="2">
+        <v>107</v>
+      </c>
+      <c r="BQ62" s="2">
+        <v>108</v>
+      </c>
     </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -13898,8 +14459,17 @@
       <c r="BN63" s="2">
         <v>36657</v>
       </c>
+      <c r="BO63" s="2">
+        <v>36967</v>
+      </c>
+      <c r="BP63" s="2">
+        <v>37630</v>
+      </c>
+      <c r="BQ63" s="2">
+        <v>38941</v>
+      </c>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -14098,8 +14668,17 @@
       <c r="BN64" s="2">
         <v>546</v>
       </c>
+      <c r="BO64" s="2">
+        <v>549</v>
+      </c>
+      <c r="BP64" s="2">
+        <v>555</v>
+      </c>
+      <c r="BQ64" s="2">
+        <v>560</v>
+      </c>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -14298,8 +14877,17 @@
       <c r="BN65" s="2">
         <v>28</v>
       </c>
+      <c r="BO65" s="2">
+        <v>29</v>
+      </c>
+      <c r="BP65" s="2">
+        <v>29</v>
+      </c>
+      <c r="BQ65" s="2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -14498,8 +15086,17 @@
       <c r="BN66" s="2">
         <v>188</v>
       </c>
+      <c r="BO66" s="2">
+        <v>190</v>
+      </c>
+      <c r="BP66" s="2">
+        <v>196</v>
+      </c>
+      <c r="BQ66" s="2">
+        <v>198</v>
+      </c>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -14698,8 +15295,17 @@
       <c r="BN67" s="2">
         <v>193</v>
       </c>
+      <c r="BO67" s="2">
+        <v>194</v>
+      </c>
+      <c r="BP67" s="2">
+        <v>195</v>
+      </c>
+      <c r="BQ67" s="2">
+        <v>197</v>
+      </c>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -14898,8 +15504,17 @@
       <c r="BN68" s="2">
         <v>393</v>
       </c>
+      <c r="BO68" s="2">
+        <v>393</v>
+      </c>
+      <c r="BP68" s="2">
+        <v>399</v>
+      </c>
+      <c r="BQ68" s="2">
+        <v>406</v>
+      </c>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -15098,8 +15713,17 @@
       <c r="BN69" s="2">
         <v>421</v>
       </c>
+      <c r="BO69" s="2">
+        <v>421</v>
+      </c>
+      <c r="BP69" s="2">
+        <v>459</v>
+      </c>
+      <c r="BQ69" s="2">
+        <v>463</v>
+      </c>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -15298,8 +15922,17 @@
       <c r="BN70" s="2">
         <v>5101</v>
       </c>
+      <c r="BO70" s="2">
+        <v>5193</v>
+      </c>
+      <c r="BP70" s="2">
+        <v>5217</v>
+      </c>
+      <c r="BQ70" s="2">
+        <v>5262</v>
+      </c>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -15498,8 +16131,17 @@
       <c r="BN71" s="2">
         <v>32</v>
       </c>
+      <c r="BO71" s="2">
+        <v>32</v>
+      </c>
+      <c r="BP71" s="2">
+        <v>32</v>
+      </c>
+      <c r="BQ71" s="2">
+        <v>33</v>
+      </c>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -15698,8 +16340,17 @@
       <c r="BN72" s="2">
         <v>9202</v>
       </c>
+      <c r="BO72" s="2">
+        <v>9287</v>
+      </c>
+      <c r="BP72" s="2">
+        <v>9526</v>
+      </c>
+      <c r="BQ72" s="2">
+        <v>10168</v>
+      </c>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -15898,8 +16549,17 @@
       <c r="BN73" s="2">
         <v>44566</v>
       </c>
+      <c r="BO73" s="2">
+        <v>44671</v>
+      </c>
+      <c r="BP73" s="2">
+        <v>45031</v>
+      </c>
+      <c r="BQ73" s="2">
+        <v>45321</v>
+      </c>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -16098,8 +16758,17 @@
       <c r="BN74" s="2">
         <v>1526</v>
       </c>
+      <c r="BO74" s="2">
+        <v>1546</v>
+      </c>
+      <c r="BP74" s="2">
+        <v>1553</v>
+      </c>
+      <c r="BQ74" s="2">
+        <v>1563</v>
+      </c>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -16298,8 +16967,17 @@
       <c r="BN75" s="2">
         <v>857</v>
       </c>
+      <c r="BO75" s="2">
+        <v>866</v>
+      </c>
+      <c r="BP75" s="2">
+        <v>892</v>
+      </c>
+      <c r="BQ75" s="2">
+        <v>896</v>
+      </c>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -16498,8 +17176,17 @@
       <c r="BN76" s="2">
         <v>1454</v>
       </c>
+      <c r="BO76" s="2">
+        <v>1462</v>
+      </c>
+      <c r="BP76" s="2">
+        <v>1492</v>
+      </c>
+      <c r="BQ76" s="2">
+        <v>1529</v>
+      </c>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -16698,8 +17385,17 @@
       <c r="BN77" s="2">
         <v>1522</v>
       </c>
+      <c r="BO77" s="2">
+        <v>1530</v>
+      </c>
+      <c r="BP77" s="2">
+        <v>1569</v>
+      </c>
+      <c r="BQ77" s="2">
+        <v>1590</v>
+      </c>
     </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -16898,8 +17594,17 @@
       <c r="BN78" s="2">
         <v>32</v>
       </c>
+      <c r="BO78" s="2">
+        <v>32</v>
+      </c>
+      <c r="BP78" s="2">
+        <v>33</v>
+      </c>
+      <c r="BQ78" s="2">
+        <v>34</v>
+      </c>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -17098,8 +17803,17 @@
       <c r="BN79" s="2">
         <v>280</v>
       </c>
+      <c r="BO79" s="2">
+        <v>282</v>
+      </c>
+      <c r="BP79" s="2">
+        <v>284</v>
+      </c>
+      <c r="BQ79" s="2">
+        <v>293</v>
+      </c>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -17298,8 +18012,17 @@
       <c r="BN80" s="2">
         <v>96</v>
       </c>
+      <c r="BO80" s="2">
+        <v>96</v>
+      </c>
+      <c r="BP80" s="2">
+        <v>96</v>
+      </c>
+      <c r="BQ80" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="81" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -17498,8 +18221,17 @@
       <c r="BN81" s="2">
         <v>93506</v>
       </c>
+      <c r="BO81" s="2">
+        <v>94264</v>
+      </c>
+      <c r="BP81" s="2">
+        <v>95513</v>
+      </c>
+      <c r="BQ81" s="2">
+        <v>98749</v>
+      </c>
     </row>
-    <row r="82" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -17698,8 +18430,17 @@
       <c r="BN82" s="2">
         <v>276</v>
       </c>
+      <c r="BO82" s="2">
+        <v>276</v>
+      </c>
+      <c r="BP82" s="2">
+        <v>277</v>
+      </c>
+      <c r="BQ82" s="2">
+        <v>278</v>
+      </c>
     </row>
-    <row r="83" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -17898,8 +18639,17 @@
       <c r="BN83" s="2">
         <v>689</v>
       </c>
+      <c r="BO83" s="2">
+        <v>695</v>
+      </c>
+      <c r="BP83" s="2">
+        <v>707</v>
+      </c>
+      <c r="BQ83" s="2">
+        <v>717</v>
+      </c>
     </row>
-    <row r="84" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -18098,8 +18848,17 @@
       <c r="BN84" s="2">
         <v>758</v>
       </c>
+      <c r="BO84" s="2">
+        <v>758</v>
+      </c>
+      <c r="BP84" s="2">
+        <v>772</v>
+      </c>
+      <c r="BQ84" s="2">
+        <v>783</v>
+      </c>
     </row>
-    <row r="85" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -18298,8 +19057,17 @@
       <c r="BN85" s="2">
         <v>280</v>
       </c>
+      <c r="BO85" s="2">
+        <v>280</v>
+      </c>
+      <c r="BP85" s="2">
+        <v>284</v>
+      </c>
+      <c r="BQ85" s="2">
+        <v>287</v>
+      </c>
     </row>
-    <row r="86" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -18498,8 +19266,17 @@
       <c r="BN86" s="2">
         <v>38917</v>
       </c>
+      <c r="BO86" s="2">
+        <v>39319</v>
+      </c>
+      <c r="BP86" s="2">
+        <v>40739</v>
+      </c>
+      <c r="BQ86" s="2">
+        <v>42776</v>
+      </c>
     </row>
-    <row r="87" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -18698,8 +19475,17 @@
       <c r="BN87" s="2">
         <v>3</v>
       </c>
+      <c r="BO87" s="2">
+        <v>3</v>
+      </c>
+      <c r="BP87" s="2">
+        <v>3</v>
+      </c>
+      <c r="BQ87" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -18898,8 +19684,17 @@
       <c r="BN88" s="2">
         <v>1158</v>
       </c>
+      <c r="BO88" s="2">
+        <v>1157</v>
+      </c>
+      <c r="BP88" s="2">
+        <v>1158</v>
+      </c>
+      <c r="BQ88" s="2">
+        <v>1163</v>
+      </c>
     </row>
-    <row r="89" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -19098,8 +19893,17 @@
       <c r="BN89" s="2">
         <v>76</v>
       </c>
+      <c r="BO89" s="2">
+        <v>76</v>
+      </c>
+      <c r="BP89" s="2">
+        <v>76</v>
+      </c>
+      <c r="BQ89" s="2">
+        <v>76</v>
+      </c>
     </row>
-    <row r="90" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -19298,8 +20102,17 @@
       <c r="BN90" s="2">
         <v>181</v>
       </c>
+      <c r="BO90" s="2">
+        <v>182</v>
+      </c>
+      <c r="BP90" s="2">
+        <v>184</v>
+      </c>
+      <c r="BQ90" s="2">
+        <v>186</v>
+      </c>
     </row>
-    <row r="91" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -19498,8 +20311,17 @@
       <c r="BN91" s="2">
         <v>1118</v>
       </c>
+      <c r="BO91" s="2">
+        <v>1119</v>
+      </c>
+      <c r="BP91" s="2">
+        <v>1146</v>
+      </c>
+      <c r="BQ91" s="2">
+        <v>1152</v>
+      </c>
     </row>
-    <row r="92" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -19698,8 +20520,17 @@
       <c r="BN92" s="2">
         <v>876</v>
       </c>
+      <c r="BO92" s="2">
+        <v>880</v>
+      </c>
+      <c r="BP92" s="2">
+        <v>885</v>
+      </c>
+      <c r="BQ92" s="2">
+        <v>893</v>
+      </c>
     </row>
-    <row r="93" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -19898,8 +20729,17 @@
       <c r="BN93" s="2">
         <v>7520</v>
       </c>
+      <c r="BO93" s="2">
+        <v>7552</v>
+      </c>
+      <c r="BP93" s="2">
+        <v>7674</v>
+      </c>
+      <c r="BQ93" s="2">
+        <v>7853</v>
+      </c>
     </row>
-    <row r="94" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -20098,8 +20938,17 @@
       <c r="BN94" s="2">
         <v>3105</v>
       </c>
+      <c r="BO94" s="2">
+        <v>3200</v>
+      </c>
+      <c r="BP94" s="2">
+        <v>3222</v>
+      </c>
+      <c r="BQ94" s="2">
+        <v>3237</v>
+      </c>
     </row>
-    <row r="95" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -20298,8 +21147,17 @@
       <c r="BN95" s="2">
         <v>1127</v>
       </c>
+      <c r="BO95" s="2">
+        <v>1136</v>
+      </c>
+      <c r="BP95" s="2">
+        <v>1167</v>
+      </c>
+      <c r="BQ95" s="2">
+        <v>1195</v>
+      </c>
     </row>
-    <row r="96" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -20498,8 +21356,17 @@
       <c r="BN96" s="2">
         <v>4091</v>
       </c>
+      <c r="BO96" s="2">
+        <v>4112</v>
+      </c>
+      <c r="BP96" s="2">
+        <v>4263</v>
+      </c>
+      <c r="BQ96" s="2">
+        <v>4349</v>
+      </c>
     </row>
-    <row r="97" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -20698,8 +21565,17 @@
       <c r="BN97" s="2">
         <v>459</v>
       </c>
+      <c r="BO97" s="2">
+        <v>469</v>
+      </c>
+      <c r="BP97" s="2">
+        <v>470</v>
+      </c>
+      <c r="BQ97" s="2">
+        <v>476</v>
+      </c>
     </row>
-    <row r="98" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -20898,8 +21774,17 @@
       <c r="BN98" s="2">
         <v>163</v>
       </c>
+      <c r="BO98" s="2">
+        <v>163</v>
+      </c>
+      <c r="BP98" s="2">
+        <v>164</v>
+      </c>
+      <c r="BQ98" s="2">
+        <v>165</v>
+      </c>
     </row>
-    <row r="99" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -21098,8 +21983,17 @@
       <c r="BN99" s="2">
         <v>816</v>
       </c>
+      <c r="BO99" s="2">
+        <v>819</v>
+      </c>
+      <c r="BP99" s="2">
+        <v>820</v>
+      </c>
+      <c r="BQ99" s="2">
+        <v>823</v>
+      </c>
     </row>
-    <row r="100" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -21298,8 +22192,17 @@
       <c r="BN100" s="2">
         <v>58</v>
       </c>
+      <c r="BO100" s="2">
+        <v>58</v>
+      </c>
+      <c r="BP100" s="2">
+        <v>58</v>
+      </c>
+      <c r="BQ100" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="101" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -21498,8 +22401,17 @@
       <c r="BN101" s="2">
         <v>60</v>
       </c>
+      <c r="BO101" s="2">
+        <v>60</v>
+      </c>
+      <c r="BP101" s="2">
+        <v>62</v>
+      </c>
+      <c r="BQ101" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="102" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -21698,8 +22610,17 @@
       <c r="BN102" s="2">
         <v>914</v>
       </c>
+      <c r="BO102" s="2">
+        <v>918</v>
+      </c>
+      <c r="BP102" s="2">
+        <v>932</v>
+      </c>
+      <c r="BQ102" s="2">
+        <v>1025</v>
+      </c>
     </row>
-    <row r="103" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -21898,8 +22819,17 @@
       <c r="BN103" s="2">
         <v>261461</v>
       </c>
+      <c r="BO103" s="2">
+        <v>262418</v>
+      </c>
+      <c r="BP103" s="2">
+        <v>270301</v>
+      </c>
+      <c r="BQ103" s="2">
+        <v>283976</v>
+      </c>
     </row>
-    <row r="104" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -22098,8 +23028,17 @@
       <c r="BN104" s="2">
         <v>4739</v>
       </c>
+      <c r="BO104" s="2">
+        <v>4847</v>
+      </c>
+      <c r="BP104" s="2">
+        <v>4854</v>
+      </c>
+      <c r="BQ104" s="2">
+        <v>4864</v>
+      </c>
     </row>
-    <row r="105" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -22298,8 +23237,17 @@
       <c r="BN105" s="2">
         <v>90</v>
       </c>
+      <c r="BO105" s="2">
+        <v>92</v>
+      </c>
+      <c r="BP105" s="2">
+        <v>92</v>
+      </c>
+      <c r="BQ105" s="2">
+        <v>97</v>
+      </c>
     </row>
-    <row r="106" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -22498,8 +23446,17 @@
       <c r="BN106" s="2">
         <v>286</v>
       </c>
+      <c r="BO106" s="2">
+        <v>286</v>
+      </c>
+      <c r="BP106" s="2">
+        <v>286</v>
+      </c>
+      <c r="BQ106" s="2">
+        <v>304</v>
+      </c>
     </row>
-    <row r="107" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -22698,8 +23655,17 @@
       <c r="BN107" s="2">
         <v>11968</v>
       </c>
+      <c r="BO107" s="2">
+        <v>12203</v>
+      </c>
+      <c r="BP107" s="2">
+        <v>12649</v>
+      </c>
+      <c r="BQ107" s="2">
+        <v>13221</v>
+      </c>
     </row>
-    <row r="108" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -22898,8 +23864,17 @@
       <c r="BN108" s="2">
         <v>183</v>
       </c>
+      <c r="BO108" s="2">
+        <v>183</v>
+      </c>
+      <c r="BP108" s="2">
+        <v>186</v>
+      </c>
+      <c r="BQ108" s="2">
+        <v>194</v>
+      </c>
     </row>
-    <row r="109" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -23098,8 +24073,17 @@
       <c r="BN109" s="2">
         <v>2013</v>
       </c>
+      <c r="BO109" s="2">
+        <v>2026</v>
+      </c>
+      <c r="BP109" s="2">
+        <v>2049</v>
+      </c>
+      <c r="BQ109" s="2">
+        <v>2074</v>
+      </c>
     </row>
-    <row r="110" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -23298,8 +24282,17 @@
       <c r="BN110" s="2">
         <v>24992</v>
       </c>
+      <c r="BO110" s="2">
+        <v>25503</v>
+      </c>
+      <c r="BP110" s="2">
+        <v>26669</v>
+      </c>
+      <c r="BQ110" s="2">
+        <v>28020</v>
+      </c>
     </row>
-    <row r="111" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -23498,8 +24491,17 @@
       <c r="BN111" s="2">
         <v>1312</v>
       </c>
+      <c r="BO111" s="2">
+        <v>1326</v>
+      </c>
+      <c r="BP111" s="2">
+        <v>1346</v>
+      </c>
+      <c r="BQ111" s="2">
+        <v>1354</v>
+      </c>
     </row>
-    <row r="112" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -23698,8 +24700,17 @@
       <c r="BN112" s="2">
         <v>105</v>
       </c>
+      <c r="BO112" s="2">
+        <v>108</v>
+      </c>
+      <c r="BP112" s="2">
+        <v>108</v>
+      </c>
+      <c r="BQ112" s="2">
+        <v>110</v>
+      </c>
     </row>
-    <row r="113" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -23898,8 +24909,17 @@
       <c r="BN113" s="2">
         <v>1233</v>
       </c>
+      <c r="BO113" s="2">
+        <v>1237</v>
+      </c>
+      <c r="BP113" s="2">
+        <v>1249</v>
+      </c>
+      <c r="BQ113" s="2">
+        <v>1258</v>
+      </c>
     </row>
-    <row r="114" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -24098,8 +25118,17 @@
       <c r="BN114" s="2">
         <v>738</v>
       </c>
+      <c r="BO114" s="2">
+        <v>741</v>
+      </c>
+      <c r="BP114" s="2">
+        <v>748</v>
+      </c>
+      <c r="BQ114" s="2">
+        <v>753</v>
+      </c>
     </row>
-    <row r="115" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -24298,8 +25327,17 @@
       <c r="BN115" s="2">
         <v>1715</v>
       </c>
+      <c r="BO115" s="2">
+        <v>1723</v>
+      </c>
+      <c r="BP115" s="2">
+        <v>1729</v>
+      </c>
+      <c r="BQ115" s="2">
+        <v>1732</v>
+      </c>
     </row>
-    <row r="116" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -24498,8 +25536,17 @@
       <c r="BN116" s="2">
         <v>454</v>
       </c>
+      <c r="BO116" s="2">
+        <v>458</v>
+      </c>
+      <c r="BP116" s="2">
+        <v>463</v>
+      </c>
+      <c r="BQ116" s="2">
+        <v>475</v>
+      </c>
     </row>
-    <row r="117" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -24698,8 +25745,17 @@
       <c r="BN117" s="2">
         <v>58</v>
       </c>
+      <c r="BO117" s="2">
+        <v>58</v>
+      </c>
+      <c r="BP117" s="2">
+        <v>59</v>
+      </c>
+      <c r="BQ117" s="2">
+        <v>60</v>
+      </c>
     </row>
-    <row r="118" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -24898,8 +25954,17 @@
       <c r="BN118" s="2">
         <v>3946</v>
       </c>
+      <c r="BO118" s="2">
+        <v>3959</v>
+      </c>
+      <c r="BP118" s="2">
+        <v>3988</v>
+      </c>
+      <c r="BQ118" s="2">
+        <v>4030</v>
+      </c>
     </row>
-    <row r="119" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -25098,8 +26163,17 @@
       <c r="BN119" s="2">
         <v>649</v>
       </c>
+      <c r="BO119" s="2">
+        <v>655</v>
+      </c>
+      <c r="BP119" s="2">
+        <v>656</v>
+      </c>
+      <c r="BQ119" s="2">
+        <v>661</v>
+      </c>
     </row>
-    <row r="120" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -25298,8 +26372,17 @@
       <c r="BN120" s="2">
         <v>6</v>
       </c>
+      <c r="BO120" s="2">
+        <v>6</v>
+      </c>
+      <c r="BP120" s="2">
+        <v>6</v>
+      </c>
+      <c r="BQ120" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="121" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -25498,8 +26581,17 @@
       <c r="BN121" s="2">
         <v>107</v>
       </c>
+      <c r="BO121" s="2">
+        <v>108</v>
+      </c>
+      <c r="BP121" s="2">
+        <v>109</v>
+      </c>
+      <c r="BQ121" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -25698,8 +26790,17 @@
       <c r="BN122" s="2">
         <v>901</v>
       </c>
+      <c r="BO122" s="2">
+        <v>901</v>
+      </c>
+      <c r="BP122" s="2">
+        <v>901</v>
+      </c>
+      <c r="BQ122" s="2">
+        <v>903</v>
+      </c>
     </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -25898,8 +26999,17 @@
       <c r="BN123" s="2">
         <v>884</v>
       </c>
+      <c r="BO123" s="2">
+        <v>887</v>
+      </c>
+      <c r="BP123" s="2">
+        <v>896</v>
+      </c>
+      <c r="BQ123" s="2">
+        <v>943</v>
+      </c>
     </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -26098,8 +27208,17 @@
       <c r="BN124" s="2">
         <v>12</v>
       </c>
+      <c r="BO124" s="2">
+        <v>12</v>
+      </c>
+      <c r="BP124" s="2">
+        <v>12</v>
+      </c>
+      <c r="BQ124" s="2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="125" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -26298,8 +27417,17 @@
       <c r="BN125" s="2">
         <v>15984</v>
       </c>
+      <c r="BO125" s="2">
+        <v>16246</v>
+      </c>
+      <c r="BP125" s="2">
+        <v>16883</v>
+      </c>
+      <c r="BQ125" s="2">
+        <v>17796</v>
+      </c>
     </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -26498,8 +27626,17 @@
       <c r="BN126" s="2">
         <v>133</v>
       </c>
+      <c r="BO126" s="2">
+        <v>133</v>
+      </c>
+      <c r="BP126" s="2">
+        <v>141</v>
+      </c>
+      <c r="BQ126" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -26698,8 +27835,17 @@
       <c r="BN127" s="2">
         <v>2235</v>
       </c>
+      <c r="BO127" s="2">
+        <v>2235</v>
+      </c>
+      <c r="BP127" s="2">
+        <v>2291</v>
+      </c>
+      <c r="BQ127" s="2">
+        <v>2330</v>
+      </c>
     </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -26898,8 +28044,17 @@
       <c r="BN128" s="2">
         <v>8198</v>
       </c>
+      <c r="BO128" s="2">
+        <v>8359</v>
+      </c>
+      <c r="BP128" s="2">
+        <v>8432</v>
+      </c>
+      <c r="BQ128" s="2">
+        <v>8576</v>
+      </c>
     </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -27098,8 +28253,17 @@
       <c r="BN129" s="2">
         <v>616</v>
       </c>
+      <c r="BO129" s="2">
+        <v>617</v>
+      </c>
+      <c r="BP129" s="2">
+        <v>683</v>
+      </c>
+      <c r="BQ129" s="2">
+        <v>688</v>
+      </c>
     </row>
-    <row r="130" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -27298,8 +28462,17 @@
       <c r="BN130" s="2">
         <v>326</v>
       </c>
+      <c r="BO130" s="2">
+        <v>326</v>
+      </c>
+      <c r="BP130" s="2">
+        <v>342</v>
+      </c>
+      <c r="BQ130" s="2">
+        <v>358</v>
+      </c>
     </row>
-    <row r="131" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -27498,8 +28671,17 @@
       <c r="BN131" s="2">
         <v>4714</v>
       </c>
+      <c r="BO131" s="2">
+        <v>4735</v>
+      </c>
+      <c r="BP131" s="2">
+        <v>4792</v>
+      </c>
+      <c r="BQ131" s="2">
+        <v>4987</v>
+      </c>
     </row>
-    <row r="132" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -27698,8 +28880,17 @@
       <c r="BN132" s="2">
         <v>1332</v>
       </c>
+      <c r="BO132" s="2">
+        <v>1333</v>
+      </c>
+      <c r="BP132" s="2">
+        <v>1350</v>
+      </c>
+      <c r="BQ132" s="2">
+        <v>1375</v>
+      </c>
     </row>
-    <row r="133" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -27898,8 +29089,17 @@
       <c r="BN133" s="2">
         <v>3</v>
       </c>
+      <c r="BO133" s="2">
+        <v>3</v>
+      </c>
+      <c r="BP133" s="2">
+        <v>3</v>
+      </c>
+      <c r="BQ133" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="134" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -28098,8 +29298,17 @@
       <c r="BN134" s="2">
         <v>3</v>
       </c>
+      <c r="BO134" s="2">
+        <v>3</v>
+      </c>
+      <c r="BP134" s="2">
+        <v>3</v>
+      </c>
+      <c r="BQ134" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="135" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -28298,8 +29507,17 @@
       <c r="BN135" s="2">
         <v>2622</v>
       </c>
+      <c r="BO135" s="2">
+        <v>2623</v>
+      </c>
+      <c r="BP135" s="2">
+        <v>2624</v>
+      </c>
+      <c r="BQ135" s="2">
+        <v>2626</v>
+      </c>
     </row>
-    <row r="136" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -28498,8 +29716,17 @@
       <c r="BN136" s="2">
         <v>131</v>
       </c>
+      <c r="BO136" s="2">
+        <v>131</v>
+      </c>
+      <c r="BP136" s="2">
+        <v>131</v>
+      </c>
+      <c r="BQ136" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="137" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -28698,8 +29925,17 @@
       <c r="BN137" s="2">
         <v>4</v>
       </c>
+      <c r="BO137" s="2">
+        <v>4</v>
+      </c>
+      <c r="BP137" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ137" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="138" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -28898,8 +30134,17 @@
       <c r="BN138" s="2">
         <v>23</v>
       </c>
+      <c r="BO138" s="2">
+        <v>23</v>
+      </c>
+      <c r="BP138" s="2">
+        <v>23</v>
+      </c>
+      <c r="BQ138" s="2">
+        <v>26</v>
+      </c>
     </row>
-    <row r="139" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -29098,8 +30343,17 @@
       <c r="BN139" s="2">
         <v>2389</v>
       </c>
+      <c r="BO139" s="2">
+        <v>2390</v>
+      </c>
+      <c r="BP139" s="2">
+        <v>2446</v>
+      </c>
+      <c r="BQ139" s="2">
+        <v>2471</v>
+      </c>
     </row>
-    <row r="140" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -29298,8 +30552,17 @@
       <c r="BN140" s="2">
         <v>209</v>
       </c>
+      <c r="BO140" s="2">
+        <v>209</v>
+      </c>
+      <c r="BP140" s="2">
+        <v>209</v>
+      </c>
+      <c r="BQ140" s="2">
+        <v>210</v>
+      </c>
     </row>
-    <row r="141" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -29498,8 +30761,17 @@
       <c r="BN141" s="2">
         <v>1393</v>
       </c>
+      <c r="BO141" s="2">
+        <v>1412</v>
+      </c>
+      <c r="BP141" s="2">
+        <v>1423</v>
+      </c>
+      <c r="BQ141" s="2">
+        <v>1429</v>
+      </c>
     </row>
-    <row r="142" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -29698,8 +30970,17 @@
       <c r="BN142" s="2">
         <v>216</v>
       </c>
+      <c r="BO142" s="2">
+        <v>216</v>
+      </c>
+      <c r="BP142" s="2">
+        <v>217</v>
+      </c>
+      <c r="BQ142" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="143" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -29898,8 +31179,17 @@
       <c r="BN143" s="2">
         <v>1554</v>
       </c>
+      <c r="BO143" s="2">
+        <v>1575</v>
+      </c>
+      <c r="BP143" s="2">
+        <v>1583</v>
+      </c>
+      <c r="BQ143" s="2">
+        <v>1588</v>
+      </c>
     </row>
-    <row r="144" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -30098,8 +31388,17 @@
       <c r="BN144" s="2">
         <v>537</v>
       </c>
+      <c r="BO144" s="2">
+        <v>537</v>
+      </c>
+      <c r="BP144" s="2">
+        <v>544</v>
+      </c>
+      <c r="BQ144" s="2">
+        <v>550</v>
+      </c>
     </row>
-    <row r="145" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -30298,8 +31597,17 @@
       <c r="BN145" s="2">
         <v>726</v>
       </c>
+      <c r="BO145" s="2">
+        <v>735</v>
+      </c>
+      <c r="BP145" s="2">
+        <v>755</v>
+      </c>
+      <c r="BQ145" s="2">
+        <v>762</v>
+      </c>
     </row>
-    <row r="146" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -30498,8 +31806,17 @@
       <c r="BN146" s="2">
         <v>378</v>
       </c>
+      <c r="BO146" s="2">
+        <v>388</v>
+      </c>
+      <c r="BP146" s="2">
+        <v>392</v>
+      </c>
+      <c r="BQ146" s="2">
+        <v>396</v>
+      </c>
     </row>
-    <row r="147" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -30698,8 +32015,17 @@
       <c r="BN147" s="2">
         <v>595</v>
       </c>
+      <c r="BO147" s="2">
+        <v>596</v>
+      </c>
+      <c r="BP147" s="2">
+        <v>605</v>
+      </c>
+      <c r="BQ147" s="2">
+        <v>622</v>
+      </c>
     </row>
-    <row r="148" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -30898,8 +32224,17 @@
       <c r="BN148" s="2">
         <v>3502</v>
       </c>
+      <c r="BO148" s="2">
+        <v>3512</v>
+      </c>
+      <c r="BP148" s="2">
+        <v>3632</v>
+      </c>
+      <c r="BQ148" s="2">
+        <v>3935</v>
+      </c>
     </row>
-    <row r="149" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -31098,8 +32433,17 @@
       <c r="BN149" s="2">
         <v>934</v>
       </c>
+      <c r="BO149" s="2">
+        <v>942</v>
+      </c>
+      <c r="BP149" s="2">
+        <v>958</v>
+      </c>
+      <c r="BQ149" s="2">
+        <v>959</v>
+      </c>
     </row>
-    <row r="150" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -31298,8 +32642,17 @@
       <c r="BN150" s="2">
         <v>121</v>
       </c>
+      <c r="BO150" s="2">
+        <v>121</v>
+      </c>
+      <c r="BP150" s="2">
+        <v>121</v>
+      </c>
+      <c r="BQ150" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="151" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -31498,8 +32851,17 @@
       <c r="BN151" s="2">
         <v>411</v>
       </c>
+      <c r="BO151" s="2">
+        <v>411</v>
+      </c>
+      <c r="BP151" s="2">
+        <v>419</v>
+      </c>
+      <c r="BQ151" s="2">
+        <v>429</v>
+      </c>
     </row>
-    <row r="152" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -31698,8 +33060,17 @@
       <c r="BN152" s="2">
         <v>1172</v>
       </c>
+      <c r="BO152" s="2">
+        <v>1178</v>
+      </c>
+      <c r="BP152" s="2">
+        <v>1188</v>
+      </c>
+      <c r="BQ152" s="2">
+        <v>1201</v>
+      </c>
     </row>
-    <row r="153" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -31898,8 +33269,17 @@
       <c r="BN153" s="2">
         <v>1</v>
       </c>
+      <c r="BO153" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP153" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ153" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -32098,8 +33478,17 @@
       <c r="BN154" s="2">
         <v>14449</v>
       </c>
+      <c r="BO154" s="2">
+        <v>14550</v>
+      </c>
+      <c r="BP154" s="2">
+        <v>14654</v>
+      </c>
+      <c r="BQ154" s="2">
+        <v>14759</v>
+      </c>
     </row>
-    <row r="155" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -32298,8 +33687,17 @@
       <c r="BN155" s="2">
         <v>507</v>
       </c>
+      <c r="BO155" s="2">
+        <v>517</v>
+      </c>
+      <c r="BP155" s="2">
+        <v>521</v>
+      </c>
+      <c r="BQ155" s="2">
+        <v>522</v>
+      </c>
     </row>
-    <row r="156" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -32498,8 +33896,17 @@
       <c r="BN156" s="2">
         <v>93</v>
       </c>
+      <c r="BO156" s="2">
+        <v>93</v>
+      </c>
+      <c r="BP156" s="2">
+        <v>95</v>
+      </c>
+      <c r="BQ156" s="2">
+        <v>96</v>
+      </c>
     </row>
-    <row r="157" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -32698,8 +34105,17 @@
       <c r="BN157" s="2">
         <v>13896</v>
       </c>
+      <c r="BO157" s="2">
+        <v>14015</v>
+      </c>
+      <c r="BP157" s="2">
+        <v>14385</v>
+      </c>
+      <c r="BQ157" s="2">
+        <v>14567</v>
+      </c>
     </row>
-    <row r="158" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -32898,8 +34314,17 @@
       <c r="BN158" s="2">
         <v>11</v>
       </c>
+      <c r="BO158" s="2">
+        <v>11</v>
+      </c>
+      <c r="BP158" s="2">
+        <v>14</v>
+      </c>
+      <c r="BQ158" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="159" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -33098,8 +34523,17 @@
       <c r="BN159" s="2">
         <v>587</v>
       </c>
+      <c r="BO159" s="2">
+        <v>587</v>
+      </c>
+      <c r="BP159" s="2">
+        <v>594</v>
+      </c>
+      <c r="BQ159" s="2">
+        <v>603</v>
+      </c>
     </row>
-    <row r="160" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -33298,8 +34732,17 @@
       <c r="BN160" s="2">
         <v>122</v>
       </c>
+      <c r="BO160" s="2">
+        <v>129</v>
+      </c>
+      <c r="BP160" s="2">
+        <v>129</v>
+      </c>
+      <c r="BQ160" s="2">
+        <v>129</v>
+      </c>
     </row>
-    <row r="161" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -33498,8 +34941,17 @@
       <c r="BN161" s="2">
         <v>116</v>
       </c>
+      <c r="BO161" s="2">
+        <v>117</v>
+      </c>
+      <c r="BP161" s="2">
+        <v>118</v>
+      </c>
+      <c r="BQ161" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="162" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -33698,8 +35150,17 @@
       <c r="BN162" s="2">
         <v>362</v>
       </c>
+      <c r="BO162" s="2">
+        <v>362</v>
+      </c>
+      <c r="BP162" s="2">
+        <v>365</v>
+      </c>
+      <c r="BQ162" s="2">
+        <v>366</v>
+      </c>
     </row>
-    <row r="163" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -33898,8 +35359,17 @@
       <c r="BN163" s="2">
         <v>1684</v>
       </c>
+      <c r="BO163" s="2">
+        <v>1686</v>
+      </c>
+      <c r="BP163" s="2">
+        <v>1746</v>
+      </c>
+      <c r="BQ163" s="2">
+        <v>1856</v>
+      </c>
     </row>
-    <row r="164" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -34098,8 +35568,17 @@
       <c r="BN164" s="2">
         <v>3435</v>
       </c>
+      <c r="BO164" s="2">
+        <v>3436</v>
+      </c>
+      <c r="BP164" s="2">
+        <v>3581</v>
+      </c>
+      <c r="BQ164" s="2">
+        <v>3791</v>
+      </c>
     </row>
-    <row r="165" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -34298,8 +35777,17 @@
       <c r="BN165" s="2">
         <v>1562</v>
       </c>
+      <c r="BO165" s="2">
+        <v>1561</v>
+      </c>
+      <c r="BP165" s="2">
+        <v>1570</v>
+      </c>
+      <c r="BQ165" s="2">
+        <v>1597</v>
+      </c>
     </row>
-    <row r="166" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -34498,8 +35986,17 @@
       <c r="BN166" s="2">
         <v>32</v>
       </c>
+      <c r="BO166" s="2">
+        <v>32</v>
+      </c>
+      <c r="BP166" s="2">
+        <v>35</v>
+      </c>
+      <c r="BQ166" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="167" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -34698,8 +36195,17 @@
       <c r="BN167" s="2">
         <v>5489</v>
       </c>
+      <c r="BO167" s="2">
+        <v>5531</v>
+      </c>
+      <c r="BP167" s="2">
+        <v>5655</v>
+      </c>
+      <c r="BQ167" s="2">
+        <v>5754</v>
+      </c>
     </row>
-    <row r="168" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -34898,8 +36404,17 @@
       <c r="BN168" s="2">
         <v>1646</v>
       </c>
+      <c r="BO168" s="2">
+        <v>1659</v>
+      </c>
+      <c r="BP168" s="2">
+        <v>1665</v>
+      </c>
+      <c r="BQ168" s="2">
+        <v>1676</v>
+      </c>
     </row>
-    <row r="169" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -35098,8 +36613,17 @@
       <c r="BN169" s="2">
         <v>109</v>
       </c>
+      <c r="BO169" s="2">
+        <v>109</v>
+      </c>
+      <c r="BP169" s="2">
+        <v>111</v>
+      </c>
+      <c r="BQ169" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="170" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -35298,8 +36822,17 @@
       <c r="BN170" s="2">
         <v>228</v>
       </c>
+      <c r="BO170" s="2">
+        <v>231</v>
+      </c>
+      <c r="BP170" s="2">
+        <v>232</v>
+      </c>
+      <c r="BQ170" s="2">
+        <v>233</v>
+      </c>
     </row>
-    <row r="171" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -35498,8 +37031,17 @@
       <c r="BN171" s="2">
         <v>327</v>
       </c>
+      <c r="BO171" s="2">
+        <v>328</v>
+      </c>
+      <c r="BP171" s="2">
+        <v>331</v>
+      </c>
+      <c r="BQ171" s="2">
+        <v>338</v>
+      </c>
     </row>
-    <row r="172" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -35698,8 +37240,17 @@
       <c r="BN172" s="2">
         <v>26800</v>
       </c>
+      <c r="BO172" s="2">
+        <v>26876</v>
+      </c>
+      <c r="BP172" s="2">
+        <v>27604</v>
+      </c>
+      <c r="BQ172" s="2">
+        <v>29132</v>
+      </c>
     </row>
-    <row r="173" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -35898,8 +37449,17 @@
       <c r="BN173" s="2">
         <v>2912</v>
       </c>
+      <c r="BO173" s="2">
+        <v>2916</v>
+      </c>
+      <c r="BP173" s="2">
+        <v>2922</v>
+      </c>
+      <c r="BQ173" s="2">
+        <v>2931</v>
+      </c>
     </row>
-    <row r="174" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -36098,8 +37658,17 @@
       <c r="BN174" s="2">
         <v>254</v>
       </c>
+      <c r="BO174" s="2">
+        <v>267</v>
+      </c>
+      <c r="BP174" s="2">
+        <v>269</v>
+      </c>
+      <c r="BQ174" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="175" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -36298,8 +37867,17 @@
       <c r="BN175" s="2">
         <v>29</v>
       </c>
+      <c r="BO175" s="2">
+        <v>29</v>
+      </c>
+      <c r="BP175" s="2">
+        <v>31</v>
+      </c>
+      <c r="BQ175" s="2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="176" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -36498,8 +38076,17 @@
       <c r="BN176" s="2">
         <v>3088</v>
       </c>
+      <c r="BO176" s="2">
+        <v>3156</v>
+      </c>
+      <c r="BP176" s="2">
+        <v>3195</v>
+      </c>
+      <c r="BQ176" s="2">
+        <v>3223</v>
+      </c>
     </row>
-    <row r="177" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -36698,8 +38285,17 @@
       <c r="BN177" s="2">
         <v>1734</v>
       </c>
+      <c r="BO177" s="2">
+        <v>1757</v>
+      </c>
+      <c r="BP177" s="2">
+        <v>1770</v>
+      </c>
+      <c r="BQ177" s="2">
+        <v>1785</v>
+      </c>
     </row>
-    <row r="178" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -36898,8 +38494,17 @@
       <c r="BN178" s="2">
         <v>317</v>
       </c>
+      <c r="BO178" s="2">
+        <v>319</v>
+      </c>
+      <c r="BP178" s="2">
+        <v>319</v>
+      </c>
+      <c r="BQ178" s="2">
+        <v>323</v>
+      </c>
     </row>
-    <row r="179" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -37098,8 +38703,17 @@
       <c r="BN179" s="2">
         <v>164</v>
       </c>
+      <c r="BO179" s="2">
+        <v>166</v>
+      </c>
+      <c r="BP179" s="2">
+        <v>167</v>
+      </c>
+      <c r="BQ179" s="2">
+        <v>177</v>
+      </c>
     </row>
-    <row r="180" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -37298,8 +38912,17 @@
       <c r="BN180" s="2">
         <v>6735</v>
       </c>
+      <c r="BO180" s="2">
+        <v>6739</v>
+      </c>
+      <c r="BP180" s="2">
+        <v>6874</v>
+      </c>
+      <c r="BQ180" s="2">
+        <v>7181</v>
+      </c>
     </row>
-    <row r="181" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -37498,8 +39121,17 @@
       <c r="BN181" s="2">
         <v>147</v>
       </c>
+      <c r="BO181" s="2">
+        <v>148</v>
+      </c>
+      <c r="BP181" s="2">
+        <v>148</v>
+      </c>
+      <c r="BQ181" s="2">
+        <v>151</v>
+      </c>
     </row>
-    <row r="182" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -37698,8 +39330,17 @@
       <c r="BN182" s="2">
         <v>115</v>
       </c>
+      <c r="BO182" s="2">
+        <v>115</v>
+      </c>
+      <c r="BP182" s="2">
+        <v>116</v>
+      </c>
+      <c r="BQ182" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="183" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -37898,8 +39539,17 @@
       <c r="BN183" s="2">
         <v>1578</v>
       </c>
+      <c r="BO183" s="2">
+        <v>1582</v>
+      </c>
+      <c r="BP183" s="2">
+        <v>1648</v>
+      </c>
+      <c r="BQ183" s="2">
+        <v>1762</v>
+      </c>
     </row>
-    <row r="184" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -38098,8 +39748,17 @@
       <c r="BN184" s="2">
         <v>680</v>
       </c>
+      <c r="BO184" s="2">
+        <v>684</v>
+      </c>
+      <c r="BP184" s="2">
+        <v>685</v>
+      </c>
+      <c r="BQ184" s="2">
+        <v>689</v>
+      </c>
     </row>
-    <row r="185" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -38298,8 +39957,17 @@
       <c r="BN185" s="2">
         <v>679</v>
       </c>
+      <c r="BO185" s="2">
+        <v>705</v>
+      </c>
+      <c r="BP185" s="2">
+        <v>708</v>
+      </c>
+      <c r="BQ185" s="2">
+        <v>709</v>
+      </c>
     </row>
-    <row r="186" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -38498,8 +40166,17 @@
       <c r="BN186" s="2">
         <v>6276</v>
       </c>
+      <c r="BO186" s="2">
+        <v>6593</v>
+      </c>
+      <c r="BP186" s="2">
+        <v>6754</v>
+      </c>
+      <c r="BQ186" s="2">
+        <v>6857</v>
+      </c>
     </row>
-    <row r="187" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -38698,8 +40375,17 @@
       <c r="BN187" s="2">
         <v>331</v>
       </c>
+      <c r="BO187" s="2">
+        <v>331</v>
+      </c>
+      <c r="BP187" s="2">
+        <v>331</v>
+      </c>
+      <c r="BQ187" s="2">
+        <v>331</v>
+      </c>
     </row>
-    <row r="188" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -38898,8 +40584,17 @@
       <c r="BN188" s="2">
         <v>1137</v>
       </c>
+      <c r="BO188" s="2">
+        <v>1138</v>
+      </c>
+      <c r="BP188" s="2">
+        <v>1142</v>
+      </c>
+      <c r="BQ188" s="2">
+        <v>1148</v>
+      </c>
     </row>
-    <row r="189" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -39098,8 +40793,17 @@
       <c r="BN189" s="2">
         <v>1958</v>
       </c>
+      <c r="BO189" s="2">
+        <v>1975</v>
+      </c>
+      <c r="BP189" s="2">
+        <v>2016</v>
+      </c>
+      <c r="BQ189" s="2">
+        <v>2065</v>
+      </c>
     </row>
-    <row r="190" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -39298,8 +41002,17 @@
       <c r="BN190" s="2">
         <v>14838</v>
       </c>
+      <c r="BO190" s="2">
+        <v>14946</v>
+      </c>
+      <c r="BP190" s="2">
+        <v>14983</v>
+      </c>
+      <c r="BQ190" s="2">
+        <v>15072</v>
+      </c>
     </row>
-    <row r="191" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -39498,8 +41211,17 @@
       <c r="BN191" s="2">
         <v>133</v>
       </c>
+      <c r="BO191" s="2">
+        <v>134</v>
+      </c>
+      <c r="BP191" s="2">
+        <v>137</v>
+      </c>
+      <c r="BQ191" s="2">
+        <v>138</v>
+      </c>
     </row>
-    <row r="192" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -39698,8 +41420,17 @@
       <c r="BN192" s="2">
         <v>119</v>
       </c>
+      <c r="BO192" s="2">
+        <v>120</v>
+      </c>
+      <c r="BP192" s="2">
+        <v>122</v>
+      </c>
+      <c r="BQ192" s="2">
+        <v>124</v>
+      </c>
     </row>
-    <row r="193" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -39898,8 +41629,17 @@
       <c r="BN193" s="2">
         <v>5182</v>
       </c>
+      <c r="BO193" s="2">
+        <v>5225</v>
+      </c>
+      <c r="BP193" s="2">
+        <v>5260</v>
+      </c>
+      <c r="BQ193" s="2">
+        <v>5366</v>
+      </c>
     </row>
-    <row r="194" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -40098,8 +41838,17 @@
       <c r="BN194" s="2">
         <v>115</v>
       </c>
+      <c r="BO194" s="2">
+        <v>115</v>
+      </c>
+      <c r="BP194" s="2">
+        <v>115</v>
+      </c>
+      <c r="BQ194" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="195" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -40298,8 +42047,17 @@
       <c r="BN195" s="2">
         <v>140</v>
       </c>
+      <c r="BO195" s="2">
+        <v>140</v>
+      </c>
+      <c r="BP195" s="2">
+        <v>141</v>
+      </c>
+      <c r="BQ195" s="2">
+        <v>144</v>
+      </c>
     </row>
-    <row r="196" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -40498,8 +42256,17 @@
       <c r="BN196" s="2">
         <v>456</v>
       </c>
+      <c r="BO196" s="2">
+        <v>465</v>
+      </c>
+      <c r="BP196" s="2">
+        <v>467</v>
+      </c>
+      <c r="BQ196" s="2">
+        <v>473</v>
+      </c>
     </row>
-    <row r="197" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -40698,8 +42465,17 @@
       <c r="BN197" s="2">
         <v>239</v>
       </c>
+      <c r="BO197" s="2">
+        <v>242</v>
+      </c>
+      <c r="BP197" s="2">
+        <v>242</v>
+      </c>
+      <c r="BQ197" s="2">
+        <v>242</v>
+      </c>
     </row>
-    <row r="198" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -40898,8 +42674,17 @@
       <c r="BN198" s="2">
         <v>223</v>
       </c>
+      <c r="BO198" s="2">
+        <v>227</v>
+      </c>
+      <c r="BP198" s="2">
+        <v>227</v>
+      </c>
+      <c r="BQ198" s="2">
+        <v>228</v>
+      </c>
     </row>
-    <row r="199" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -41098,8 +42883,17 @@
       <c r="BN199" s="2">
         <v>7</v>
       </c>
+      <c r="BO199" s="2">
+        <v>7</v>
+      </c>
+      <c r="BP199" s="2">
+        <v>8</v>
+      </c>
+      <c r="BQ199" s="2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="200" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -41298,8 +43092,17 @@
       <c r="BN200" s="2">
         <v>721</v>
       </c>
+      <c r="BO200" s="2">
+        <v>723</v>
+      </c>
+      <c r="BP200" s="2">
+        <v>736</v>
+      </c>
+      <c r="BQ200" s="2">
+        <v>749</v>
+      </c>
     </row>
-    <row r="201" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -41498,8 +43301,17 @@
       <c r="BN201" s="2">
         <v>5016</v>
       </c>
+      <c r="BO201" s="2">
+        <v>5038</v>
+      </c>
+      <c r="BP201" s="2">
+        <v>5087</v>
+      </c>
+      <c r="BQ201" s="2">
+        <v>5163</v>
+      </c>
     </row>
-    <row r="202" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -41698,8 +43510,17 @@
       <c r="BN202" s="2">
         <v>337</v>
       </c>
+      <c r="BO202" s="2">
+        <v>343</v>
+      </c>
+      <c r="BP202" s="2">
+        <v>348</v>
+      </c>
+      <c r="BQ202" s="2">
+        <v>353</v>
+      </c>
     </row>
-    <row r="203" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -41898,8 +43719,17 @@
       <c r="BN203" s="2">
         <v>1339</v>
       </c>
+      <c r="BO203" s="2">
+        <v>1356</v>
+      </c>
+      <c r="BP203" s="2">
+        <v>1368</v>
+      </c>
+      <c r="BQ203" s="2">
+        <v>1391</v>
+      </c>
     </row>
-    <row r="204" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -42098,8 +43928,17 @@
       <c r="BN204" s="2">
         <v>527</v>
       </c>
+      <c r="BO204" s="2">
+        <v>527</v>
+      </c>
+      <c r="BP204" s="2">
+        <v>529</v>
+      </c>
+      <c r="BQ204" s="2">
+        <v>535</v>
+      </c>
     </row>
-    <row r="205" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -42298,8 +44137,17 @@
       <c r="BN205" s="2">
         <v>347</v>
       </c>
+      <c r="BO205" s="2">
+        <v>356</v>
+      </c>
+      <c r="BP205" s="2">
+        <v>358</v>
+      </c>
+      <c r="BQ205" s="2">
+        <v>381</v>
+      </c>
     </row>
-    <row r="206" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -42498,8 +44346,17 @@
       <c r="BN206" s="2">
         <v>697</v>
       </c>
+      <c r="BO206" s="2">
+        <v>698</v>
+      </c>
+      <c r="BP206" s="2">
+        <v>719</v>
+      </c>
+      <c r="BQ206" s="2">
+        <v>758</v>
+      </c>
     </row>
-    <row r="207" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -42698,8 +44555,17 @@
       <c r="BN207" s="2">
         <v>1261</v>
       </c>
+      <c r="BO207" s="2">
+        <v>1261</v>
+      </c>
+      <c r="BP207" s="2">
+        <v>1284</v>
+      </c>
+      <c r="BQ207" s="2">
+        <v>1301</v>
+      </c>
     </row>
-    <row r="208" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -42898,8 +44764,17 @@
       <c r="BN208" s="2">
         <v>196</v>
       </c>
+      <c r="BO208" s="2">
+        <v>197</v>
+      </c>
+      <c r="BP208" s="2">
+        <v>200</v>
+      </c>
+      <c r="BQ208" s="2">
+        <v>201</v>
+      </c>
     </row>
-    <row r="209" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -43098,8 +44973,17 @@
       <c r="BN209" s="2">
         <v>108</v>
       </c>
+      <c r="BO209" s="2">
+        <v>110</v>
+      </c>
+      <c r="BP209" s="2">
+        <v>117</v>
+      </c>
+      <c r="BQ209" s="2">
+        <v>119</v>
+      </c>
     </row>
-    <row r="210" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -43298,8 +45182,17 @@
       <c r="BN210" s="2">
         <v>103</v>
       </c>
+      <c r="BO210" s="2">
+        <v>103</v>
+      </c>
+      <c r="BP210" s="2">
+        <v>103</v>
+      </c>
+      <c r="BQ210" s="2">
+        <v>105</v>
+      </c>
     </row>
-    <row r="211" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -43498,8 +45391,17 @@
       <c r="BN211" s="2">
         <v>44</v>
       </c>
+      <c r="BO211" s="2">
+        <v>44</v>
+      </c>
+      <c r="BP211" s="2">
+        <v>45</v>
+      </c>
+      <c r="BQ211" s="2">
+        <v>46</v>
+      </c>
     </row>
-    <row r="212" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -43698,8 +45600,17 @@
       <c r="BN212" s="2">
         <v>1513</v>
       </c>
+      <c r="BO212" s="2">
+        <v>1533</v>
+      </c>
+      <c r="BP212" s="2">
+        <v>1543</v>
+      </c>
+      <c r="BQ212" s="2">
+        <v>1558</v>
+      </c>
     </row>
-    <row r="213" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -43898,8 +45809,17 @@
       <c r="BN213" s="2">
         <v>36</v>
       </c>
+      <c r="BO213" s="2">
+        <v>38</v>
+      </c>
+      <c r="BP213" s="2">
+        <v>38</v>
+      </c>
+      <c r="BQ213" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="214" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -44098,8 +46018,17 @@
       <c r="BN214" s="2">
         <v>7577</v>
       </c>
+      <c r="BO214" s="2">
+        <v>7661</v>
+      </c>
+      <c r="BP214" s="2">
+        <v>8215</v>
+      </c>
+      <c r="BQ214" s="2">
+        <v>8557</v>
+      </c>
     </row>
-    <row r="215" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -44298,8 +46227,17 @@
       <c r="BN215" s="2">
         <v>299</v>
       </c>
+      <c r="BO215" s="2">
+        <v>301</v>
+      </c>
+      <c r="BP215" s="2">
+        <v>302</v>
+      </c>
+      <c r="BQ215" s="2">
+        <v>305</v>
+      </c>
     </row>
-    <row r="216" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -44498,8 +46436,17 @@
       <c r="BN216" s="2">
         <v>2886</v>
       </c>
+      <c r="BO216" s="2">
+        <v>2886</v>
+      </c>
+      <c r="BP216" s="2">
+        <v>3009</v>
+      </c>
+      <c r="BQ216" s="2">
+        <v>3223</v>
+      </c>
     </row>
-    <row r="217" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -44698,8 +46645,17 @@
       <c r="BN217" s="2">
         <v>122</v>
       </c>
+      <c r="BO217" s="2">
+        <v>122</v>
+      </c>
+      <c r="BP217" s="2">
+        <v>128</v>
+      </c>
+      <c r="BQ217" s="2">
+        <v>136</v>
+      </c>
     </row>
-    <row r="218" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -44898,8 +46854,17 @@
       <c r="BN218" s="2">
         <v>27</v>
       </c>
+      <c r="BO218" s="2">
+        <v>28</v>
+      </c>
+      <c r="BP218" s="2">
+        <v>28</v>
+      </c>
+      <c r="BQ218" s="2">
+        <v>29</v>
+      </c>
     </row>
-    <row r="219" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -45098,8 +47063,17 @@
       <c r="BN219" s="2">
         <v>9</v>
       </c>
+      <c r="BO219" s="2">
+        <v>9</v>
+      </c>
+      <c r="BP219" s="2">
+        <v>9</v>
+      </c>
+      <c r="BQ219" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="220" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -45298,8 +47272,17 @@
       <c r="BN220" s="2">
         <v>64</v>
       </c>
+      <c r="BO220" s="2">
+        <v>64</v>
+      </c>
+      <c r="BP220" s="2">
+        <v>64</v>
+      </c>
+      <c r="BQ220" s="2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="221" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -45498,8 +47481,17 @@
       <c r="BN221" s="2">
         <v>258</v>
       </c>
+      <c r="BO221" s="2">
+        <v>260</v>
+      </c>
+      <c r="BP221" s="2">
+        <v>261</v>
+      </c>
+      <c r="BQ221" s="2">
+        <v>264</v>
+      </c>
     </row>
-    <row r="222" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -45698,8 +47690,17 @@
       <c r="BN222" s="2">
         <v>90612</v>
       </c>
+      <c r="BO222" s="2">
+        <v>91217</v>
+      </c>
+      <c r="BP222" s="2">
+        <v>92834</v>
+      </c>
+      <c r="BQ222" s="2">
+        <v>96707</v>
+      </c>
     </row>
-    <row r="223" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -45898,8 +47899,17 @@
       <c r="BN223" s="2">
         <v>8671</v>
       </c>
+      <c r="BO223" s="2">
+        <v>8679</v>
+      </c>
+      <c r="BP223" s="2">
+        <v>9684</v>
+      </c>
+      <c r="BQ223" s="2">
+        <v>9871</v>
+      </c>
     </row>
-    <row r="224" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -46098,8 +48108,17 @@
       <c r="BN224" s="2">
         <v>6</v>
       </c>
+      <c r="BO224" s="2">
+        <v>6</v>
+      </c>
+      <c r="BP224" s="2">
+        <v>6</v>
+      </c>
+      <c r="BQ224" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="225" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -46298,8 +48317,17 @@
       <c r="BN225" s="2">
         <v>282</v>
       </c>
+      <c r="BO225" s="2">
+        <v>290</v>
+      </c>
+      <c r="BP225" s="2">
+        <v>290</v>
+      </c>
+      <c r="BQ225" s="2">
+        <v>290</v>
+      </c>
     </row>
-    <row r="226" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -46498,8 +48526,17 @@
       <c r="BN226" s="2">
         <v>43</v>
       </c>
+      <c r="BO226" s="2">
+        <v>43</v>
+      </c>
+      <c r="BP226" s="2">
+        <v>43</v>
+      </c>
+      <c r="BQ226" s="2">
+        <v>43</v>
+      </c>
     </row>
-    <row r="227" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -46698,8 +48735,17 @@
       <c r="BN227" s="2">
         <v>2933</v>
       </c>
+      <c r="BO227" s="2">
+        <v>2954</v>
+      </c>
+      <c r="BP227" s="2">
+        <v>2964</v>
+      </c>
+      <c r="BQ227" s="2">
+        <v>2970</v>
+      </c>
     </row>
-    <row r="228" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -46898,8 +48944,17 @@
       <c r="BN228" s="2">
         <v>2784</v>
       </c>
+      <c r="BO228" s="2">
+        <v>2856</v>
+      </c>
+      <c r="BP228" s="2">
+        <v>2893</v>
+      </c>
+      <c r="BQ228" s="2">
+        <v>3001</v>
+      </c>
     </row>
-    <row r="229" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -47098,8 +49153,17 @@
       <c r="BN229" s="2">
         <v>60438</v>
       </c>
+      <c r="BO229" s="2">
+        <v>61175</v>
+      </c>
+      <c r="BP229" s="2">
+        <v>62335</v>
+      </c>
+      <c r="BQ229" s="2">
+        <v>63825</v>
+      </c>
     </row>
-    <row r="230" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -47298,8 +49362,17 @@
       <c r="BN230" s="2">
         <v>701</v>
       </c>
+      <c r="BO230" s="2">
+        <v>704</v>
+      </c>
+      <c r="BP230" s="2">
+        <v>709</v>
+      </c>
+      <c r="BQ230" s="2">
+        <v>729</v>
+      </c>
     </row>
-    <row r="231" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -47498,8 +49571,17 @@
       <c r="BN231" s="2">
         <v>695</v>
       </c>
+      <c r="BO231" s="2">
+        <v>701</v>
+      </c>
+      <c r="BP231" s="2">
+        <v>713</v>
+      </c>
+      <c r="BQ231" s="2">
+        <v>723</v>
+      </c>
     </row>
-    <row r="232" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -47698,8 +49780,17 @@
       <c r="BN232" s="2">
         <v>480</v>
       </c>
+      <c r="BO232" s="2">
+        <v>510</v>
+      </c>
+      <c r="BP232" s="2">
+        <v>514</v>
+      </c>
+      <c r="BQ232" s="2">
+        <v>518</v>
+      </c>
     </row>
-    <row r="233" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -47898,8 +49989,17 @@
       <c r="BN233" s="2">
         <v>157</v>
       </c>
+      <c r="BO233" s="2">
+        <v>158</v>
+      </c>
+      <c r="BP233" s="2">
+        <v>158</v>
+      </c>
+      <c r="BQ233" s="2">
+        <v>158</v>
+      </c>
     </row>
-    <row r="234" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -48098,8 +50198,17 @@
       <c r="BN234" s="2">
         <v>985</v>
       </c>
+      <c r="BO234" s="2">
+        <v>991</v>
+      </c>
+      <c r="BP234" s="2">
+        <v>999</v>
+      </c>
+      <c r="BQ234" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="235" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -48298,8 +50407,17 @@
       <c r="BN235" s="2">
         <v>1643</v>
       </c>
+      <c r="BO235" s="2">
+        <v>1643</v>
+      </c>
+      <c r="BP235" s="2">
+        <v>1687</v>
+      </c>
+      <c r="BQ235" s="2">
+        <v>1707</v>
+      </c>
     </row>
-    <row r="236" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -48498,8 +50616,17 @@
       <c r="BN236" s="2">
         <v>1509</v>
       </c>
+      <c r="BO236" s="2">
+        <v>1518</v>
+      </c>
+      <c r="BP236" s="2">
+        <v>1540</v>
+      </c>
+      <c r="BQ236" s="2">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="237" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -48698,8 +50825,17 @@
       <c r="BN237" s="2">
         <v>3846</v>
       </c>
+      <c r="BO237" s="2">
+        <v>3855</v>
+      </c>
+      <c r="BP237" s="2">
+        <v>3903</v>
+      </c>
+      <c r="BQ237" s="2">
+        <v>3944</v>
+      </c>
     </row>
-    <row r="238" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -48898,8 +51034,17 @@
       <c r="BN238" s="2">
         <v>10974</v>
       </c>
+      <c r="BO238" s="2">
+        <v>11369</v>
+      </c>
+      <c r="BP238" s="2">
+        <v>13509</v>
+      </c>
+      <c r="BQ238" s="2">
+        <v>13633</v>
+      </c>
     </row>
-    <row r="239" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -49098,8 +51243,17 @@
       <c r="BN239" s="2">
         <v>1786</v>
       </c>
+      <c r="BO239" s="2">
+        <v>1790</v>
+      </c>
+      <c r="BP239" s="2">
+        <v>1822</v>
+      </c>
+      <c r="BQ239" s="2">
+        <v>1892</v>
+      </c>
     </row>
-    <row r="240" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -49298,8 +51452,17 @@
       <c r="BN240" s="2">
         <v>251</v>
       </c>
+      <c r="BO240" s="2">
+        <v>257</v>
+      </c>
+      <c r="BP240" s="2">
+        <v>258</v>
+      </c>
+      <c r="BQ240" s="2">
+        <v>258</v>
+      </c>
     </row>
-    <row r="241" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -49498,8 +51661,17 @@
       <c r="BN241" s="2">
         <v>2510</v>
       </c>
+      <c r="BO241" s="2">
+        <v>2524</v>
+      </c>
+      <c r="BP241" s="2">
+        <v>2540</v>
+      </c>
+      <c r="BQ241" s="2">
+        <v>2556</v>
+      </c>
     </row>
-    <row r="242" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -49698,8 +51870,17 @@
       <c r="BN242" s="2">
         <v>8772</v>
       </c>
+      <c r="BO242" s="2">
+        <v>8776</v>
+      </c>
+      <c r="BP242" s="2">
+        <v>8991</v>
+      </c>
+      <c r="BQ242" s="2">
+        <v>9219</v>
+      </c>
     </row>
-    <row r="243" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -49898,8 +52079,17 @@
       <c r="BN243" s="2">
         <v>2366</v>
       </c>
+      <c r="BO243" s="2">
+        <v>2375</v>
+      </c>
+      <c r="BP243" s="2">
+        <v>2399</v>
+      </c>
+      <c r="BQ243" s="2">
+        <v>2506</v>
+      </c>
     </row>
-    <row r="244" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -50098,8 +52288,17 @@
       <c r="BN244" s="2">
         <v>137</v>
       </c>
+      <c r="BO244" s="2">
+        <v>138</v>
+      </c>
+      <c r="BP244" s="2">
+        <v>138</v>
+      </c>
+      <c r="BQ244" s="2">
+        <v>143</v>
+      </c>
     </row>
-    <row r="245" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -50298,8 +52497,17 @@
       <c r="BN245" s="2">
         <v>6994</v>
       </c>
+      <c r="BO245" s="2">
+        <v>7018</v>
+      </c>
+      <c r="BP245" s="2">
+        <v>7047</v>
+      </c>
+      <c r="BQ245" s="2">
+        <v>7115</v>
+      </c>
     </row>
-    <row r="246" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -50498,8 +52706,17 @@
       <c r="BN246" s="2">
         <v>293</v>
       </c>
+      <c r="BO246" s="2">
+        <v>294</v>
+      </c>
+      <c r="BP246" s="2">
+        <v>296</v>
+      </c>
+      <c r="BQ246" s="2">
+        <v>301</v>
+      </c>
     </row>
-    <row r="247" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -50698,8 +52915,17 @@
       <c r="BN247" s="2">
         <v>1645</v>
       </c>
+      <c r="BO247" s="2">
+        <v>1648</v>
+      </c>
+      <c r="BP247" s="2">
+        <v>1701</v>
+      </c>
+      <c r="BQ247" s="2">
+        <v>1798</v>
+      </c>
     </row>
-    <row r="248" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -50898,8 +53124,17 @@
       <c r="BN248" s="2">
         <v>20111</v>
       </c>
+      <c r="BO248" s="2">
+        <v>20291</v>
+      </c>
+      <c r="BP248" s="2">
+        <v>20608</v>
+      </c>
+      <c r="BQ248" s="2">
+        <v>21101</v>
+      </c>
     </row>
-    <row r="249" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -51098,8 +53333,17 @@
       <c r="BN249" s="2">
         <v>1325</v>
       </c>
+      <c r="BO249" s="2">
+        <v>1327</v>
+      </c>
+      <c r="BP249" s="2">
+        <v>1343</v>
+      </c>
+      <c r="BQ249" s="2">
+        <v>1403</v>
+      </c>
     </row>
-    <row r="250" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -51298,8 +53542,17 @@
       <c r="BN250" s="2">
         <v>35</v>
       </c>
+      <c r="BO250" s="2">
+        <v>35</v>
+      </c>
+      <c r="BP250" s="2">
+        <v>35</v>
+      </c>
+      <c r="BQ250" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="251" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -51498,8 +53751,17 @@
       <c r="BN251" s="2">
         <v>1529</v>
       </c>
+      <c r="BO251" s="2">
+        <v>1537</v>
+      </c>
+      <c r="BP251" s="2">
+        <v>1572</v>
+      </c>
+      <c r="BQ251" s="2">
+        <v>1638</v>
+      </c>
     </row>
-    <row r="252" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -51698,8 +53960,17 @@
       <c r="BN252" s="2">
         <v>904</v>
       </c>
+      <c r="BO252" s="2">
+        <v>911</v>
+      </c>
+      <c r="BP252" s="2">
+        <v>922</v>
+      </c>
+      <c r="BQ252" s="2">
+        <v>928</v>
+      </c>
     </row>
-    <row r="253" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -51898,8 +54169,17 @@
       <c r="BN253" s="2">
         <v>236</v>
       </c>
+      <c r="BO253" s="2">
+        <v>239</v>
+      </c>
+      <c r="BP253" s="2">
+        <v>252</v>
+      </c>
+      <c r="BQ253" s="2">
+        <v>258</v>
+      </c>
     </row>
-    <row r="254" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -52098,8 +54378,17 @@
       <c r="BN254" s="2">
         <v>738</v>
       </c>
+      <c r="BO254" s="2">
+        <v>747</v>
+      </c>
+      <c r="BP254" s="2">
+        <v>748</v>
+      </c>
+      <c r="BQ254" s="2">
+        <v>749</v>
+      </c>
     </row>
-    <row r="255" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -52298,8 +54587,17 @@
       <c r="BN255" s="2">
         <v>594</v>
       </c>
+      <c r="BO255" s="2">
+        <v>594</v>
+      </c>
+      <c r="BP255" s="2">
+        <v>778</v>
+      </c>
+      <c r="BQ255" s="2">
+        <v>781</v>
+      </c>
     </row>
-    <row r="256" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -52498,8 +54796,17 @@
       <c r="BN256" s="2">
         <v>126</v>
       </c>
+      <c r="BO256" s="2">
+        <v>127</v>
+      </c>
+      <c r="BP256" s="2">
+        <v>135</v>
+      </c>
+      <c r="BQ256" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="257" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -52698,8 +55005,17 @@
       <c r="BN257" s="2">
         <v>4581</v>
       </c>
+      <c r="BO257" s="2">
+        <v>4583</v>
+      </c>
+      <c r="BP257" s="2">
+        <v>4897</v>
+      </c>
+      <c r="BQ257" s="2">
+        <v>4995</v>
+      </c>
     </row>
-    <row r="258" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -52899,8 +55215,17 @@
       <c r="BN258" s="2">
         <v>432152</v>
       </c>
+      <c r="BO258" s="2">
+        <v>460756</v>
+      </c>
+      <c r="BP258" s="2">
+        <v>454575</v>
+      </c>
+      <c r="BQ258" s="2">
+        <v>462282</v>
+      </c>
     </row>
-    <row r="259" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>257</v>
       </c>
@@ -53105,8 +55430,18 @@
         <f>SUM(BN3:BN258)</f>
         <v>1836037</v>
       </c>
+      <c r="BO259" s="10">
+        <f>SUM(BO3:BO258)</f>
+        <v>1875197</v>
+      </c>
+      <c r="BP259" s="10">
+        <v>1903661</v>
+      </c>
+      <c r="BQ259" s="10">
+        <v>1959617</v>
+      </c>
     </row>
-    <row r="261" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -53119,7 +55454,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:66" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
         <v>258</v>
       </c>
@@ -53132,7 +55467,7 @@
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:66" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:69" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>259</v>
       </c>
@@ -53145,7 +55480,7 @@
       <c r="H263" s="24"/>
       <c r="I263" s="24"/>
     </row>
-    <row r="264" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>260</v>
       </c>
@@ -53158,7 +55493,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
     </row>
-    <row r="265" spans="1:66" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:69" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>288</v>
       </c>
@@ -53227,10 +55562,13 @@
       <c r="BL265" s="13"/>
       <c r="BM265" s="13"/>
       <c r="BN265" s="13"/>
+      <c r="BO265" s="13"/>
+      <c r="BP265" s="13"/>
+      <c r="BQ265" s="13"/>
     </row>
-    <row r="266" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B266" s="18"/>
       <c r="C266" s="13"/>
@@ -53241,7 +55579,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:66" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:69" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="23" t="s">
         <v>278</v>
       </c>

--- a/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
+++ b/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2A60E936-9D70-41A9-ABF2-E4B53C982510}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1C1792BB-6B0F-4498-8D44-D6672667DD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests Received" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="340">
   <si>
     <t>County</t>
   </si>
@@ -1037,7 +1037,19 @@
     <t>Tests Through June 27</t>
   </si>
   <si>
-    <t>5. This file will be updated daily; the next cumulative update will be 6/29/2020.</t>
+    <t>Tests Through June 28</t>
+  </si>
+  <si>
+    <t>Tests Through June 29</t>
+  </si>
+  <si>
+    <t>Tests Through June 30</t>
+  </si>
+  <si>
+    <t>Tests Through July 1</t>
+  </si>
+  <si>
+    <t>5. This file will be updated daily; the next cumulative update will be 7/3/2020.</t>
   </si>
 </sst>
 </file>
@@ -1486,13 +1498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ267"/>
+  <dimension ref="A1:BU267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A267" sqref="A267:I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,15 +1515,16 @@
     <col min="40" max="45" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11.453125" style="2" customWidth="1"/>
     <col min="47" max="49" width="11.1796875" style="2" customWidth="1"/>
-    <col min="50" max="69" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="71" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:73" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:73" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1719,8 +1732,20 @@
       <c r="BQ2" s="7" t="s">
         <v>334</v>
       </c>
+      <c r="BR2" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>338</v>
+      </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1928,8 +1953,20 @@
       <c r="BQ3" s="2">
         <v>6563</v>
       </c>
+      <c r="BR3" s="2">
+        <v>6571</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>6578</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>6591</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>7091</v>
+      </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2137,8 +2174,20 @@
       <c r="BQ4" s="2">
         <v>121</v>
       </c>
+      <c r="BR4" s="2">
+        <v>130</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>130</v>
+      </c>
+      <c r="BT4">
+        <v>138</v>
+      </c>
+      <c r="BU4">
+        <v>139</v>
+      </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2346,8 +2395,20 @@
       <c r="BQ5" s="2">
         <v>4000</v>
       </c>
+      <c r="BR5" s="2">
+        <v>4063</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>4122</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>4190</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>4512</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2555,8 +2616,20 @@
       <c r="BQ6" s="2">
         <v>364</v>
       </c>
+      <c r="BR6" s="2">
+        <v>370</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>377</v>
+      </c>
+      <c r="BT6">
+        <v>385</v>
+      </c>
+      <c r="BU6">
+        <v>403</v>
+      </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2764,8 +2837,20 @@
       <c r="BQ7" s="2">
         <v>101</v>
       </c>
+      <c r="BR7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT7">
+        <v>101</v>
+      </c>
+      <c r="BU7">
+        <v>104</v>
+      </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2973,8 +3058,20 @@
       <c r="BQ8" s="2">
         <v>180</v>
       </c>
+      <c r="BR8" s="2">
+        <v>181</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>184</v>
+      </c>
+      <c r="BT8">
+        <v>184</v>
+      </c>
+      <c r="BU8">
+        <v>187</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3182,8 +3279,20 @@
       <c r="BQ9" s="2">
         <v>1593</v>
       </c>
+      <c r="BR9" s="2">
+        <v>1654</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>1705</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>1754</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>1813</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3391,8 +3500,20 @@
       <c r="BQ10" s="2">
         <v>1582</v>
       </c>
+      <c r="BR10" s="2">
+        <v>1601</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>1621</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>1654</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>1677</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3600,8 +3721,20 @@
       <c r="BQ11" s="2">
         <v>119</v>
       </c>
+      <c r="BR11" s="2">
+        <v>129</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>129</v>
+      </c>
+      <c r="BT11">
+        <v>130</v>
+      </c>
+      <c r="BU11">
+        <v>131</v>
+      </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3809,8 +3942,20 @@
       <c r="BQ12" s="2">
         <v>457</v>
       </c>
+      <c r="BR12" s="2">
+        <v>457</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>461</v>
+      </c>
+      <c r="BT12">
+        <v>470</v>
+      </c>
+      <c r="BU12">
+        <v>479</v>
+      </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -4018,8 +4163,20 @@
       <c r="BQ13" s="2">
         <v>2601</v>
       </c>
+      <c r="BR13" s="2">
+        <v>2626</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>2678</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>2754</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>2836</v>
+      </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -4227,8 +4384,20 @@
       <c r="BQ14" s="2">
         <v>75</v>
       </c>
+      <c r="BR14" s="2">
+        <v>75</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>76</v>
+      </c>
+      <c r="BT14">
+        <v>76</v>
+      </c>
+      <c r="BU14">
+        <v>76</v>
+      </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4436,8 +4605,20 @@
       <c r="BQ15" s="2">
         <v>2482</v>
       </c>
+      <c r="BR15" s="2">
+        <v>2512</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>2528</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>2533</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>3290</v>
+      </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4645,8 +4826,20 @@
       <c r="BQ16" s="2">
         <v>23489</v>
       </c>
+      <c r="BR16" s="2">
+        <v>23669</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>23832</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>23905</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>24231</v>
+      </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -4854,8 +5047,20 @@
       <c r="BQ17" s="2">
         <v>70510</v>
       </c>
+      <c r="BR17" s="2">
+        <v>73533</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>76562</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>78923</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>80586</v>
+      </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -5063,8 +5268,20 @@
       <c r="BQ18" s="2">
         <v>2319</v>
       </c>
+      <c r="BR18" s="2">
+        <v>2337</v>
+      </c>
+      <c r="BS18" s="2">
+        <v>2365</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>2418</v>
+      </c>
+      <c r="BU18" s="2">
+        <v>2533</v>
+      </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -5272,8 +5489,20 @@
       <c r="BQ19" s="2">
         <v>2</v>
       </c>
+      <c r="BR19" s="2">
+        <v>2</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>2</v>
+      </c>
+      <c r="BT19">
+        <v>2</v>
+      </c>
+      <c r="BU19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -5481,8 +5710,20 @@
       <c r="BQ20" s="2">
         <v>1040</v>
       </c>
+      <c r="BR20" s="2">
+        <v>1055</v>
+      </c>
+      <c r="BS20" s="2">
+        <v>1059</v>
+      </c>
+      <c r="BT20" s="2">
+        <v>1059</v>
+      </c>
+      <c r="BU20" s="2">
+        <v>1064</v>
+      </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -5690,8 +5931,20 @@
       <c r="BQ21" s="2">
         <v>7333</v>
       </c>
+      <c r="BR21" s="2">
+        <v>7803</v>
+      </c>
+      <c r="BS21" s="2">
+        <v>7831</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>7881</v>
+      </c>
+      <c r="BU21" s="2">
+        <v>7934</v>
+      </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -5899,8 +6152,20 @@
       <c r="BQ22" s="2">
         <v>15749</v>
       </c>
+      <c r="BR22" s="2">
+        <v>16498</v>
+      </c>
+      <c r="BS22" s="2">
+        <v>16957</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>17394</v>
+      </c>
+      <c r="BU22" s="2">
+        <v>17734</v>
+      </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -6108,8 +6373,20 @@
       <c r="BQ23" s="2">
         <v>13613</v>
       </c>
+      <c r="BR23" s="2">
+        <v>13859</v>
+      </c>
+      <c r="BS23" s="2">
+        <v>14085</v>
+      </c>
+      <c r="BT23" s="2">
+        <v>14313</v>
+      </c>
+      <c r="BU23" s="2">
+        <v>14734</v>
+      </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -6317,8 +6594,20 @@
       <c r="BQ24" s="2">
         <v>986</v>
       </c>
+      <c r="BR24" s="2">
+        <v>987</v>
+      </c>
+      <c r="BS24" s="2">
+        <v>989</v>
+      </c>
+      <c r="BT24">
+        <v>995</v>
+      </c>
+      <c r="BU24">
+        <v>997</v>
+      </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -6526,8 +6815,20 @@
       <c r="BQ25" s="2">
         <v>56</v>
       </c>
+      <c r="BR25" s="2">
+        <v>62</v>
+      </c>
+      <c r="BS25" s="2">
+        <v>62</v>
+      </c>
+      <c r="BT25">
+        <v>62</v>
+      </c>
+      <c r="BU25">
+        <v>62</v>
+      </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -6735,8 +7036,20 @@
       <c r="BQ26" s="2">
         <v>135</v>
       </c>
+      <c r="BR26" s="2">
+        <v>140</v>
+      </c>
+      <c r="BS26" s="2">
+        <v>142</v>
+      </c>
+      <c r="BT26">
+        <v>144</v>
+      </c>
+      <c r="BU26">
+        <v>148</v>
+      </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -6944,8 +7257,20 @@
       <c r="BQ27" s="2">
         <v>1103</v>
       </c>
+      <c r="BR27" s="2">
+        <v>1117</v>
+      </c>
+      <c r="BS27" s="2">
+        <v>1131</v>
+      </c>
+      <c r="BT27" s="2">
+        <v>1138</v>
+      </c>
+      <c r="BU27" s="2">
+        <v>1158</v>
+      </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -7153,8 +7478,20 @@
       <c r="BQ28" s="2">
         <v>741</v>
       </c>
+      <c r="BR28" s="2">
+        <v>762</v>
+      </c>
+      <c r="BS28" s="2">
+        <v>772</v>
+      </c>
+      <c r="BT28">
+        <v>784</v>
+      </c>
+      <c r="BU28">
+        <v>818</v>
+      </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -7362,8 +7699,20 @@
       <c r="BQ29" s="2">
         <v>1925</v>
       </c>
+      <c r="BR29" s="2">
+        <v>1939</v>
+      </c>
+      <c r="BS29" s="2">
+        <v>1955</v>
+      </c>
+      <c r="BT29" s="2">
+        <v>1962</v>
+      </c>
+      <c r="BU29" s="2">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -7571,8 +7920,20 @@
       <c r="BQ30" s="2">
         <v>1343</v>
       </c>
+      <c r="BR30" s="2">
+        <v>1441</v>
+      </c>
+      <c r="BS30" s="2">
+        <v>1560</v>
+      </c>
+      <c r="BT30" s="2">
+        <v>1594</v>
+      </c>
+      <c r="BU30" s="2">
+        <v>1640</v>
+      </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -7780,8 +8141,20 @@
       <c r="BQ31" s="2">
         <v>1116</v>
       </c>
+      <c r="BR31" s="2">
+        <v>1122</v>
+      </c>
+      <c r="BS31" s="2">
+        <v>1131</v>
+      </c>
+      <c r="BT31" s="2">
+        <v>1149</v>
+      </c>
+      <c r="BU31" s="2">
+        <v>1171</v>
+      </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -7989,8 +8362,20 @@
       <c r="BQ32" s="2">
         <v>325</v>
       </c>
+      <c r="BR32" s="2">
+        <v>328</v>
+      </c>
+      <c r="BS32" s="2">
+        <v>334</v>
+      </c>
+      <c r="BT32">
+        <v>339</v>
+      </c>
+      <c r="BU32">
+        <v>345</v>
+      </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -8198,8 +8583,20 @@
       <c r="BQ33" s="2">
         <v>17668</v>
       </c>
+      <c r="BR33" s="2">
+        <v>18172</v>
+      </c>
+      <c r="BS33" s="2">
+        <v>19181</v>
+      </c>
+      <c r="BT33" s="2">
+        <v>20771</v>
+      </c>
+      <c r="BU33" s="2">
+        <v>21451</v>
+      </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -8407,8 +8804,20 @@
       <c r="BQ34" s="2">
         <v>393</v>
       </c>
+      <c r="BR34" s="2">
+        <v>394</v>
+      </c>
+      <c r="BS34" s="2">
+        <v>400</v>
+      </c>
+      <c r="BT34">
+        <v>403</v>
+      </c>
+      <c r="BU34">
+        <v>405</v>
+      </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -8616,8 +9025,20 @@
       <c r="BQ35" s="2">
         <v>158</v>
       </c>
+      <c r="BR35" s="2">
+        <v>161</v>
+      </c>
+      <c r="BS35" s="2">
+        <v>168</v>
+      </c>
+      <c r="BT35">
+        <v>177</v>
+      </c>
+      <c r="BU35">
+        <v>183</v>
+      </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -8825,8 +9246,20 @@
       <c r="BQ36" s="2">
         <v>819</v>
       </c>
+      <c r="BR36" s="2">
+        <v>825</v>
+      </c>
+      <c r="BS36" s="2">
+        <v>881</v>
+      </c>
+      <c r="BT36">
+        <v>886</v>
+      </c>
+      <c r="BU36">
+        <v>890</v>
+      </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -9034,8 +9467,20 @@
       <c r="BQ37" s="2">
         <v>331</v>
       </c>
+      <c r="BR37" s="2">
+        <v>331</v>
+      </c>
+      <c r="BS37" s="2">
+        <v>331</v>
+      </c>
+      <c r="BT37">
+        <v>331</v>
+      </c>
+      <c r="BU37">
+        <v>332</v>
+      </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -9243,8 +9688,20 @@
       <c r="BQ38" s="2">
         <v>1795</v>
       </c>
+      <c r="BR38" s="2">
+        <v>1914</v>
+      </c>
+      <c r="BS38" s="2">
+        <v>1985</v>
+      </c>
+      <c r="BT38" s="2">
+        <v>2138</v>
+      </c>
+      <c r="BU38" s="2">
+        <v>2192</v>
+      </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -9452,8 +9909,20 @@
       <c r="BQ39" s="2">
         <v>1464</v>
       </c>
+      <c r="BR39" s="2">
+        <v>1468</v>
+      </c>
+      <c r="BS39" s="2">
+        <v>1476</v>
+      </c>
+      <c r="BT39" s="2">
+        <v>1489</v>
+      </c>
+      <c r="BU39" s="2">
+        <v>1624</v>
+      </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -9661,8 +10130,20 @@
       <c r="BQ40" s="2">
         <v>294</v>
       </c>
+      <c r="BR40" s="2">
+        <v>295</v>
+      </c>
+      <c r="BS40" s="2">
+        <v>295</v>
+      </c>
+      <c r="BT40">
+        <v>295</v>
+      </c>
+      <c r="BU40">
+        <v>298</v>
+      </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -9870,8 +10351,20 @@
       <c r="BQ41" s="2">
         <v>333</v>
       </c>
+      <c r="BR41" s="2">
+        <v>333</v>
+      </c>
+      <c r="BS41" s="2">
+        <v>337</v>
+      </c>
+      <c r="BT41">
+        <v>339</v>
+      </c>
+      <c r="BU41">
+        <v>339</v>
+      </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -10079,8 +10572,20 @@
       <c r="BQ42" s="2">
         <v>21</v>
       </c>
+      <c r="BR42" s="2">
+        <v>24</v>
+      </c>
+      <c r="BS42" s="2">
+        <v>24</v>
+      </c>
+      <c r="BT42">
+        <v>24</v>
+      </c>
+      <c r="BU42">
+        <v>24</v>
+      </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -10288,8 +10793,20 @@
       <c r="BQ43" s="2">
         <v>37</v>
       </c>
+      <c r="BR43" s="2">
+        <v>37</v>
+      </c>
+      <c r="BS43" s="2">
+        <v>39</v>
+      </c>
+      <c r="BT43">
+        <v>39</v>
+      </c>
+      <c r="BU43">
+        <v>39</v>
+      </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -10497,8 +11014,20 @@
       <c r="BQ44" s="2">
         <v>200</v>
       </c>
+      <c r="BR44" s="2">
+        <v>202</v>
+      </c>
+      <c r="BS44" s="2">
+        <v>203</v>
+      </c>
+      <c r="BT44">
+        <v>205</v>
+      </c>
+      <c r="BU44">
+        <v>209</v>
+      </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -10706,8 +11235,20 @@
       <c r="BQ45" s="2">
         <v>42742</v>
       </c>
+      <c r="BR45" s="2">
+        <v>44400</v>
+      </c>
+      <c r="BS45" s="2">
+        <v>45498</v>
+      </c>
+      <c r="BT45" s="2">
+        <v>46406</v>
+      </c>
+      <c r="BU45" s="2">
+        <v>47382</v>
+      </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -10915,8 +11456,20 @@
       <c r="BQ46" s="2">
         <v>160</v>
       </c>
+      <c r="BR46" s="2">
+        <v>160</v>
+      </c>
+      <c r="BS46" s="2">
+        <v>160</v>
+      </c>
+      <c r="BT46">
+        <v>161</v>
+      </c>
+      <c r="BU46">
+        <v>163</v>
+      </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -11124,8 +11677,20 @@
       <c r="BQ47" s="2">
         <v>1268</v>
       </c>
+      <c r="BR47" s="2">
+        <v>1287</v>
+      </c>
+      <c r="BS47" s="2">
+        <v>1306</v>
+      </c>
+      <c r="BT47" s="2">
+        <v>1325</v>
+      </c>
+      <c r="BU47" s="2">
+        <v>1331</v>
+      </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -11333,8 +11898,20 @@
       <c r="BQ48" s="2">
         <v>6144</v>
       </c>
+      <c r="BR48" s="2">
+        <v>6399</v>
+      </c>
+      <c r="BS48" s="2">
+        <v>6525</v>
+      </c>
+      <c r="BT48" s="2">
+        <v>6786</v>
+      </c>
+      <c r="BU48" s="2">
+        <v>6865</v>
+      </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -11542,8 +12119,20 @@
       <c r="BQ49" s="2">
         <v>698</v>
       </c>
+      <c r="BR49" s="2">
+        <v>698</v>
+      </c>
+      <c r="BS49" s="2">
+        <v>735</v>
+      </c>
+      <c r="BT49">
+        <v>739</v>
+      </c>
+      <c r="BU49">
+        <v>740</v>
+      </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -11751,8 +12340,20 @@
       <c r="BQ50" s="2">
         <v>93</v>
       </c>
+      <c r="BR50" s="2">
+        <v>94</v>
+      </c>
+      <c r="BS50" s="2">
+        <v>96</v>
+      </c>
+      <c r="BT50">
+        <v>100</v>
+      </c>
+      <c r="BU50">
+        <v>102</v>
+      </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -11960,8 +12561,20 @@
       <c r="BQ51" s="2">
         <v>1786</v>
       </c>
+      <c r="BR51" s="2">
+        <v>1808</v>
+      </c>
+      <c r="BS51" s="2">
+        <v>1822</v>
+      </c>
+      <c r="BT51" s="2">
+        <v>1855</v>
+      </c>
+      <c r="BU51" s="2">
+        <v>1880</v>
+      </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -12169,8 +12782,20 @@
       <c r="BQ52" s="2">
         <v>7108</v>
       </c>
+      <c r="BR52" s="2">
+        <v>7235</v>
+      </c>
+      <c r="BS52" s="2">
+        <v>7274</v>
+      </c>
+      <c r="BT52" s="2">
+        <v>7276</v>
+      </c>
+      <c r="BU52" s="2">
+        <v>8690</v>
+      </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -12378,8 +13003,20 @@
       <c r="BQ53" s="2">
         <v>38</v>
       </c>
+      <c r="BR53" s="2">
+        <v>39</v>
+      </c>
+      <c r="BS53" s="2">
+        <v>39</v>
+      </c>
+      <c r="BT53">
+        <v>39</v>
+      </c>
+      <c r="BU53">
+        <v>39</v>
+      </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -12587,8 +13224,20 @@
       <c r="BQ54" s="2">
         <v>170</v>
       </c>
+      <c r="BR54" s="2">
+        <v>172</v>
+      </c>
+      <c r="BS54" s="2">
+        <v>173</v>
+      </c>
+      <c r="BT54">
+        <v>173</v>
+      </c>
+      <c r="BU54">
+        <v>178</v>
+      </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -12796,8 +13445,20 @@
       <c r="BQ55" s="2">
         <v>112</v>
       </c>
+      <c r="BR55" s="2">
+        <v>118</v>
+      </c>
+      <c r="BS55" s="2">
+        <v>120</v>
+      </c>
+      <c r="BT55">
+        <v>120</v>
+      </c>
+      <c r="BU55">
+        <v>120</v>
+      </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -13005,8 +13666,20 @@
       <c r="BQ56" s="2">
         <v>163</v>
       </c>
+      <c r="BR56" s="2">
+        <v>163</v>
+      </c>
+      <c r="BS56" s="2">
+        <v>164</v>
+      </c>
+      <c r="BT56">
+        <v>166</v>
+      </c>
+      <c r="BU56">
+        <v>168</v>
+      </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -13214,8 +13887,20 @@
       <c r="BQ57" s="2">
         <v>39</v>
       </c>
+      <c r="BR57" s="2">
+        <v>46</v>
+      </c>
+      <c r="BS57" s="2">
+        <v>46</v>
+      </c>
+      <c r="BT57">
+        <v>55</v>
+      </c>
+      <c r="BU57">
+        <v>57</v>
+      </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -13423,8 +14108,20 @@
       <c r="BQ58" s="2">
         <v>10</v>
       </c>
+      <c r="BR58" s="2">
+        <v>10</v>
+      </c>
+      <c r="BS58" s="2">
+        <v>10</v>
+      </c>
+      <c r="BT58">
+        <v>10</v>
+      </c>
+      <c r="BU58">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -13632,8 +14329,20 @@
       <c r="BQ59" s="2">
         <v>166110</v>
       </c>
+      <c r="BR59" s="2">
+        <v>177725</v>
+      </c>
+      <c r="BS59" s="2">
+        <v>181157</v>
+      </c>
+      <c r="BT59" s="2">
+        <v>184651</v>
+      </c>
+      <c r="BU59" s="2">
+        <v>189267</v>
+      </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -13841,8 +14550,20 @@
       <c r="BQ60" s="2">
         <v>447</v>
       </c>
+      <c r="BR60" s="2">
+        <v>464</v>
+      </c>
+      <c r="BS60" s="2">
+        <v>465</v>
+      </c>
+      <c r="BT60">
+        <v>465</v>
+      </c>
+      <c r="BU60">
+        <v>466</v>
+      </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -14050,8 +14771,20 @@
       <c r="BQ61" s="2">
         <v>457</v>
       </c>
+      <c r="BR61" s="2">
+        <v>479</v>
+      </c>
+      <c r="BS61" s="2">
+        <v>491</v>
+      </c>
+      <c r="BT61">
+        <v>491</v>
+      </c>
+      <c r="BU61">
+        <v>492</v>
+      </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -14259,8 +14992,20 @@
       <c r="BQ62" s="2">
         <v>108</v>
       </c>
+      <c r="BR62" s="2">
+        <v>108</v>
+      </c>
+      <c r="BS62" s="2">
+        <v>108</v>
+      </c>
+      <c r="BT62">
+        <v>109</v>
+      </c>
+      <c r="BU62">
+        <v>109</v>
+      </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -14468,8 +15213,20 @@
       <c r="BQ63" s="2">
         <v>38941</v>
       </c>
+      <c r="BR63" s="2">
+        <v>40423</v>
+      </c>
+      <c r="BS63" s="2">
+        <v>41208</v>
+      </c>
+      <c r="BT63" s="2">
+        <v>42036</v>
+      </c>
+      <c r="BU63" s="2">
+        <v>42837</v>
+      </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -14677,8 +15434,20 @@
       <c r="BQ64" s="2">
         <v>560</v>
       </c>
+      <c r="BR64" s="2">
+        <v>569</v>
+      </c>
+      <c r="BS64" s="2">
+        <v>580</v>
+      </c>
+      <c r="BT64">
+        <v>596</v>
+      </c>
+      <c r="BU64">
+        <v>616</v>
+      </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -14886,8 +15655,20 @@
       <c r="BQ65" s="2">
         <v>30</v>
       </c>
+      <c r="BR65" s="2">
+        <v>30</v>
+      </c>
+      <c r="BS65" s="2">
+        <v>31</v>
+      </c>
+      <c r="BT65">
+        <v>31</v>
+      </c>
+      <c r="BU65">
+        <v>31</v>
+      </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -15095,8 +15876,20 @@
       <c r="BQ66" s="2">
         <v>198</v>
       </c>
+      <c r="BR66" s="2">
+        <v>200</v>
+      </c>
+      <c r="BS66" s="2">
+        <v>210</v>
+      </c>
+      <c r="BT66">
+        <v>311</v>
+      </c>
+      <c r="BU66">
+        <v>331</v>
+      </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -15304,8 +16097,20 @@
       <c r="BQ67" s="2">
         <v>197</v>
       </c>
+      <c r="BR67" s="2">
+        <v>197</v>
+      </c>
+      <c r="BS67" s="2">
+        <v>197</v>
+      </c>
+      <c r="BT67">
+        <v>199</v>
+      </c>
+      <c r="BU67">
+        <v>199</v>
+      </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -15513,8 +16318,20 @@
       <c r="BQ68" s="2">
         <v>406</v>
       </c>
+      <c r="BR68" s="2">
+        <v>433</v>
+      </c>
+      <c r="BS68" s="2">
+        <v>463</v>
+      </c>
+      <c r="BT68">
+        <v>468</v>
+      </c>
+      <c r="BU68">
+        <v>469</v>
+      </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -15722,8 +16539,20 @@
       <c r="BQ69" s="2">
         <v>463</v>
       </c>
+      <c r="BR69" s="2">
+        <v>471</v>
+      </c>
+      <c r="BS69" s="2">
+        <v>481</v>
+      </c>
+      <c r="BT69">
+        <v>486</v>
+      </c>
+      <c r="BU69">
+        <v>490</v>
+      </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -15931,8 +16760,20 @@
       <c r="BQ70" s="2">
         <v>5262</v>
       </c>
+      <c r="BR70" s="2">
+        <v>5364</v>
+      </c>
+      <c r="BS70" s="2">
+        <v>5434</v>
+      </c>
+      <c r="BT70" s="2">
+        <v>5502</v>
+      </c>
+      <c r="BU70" s="2">
+        <v>5555</v>
+      </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -16140,8 +16981,20 @@
       <c r="BQ71" s="2">
         <v>33</v>
       </c>
+      <c r="BR71" s="2">
+        <v>33</v>
+      </c>
+      <c r="BS71" s="2">
+        <v>33</v>
+      </c>
+      <c r="BT71">
+        <v>33</v>
+      </c>
+      <c r="BU71">
+        <v>33</v>
+      </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -16349,8 +17202,20 @@
       <c r="BQ72" s="2">
         <v>10168</v>
       </c>
+      <c r="BR72" s="2">
+        <v>10545</v>
+      </c>
+      <c r="BS72" s="2">
+        <v>10791</v>
+      </c>
+      <c r="BT72" s="2">
+        <v>11112</v>
+      </c>
+      <c r="BU72" s="2">
+        <v>11256</v>
+      </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -16558,8 +17423,20 @@
       <c r="BQ73" s="2">
         <v>45321</v>
       </c>
+      <c r="BR73" s="2">
+        <v>45810</v>
+      </c>
+      <c r="BS73" s="2">
+        <v>46160</v>
+      </c>
+      <c r="BT73" s="2">
+        <v>46576</v>
+      </c>
+      <c r="BU73" s="2">
+        <v>46861</v>
+      </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -16767,8 +17644,20 @@
       <c r="BQ74" s="2">
         <v>1563</v>
       </c>
+      <c r="BR74" s="2">
+        <v>1593</v>
+      </c>
+      <c r="BS74" s="2">
+        <v>1615</v>
+      </c>
+      <c r="BT74" s="2">
+        <v>1627</v>
+      </c>
+      <c r="BU74" s="2">
+        <v>1632</v>
+      </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -16976,8 +17865,20 @@
       <c r="BQ75" s="2">
         <v>896</v>
       </c>
+      <c r="BR75" s="2">
+        <v>899</v>
+      </c>
+      <c r="BS75" s="2">
+        <v>904</v>
+      </c>
+      <c r="BT75">
+        <v>909</v>
+      </c>
+      <c r="BU75">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -17185,8 +18086,20 @@
       <c r="BQ76" s="2">
         <v>1529</v>
       </c>
+      <c r="BR76" s="2">
+        <v>1545</v>
+      </c>
+      <c r="BS76" s="2">
+        <v>1579</v>
+      </c>
+      <c r="BT76" s="2">
+        <v>1615</v>
+      </c>
+      <c r="BU76" s="2">
+        <v>1642</v>
+      </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -17394,8 +18307,20 @@
       <c r="BQ77" s="2">
         <v>1590</v>
       </c>
+      <c r="BR77" s="2">
+        <v>1606</v>
+      </c>
+      <c r="BS77" s="2">
+        <v>1668</v>
+      </c>
+      <c r="BT77" s="2">
+        <v>1671</v>
+      </c>
+      <c r="BU77" s="2">
+        <v>1711</v>
+      </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -17603,8 +18528,20 @@
       <c r="BQ78" s="2">
         <v>34</v>
       </c>
+      <c r="BR78" s="2">
+        <v>36</v>
+      </c>
+      <c r="BS78" s="2">
+        <v>36</v>
+      </c>
+      <c r="BT78">
+        <v>36</v>
+      </c>
+      <c r="BU78">
+        <v>37</v>
+      </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -17812,8 +18749,20 @@
       <c r="BQ79" s="2">
         <v>293</v>
       </c>
+      <c r="BR79" s="2">
+        <v>333</v>
+      </c>
+      <c r="BS79" s="2">
+        <v>334</v>
+      </c>
+      <c r="BT79">
+        <v>341</v>
+      </c>
+      <c r="BU79">
+        <v>343</v>
+      </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -18021,8 +18970,20 @@
       <c r="BQ80" s="2">
         <v>96</v>
       </c>
+      <c r="BR80" s="2">
+        <v>96</v>
+      </c>
+      <c r="BS80" s="2">
+        <v>96</v>
+      </c>
+      <c r="BT80">
+        <v>96</v>
+      </c>
+      <c r="BU80">
+        <v>96</v>
+      </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -18230,8 +19191,20 @@
       <c r="BQ81" s="2">
         <v>98749</v>
       </c>
+      <c r="BR81" s="2">
+        <v>100796</v>
+      </c>
+      <c r="BS81" s="2">
+        <v>103070</v>
+      </c>
+      <c r="BT81" s="2">
+        <v>105597</v>
+      </c>
+      <c r="BU81" s="2">
+        <v>107424</v>
+      </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -18439,8 +19412,20 @@
       <c r="BQ82" s="2">
         <v>278</v>
       </c>
+      <c r="BR82" s="2">
+        <v>278</v>
+      </c>
+      <c r="BS82" s="2">
+        <v>280</v>
+      </c>
+      <c r="BT82">
+        <v>283</v>
+      </c>
+      <c r="BU82">
+        <v>283</v>
+      </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -18648,8 +19633,20 @@
       <c r="BQ83" s="2">
         <v>717</v>
       </c>
+      <c r="BR83" s="2">
+        <v>724</v>
+      </c>
+      <c r="BS83" s="2">
+        <v>725</v>
+      </c>
+      <c r="BT83">
+        <v>728</v>
+      </c>
+      <c r="BU83">
+        <v>1452</v>
+      </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -18857,8 +19854,20 @@
       <c r="BQ84" s="2">
         <v>783</v>
       </c>
+      <c r="BR84" s="2">
+        <v>789</v>
+      </c>
+      <c r="BS84" s="2">
+        <v>866</v>
+      </c>
+      <c r="BT84">
+        <v>950</v>
+      </c>
+      <c r="BU84">
+        <v>988</v>
+      </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -19066,8 +20075,20 @@
       <c r="BQ85" s="2">
         <v>287</v>
       </c>
+      <c r="BR85" s="2">
+        <v>290</v>
+      </c>
+      <c r="BS85" s="2">
+        <v>291</v>
+      </c>
+      <c r="BT85">
+        <v>297</v>
+      </c>
+      <c r="BU85">
+        <v>299</v>
+      </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -19275,8 +20296,20 @@
       <c r="BQ86" s="2">
         <v>42776</v>
       </c>
+      <c r="BR86" s="2">
+        <v>45206</v>
+      </c>
+      <c r="BS86" s="2">
+        <v>46692</v>
+      </c>
+      <c r="BT86" s="2">
+        <v>47623</v>
+      </c>
+      <c r="BU86" s="2">
+        <v>48333</v>
+      </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -19484,8 +20517,20 @@
       <c r="BQ87" s="2">
         <v>3</v>
       </c>
+      <c r="BR87" s="2">
+        <v>3</v>
+      </c>
+      <c r="BS87" s="2">
+        <v>3</v>
+      </c>
+      <c r="BT87">
+        <v>3</v>
+      </c>
+      <c r="BU87">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -19693,8 +20738,20 @@
       <c r="BQ88" s="2">
         <v>1163</v>
       </c>
+      <c r="BR88" s="2">
+        <v>1170</v>
+      </c>
+      <c r="BS88" s="2">
+        <v>1217</v>
+      </c>
+      <c r="BT88" s="2">
+        <v>1250</v>
+      </c>
+      <c r="BU88" s="2">
+        <v>1253</v>
+      </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -19902,8 +20959,20 @@
       <c r="BQ89" s="2">
         <v>76</v>
       </c>
+      <c r="BR89" s="2">
+        <v>76</v>
+      </c>
+      <c r="BS89" s="2">
+        <v>77</v>
+      </c>
+      <c r="BT89">
+        <v>77</v>
+      </c>
+      <c r="BU89">
+        <v>77</v>
+      </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -20111,8 +21180,20 @@
       <c r="BQ90" s="2">
         <v>186</v>
       </c>
+      <c r="BR90" s="2">
+        <v>193</v>
+      </c>
+      <c r="BS90" s="2">
+        <v>199</v>
+      </c>
+      <c r="BT90">
+        <v>203</v>
+      </c>
+      <c r="BU90">
+        <v>208</v>
+      </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -20320,8 +21401,20 @@
       <c r="BQ91" s="2">
         <v>1152</v>
       </c>
+      <c r="BR91" s="2">
+        <v>1182</v>
+      </c>
+      <c r="BS91" s="2">
+        <v>1205</v>
+      </c>
+      <c r="BT91" s="2">
+        <v>1224</v>
+      </c>
+      <c r="BU91" s="2">
+        <v>1265</v>
+      </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -20529,8 +21622,20 @@
       <c r="BQ92" s="2">
         <v>893</v>
       </c>
+      <c r="BR92" s="2">
+        <v>938</v>
+      </c>
+      <c r="BS92" s="2">
+        <v>942</v>
+      </c>
+      <c r="BT92">
+        <v>945</v>
+      </c>
+      <c r="BU92">
+        <v>946</v>
+      </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -20738,8 +21843,20 @@
       <c r="BQ93" s="2">
         <v>7853</v>
       </c>
+      <c r="BR93" s="2">
+        <v>7918</v>
+      </c>
+      <c r="BS93" s="2">
+        <v>8016</v>
+      </c>
+      <c r="BT93" s="2">
+        <v>8173</v>
+      </c>
+      <c r="BU93" s="2">
+        <v>8277</v>
+      </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -20947,8 +22064,20 @@
       <c r="BQ94" s="2">
         <v>3237</v>
       </c>
+      <c r="BR94" s="2">
+        <v>3249</v>
+      </c>
+      <c r="BS94" s="2">
+        <v>3256</v>
+      </c>
+      <c r="BT94" s="2">
+        <v>3272</v>
+      </c>
+      <c r="BU94" s="2">
+        <v>3296</v>
+      </c>
     </row>
-    <row r="95" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -21156,8 +22285,20 @@
       <c r="BQ95" s="2">
         <v>1195</v>
       </c>
+      <c r="BR95" s="2">
+        <v>1236</v>
+      </c>
+      <c r="BS95" s="2">
+        <v>1262</v>
+      </c>
+      <c r="BT95" s="2">
+        <v>1287</v>
+      </c>
+      <c r="BU95" s="2">
+        <v>2639</v>
+      </c>
     </row>
-    <row r="96" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -21365,8 +22506,20 @@
       <c r="BQ96" s="2">
         <v>4349</v>
       </c>
+      <c r="BR96" s="2">
+        <v>4405</v>
+      </c>
+      <c r="BS96" s="2">
+        <v>4545</v>
+      </c>
+      <c r="BT96" s="2">
+        <v>4680</v>
+      </c>
+      <c r="BU96" s="2">
+        <v>4780</v>
+      </c>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -21574,8 +22727,20 @@
       <c r="BQ97" s="2">
         <v>476</v>
       </c>
+      <c r="BR97" s="2">
+        <v>486</v>
+      </c>
+      <c r="BS97" s="2">
+        <v>491</v>
+      </c>
+      <c r="BT97">
+        <v>496</v>
+      </c>
+      <c r="BU97">
+        <v>517</v>
+      </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -21783,8 +22948,20 @@
       <c r="BQ98" s="2">
         <v>165</v>
       </c>
+      <c r="BR98" s="2">
+        <v>165</v>
+      </c>
+      <c r="BS98" s="2">
+        <v>165</v>
+      </c>
+      <c r="BT98">
+        <v>165</v>
+      </c>
+      <c r="BU98">
+        <v>165</v>
+      </c>
     </row>
-    <row r="99" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -21992,8 +23169,20 @@
       <c r="BQ99" s="2">
         <v>823</v>
       </c>
+      <c r="BR99" s="2">
+        <v>831</v>
+      </c>
+      <c r="BS99" s="2">
+        <v>837</v>
+      </c>
+      <c r="BT99">
+        <v>849</v>
+      </c>
+      <c r="BU99">
+        <v>863</v>
+      </c>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -22201,8 +23390,20 @@
       <c r="BQ100" s="2">
         <v>58</v>
       </c>
+      <c r="BR100" s="2">
+        <v>58</v>
+      </c>
+      <c r="BS100" s="2">
+        <v>58</v>
+      </c>
+      <c r="BT100">
+        <v>59</v>
+      </c>
+      <c r="BU100">
+        <v>59</v>
+      </c>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -22410,8 +23611,20 @@
       <c r="BQ101" s="2">
         <v>64</v>
       </c>
+      <c r="BR101" s="2">
+        <v>64</v>
+      </c>
+      <c r="BS101" s="2">
+        <v>65</v>
+      </c>
+      <c r="BT101">
+        <v>65</v>
+      </c>
+      <c r="BU101">
+        <v>69</v>
+      </c>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -22619,8 +23832,20 @@
       <c r="BQ102" s="2">
         <v>1025</v>
       </c>
+      <c r="BR102" s="2">
+        <v>1045</v>
+      </c>
+      <c r="BS102" s="2">
+        <v>1057</v>
+      </c>
+      <c r="BT102" s="2">
+        <v>1083</v>
+      </c>
+      <c r="BU102" s="2">
+        <v>1138</v>
+      </c>
     </row>
-    <row r="103" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -22828,8 +24053,20 @@
       <c r="BQ103" s="2">
         <v>283976</v>
       </c>
+      <c r="BR103" s="2">
+        <v>293864</v>
+      </c>
+      <c r="BS103" s="2">
+        <v>300735</v>
+      </c>
+      <c r="BT103" s="2">
+        <v>308064</v>
+      </c>
+      <c r="BU103" s="2">
+        <v>312882</v>
+      </c>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -23037,8 +24274,20 @@
       <c r="BQ104" s="2">
         <v>4864</v>
       </c>
+      <c r="BR104" s="2">
+        <v>5066</v>
+      </c>
+      <c r="BS104" s="2">
+        <v>5212</v>
+      </c>
+      <c r="BT104" s="2">
+        <v>5228</v>
+      </c>
+      <c r="BU104" s="2">
+        <v>5242</v>
+      </c>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -23246,8 +24495,20 @@
       <c r="BQ105" s="2">
         <v>97</v>
       </c>
+      <c r="BR105" s="2">
+        <v>99</v>
+      </c>
+      <c r="BS105" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT105">
+        <v>103</v>
+      </c>
+      <c r="BU105">
+        <v>105</v>
+      </c>
     </row>
-    <row r="106" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -23455,8 +24716,20 @@
       <c r="BQ106" s="2">
         <v>304</v>
       </c>
+      <c r="BR106" s="2">
+        <v>304</v>
+      </c>
+      <c r="BS106" s="2">
+        <v>304</v>
+      </c>
+      <c r="BT106">
+        <v>305</v>
+      </c>
+      <c r="BU106">
+        <v>306</v>
+      </c>
     </row>
-    <row r="107" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -23664,8 +24937,20 @@
       <c r="BQ107" s="2">
         <v>13221</v>
       </c>
+      <c r="BR107" s="2">
+        <v>13908</v>
+      </c>
+      <c r="BS107" s="2">
+        <v>14460</v>
+      </c>
+      <c r="BT107" s="2">
+        <v>14809</v>
+      </c>
+      <c r="BU107" s="2">
+        <v>15252</v>
+      </c>
     </row>
-    <row r="108" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -23873,8 +25158,20 @@
       <c r="BQ108" s="2">
         <v>194</v>
       </c>
+      <c r="BR108" s="2">
+        <v>194</v>
+      </c>
+      <c r="BS108" s="2">
+        <v>194</v>
+      </c>
+      <c r="BT108">
+        <v>197</v>
+      </c>
+      <c r="BU108">
+        <v>198</v>
+      </c>
     </row>
-    <row r="109" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -24082,8 +25379,20 @@
       <c r="BQ109" s="2">
         <v>2074</v>
       </c>
+      <c r="BR109" s="2">
+        <v>2085</v>
+      </c>
+      <c r="BS109" s="2">
+        <v>2098</v>
+      </c>
+      <c r="BT109" s="2">
+        <v>2111</v>
+      </c>
+      <c r="BU109" s="2">
+        <v>2126</v>
+      </c>
     </row>
-    <row r="110" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -24291,8 +25600,20 @@
       <c r="BQ110" s="2">
         <v>28020</v>
       </c>
+      <c r="BR110" s="2">
+        <v>28971</v>
+      </c>
+      <c r="BS110" s="2">
+        <v>29809</v>
+      </c>
+      <c r="BT110" s="2">
+        <v>30819</v>
+      </c>
+      <c r="BU110" s="2">
+        <v>31680</v>
+      </c>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -24500,8 +25821,20 @@
       <c r="BQ111" s="2">
         <v>1354</v>
       </c>
+      <c r="BR111" s="2">
+        <v>1364</v>
+      </c>
+      <c r="BS111" s="2">
+        <v>1371</v>
+      </c>
+      <c r="BT111" s="2">
+        <v>1388</v>
+      </c>
+      <c r="BU111" s="2">
+        <v>1398</v>
+      </c>
     </row>
-    <row r="112" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -24709,8 +26042,20 @@
       <c r="BQ112" s="2">
         <v>110</v>
       </c>
+      <c r="BR112" s="2">
+        <v>112</v>
+      </c>
+      <c r="BS112" s="2">
+        <v>116</v>
+      </c>
+      <c r="BT112">
+        <v>119</v>
+      </c>
+      <c r="BU112">
+        <v>121</v>
+      </c>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -24918,8 +26263,20 @@
       <c r="BQ113" s="2">
         <v>1258</v>
       </c>
+      <c r="BR113" s="2">
+        <v>1264</v>
+      </c>
+      <c r="BS113" s="2">
+        <v>1297</v>
+      </c>
+      <c r="BT113" s="2">
+        <v>1360</v>
+      </c>
+      <c r="BU113" s="2">
+        <v>1371</v>
+      </c>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -25127,8 +26484,20 @@
       <c r="BQ114" s="2">
         <v>753</v>
       </c>
+      <c r="BR114" s="2">
+        <v>756</v>
+      </c>
+      <c r="BS114" s="2">
+        <v>775</v>
+      </c>
+      <c r="BT114">
+        <v>784</v>
+      </c>
+      <c r="BU114">
+        <v>798</v>
+      </c>
     </row>
-    <row r="115" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -25336,8 +26705,20 @@
       <c r="BQ115" s="2">
         <v>1732</v>
       </c>
+      <c r="BR115" s="2">
+        <v>1744</v>
+      </c>
+      <c r="BS115" s="2">
+        <v>1748</v>
+      </c>
+      <c r="BT115" s="2">
+        <v>1760</v>
+      </c>
+      <c r="BU115" s="2">
+        <v>1795</v>
+      </c>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -25545,8 +26926,20 @@
       <c r="BQ116" s="2">
         <v>475</v>
       </c>
+      <c r="BR116" s="2">
+        <v>494</v>
+      </c>
+      <c r="BS116" s="2">
+        <v>507</v>
+      </c>
+      <c r="BT116">
+        <v>520</v>
+      </c>
+      <c r="BU116">
+        <v>558</v>
+      </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -25754,8 +27147,20 @@
       <c r="BQ117" s="2">
         <v>60</v>
       </c>
+      <c r="BR117" s="2">
+        <v>60</v>
+      </c>
+      <c r="BS117" s="2">
+        <v>61</v>
+      </c>
+      <c r="BT117">
+        <v>63</v>
+      </c>
+      <c r="BU117">
+        <v>63</v>
+      </c>
     </row>
-    <row r="118" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -25963,8 +27368,20 @@
       <c r="BQ118" s="2">
         <v>4030</v>
       </c>
+      <c r="BR118" s="2">
+        <v>4060</v>
+      </c>
+      <c r="BS118" s="2">
+        <v>4078</v>
+      </c>
+      <c r="BT118" s="2">
+        <v>4135</v>
+      </c>
+      <c r="BU118" s="2">
+        <v>4196</v>
+      </c>
     </row>
-    <row r="119" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -26172,8 +27589,20 @@
       <c r="BQ119" s="2">
         <v>661</v>
       </c>
+      <c r="BR119" s="2">
+        <v>670</v>
+      </c>
+      <c r="BS119" s="2">
+        <v>685</v>
+      </c>
+      <c r="BT119">
+        <v>689</v>
+      </c>
+      <c r="BU119">
+        <v>689</v>
+      </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -26381,8 +27810,20 @@
       <c r="BQ120" s="2">
         <v>6</v>
       </c>
+      <c r="BR120" s="2">
+        <v>6</v>
+      </c>
+      <c r="BS120" s="2">
+        <v>9</v>
+      </c>
+      <c r="BT120">
+        <v>9</v>
+      </c>
+      <c r="BU120">
+        <v>9</v>
+      </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -26590,8 +28031,20 @@
       <c r="BQ121" s="2">
         <v>109</v>
       </c>
+      <c r="BR121" s="2">
+        <v>109</v>
+      </c>
+      <c r="BS121" s="2">
+        <v>110</v>
+      </c>
+      <c r="BT121">
+        <v>110</v>
+      </c>
+      <c r="BU121">
+        <v>112</v>
+      </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -26799,8 +28252,20 @@
       <c r="BQ122" s="2">
         <v>903</v>
       </c>
+      <c r="BR122" s="2">
+        <v>906</v>
+      </c>
+      <c r="BS122" s="2">
+        <v>912</v>
+      </c>
+      <c r="BT122">
+        <v>926</v>
+      </c>
+      <c r="BU122">
+        <v>947</v>
+      </c>
     </row>
-    <row r="123" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -27008,8 +28473,20 @@
       <c r="BQ123" s="2">
         <v>943</v>
       </c>
+      <c r="BR123" s="2">
+        <v>1000</v>
+      </c>
+      <c r="BS123" s="2">
+        <v>1005</v>
+      </c>
+      <c r="BT123" s="2">
+        <v>1021</v>
+      </c>
+      <c r="BU123" s="2">
+        <v>1125</v>
+      </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -27217,8 +28694,20 @@
       <c r="BQ124" s="2">
         <v>13</v>
       </c>
+      <c r="BR124" s="2">
+        <v>13</v>
+      </c>
+      <c r="BS124" s="2">
+        <v>13</v>
+      </c>
+      <c r="BT124">
+        <v>14</v>
+      </c>
+      <c r="BU124">
+        <v>14</v>
+      </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -27426,8 +28915,20 @@
       <c r="BQ125" s="2">
         <v>17796</v>
       </c>
+      <c r="BR125" s="2">
+        <v>18310</v>
+      </c>
+      <c r="BS125" s="2">
+        <v>18491</v>
+      </c>
+      <c r="BT125" s="2">
+        <v>18672</v>
+      </c>
+      <c r="BU125" s="2">
+        <v>19387</v>
+      </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -27635,8 +29136,20 @@
       <c r="BQ126" s="2">
         <v>146</v>
       </c>
+      <c r="BR126" s="2">
+        <v>156</v>
+      </c>
+      <c r="BS126" s="2">
+        <v>168</v>
+      </c>
+      <c r="BT126">
+        <v>172</v>
+      </c>
+      <c r="BU126">
+        <v>172</v>
+      </c>
     </row>
-    <row r="127" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -27844,8 +29357,20 @@
       <c r="BQ127" s="2">
         <v>2330</v>
       </c>
+      <c r="BR127" s="2">
+        <v>2535</v>
+      </c>
+      <c r="BS127" s="2">
+        <v>2775</v>
+      </c>
+      <c r="BT127" s="2">
+        <v>2798</v>
+      </c>
+      <c r="BU127" s="2">
+        <v>2813</v>
+      </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -28053,8 +29578,20 @@
       <c r="BQ128" s="2">
         <v>8576</v>
       </c>
+      <c r="BR128" s="2">
+        <v>8829</v>
+      </c>
+      <c r="BS128" s="2">
+        <v>9065</v>
+      </c>
+      <c r="BT128" s="2">
+        <v>9210</v>
+      </c>
+      <c r="BU128" s="2">
+        <v>9278</v>
+      </c>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -28262,8 +29799,20 @@
       <c r="BQ129" s="2">
         <v>688</v>
       </c>
+      <c r="BR129" s="2">
+        <v>694</v>
+      </c>
+      <c r="BS129" s="2">
+        <v>727</v>
+      </c>
+      <c r="BT129">
+        <v>732</v>
+      </c>
+      <c r="BU129">
+        <v>738</v>
+      </c>
     </row>
-    <row r="130" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -28471,8 +30020,20 @@
       <c r="BQ130" s="2">
         <v>358</v>
       </c>
+      <c r="BR130" s="2">
+        <v>363</v>
+      </c>
+      <c r="BS130" s="2">
+        <v>377</v>
+      </c>
+      <c r="BT130">
+        <v>401</v>
+      </c>
+      <c r="BU130">
+        <v>417</v>
+      </c>
     </row>
-    <row r="131" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -28680,8 +30241,20 @@
       <c r="BQ131" s="2">
         <v>4987</v>
       </c>
+      <c r="BR131" s="2">
+        <v>5142</v>
+      </c>
+      <c r="BS131" s="2">
+        <v>5219</v>
+      </c>
+      <c r="BT131" s="2">
+        <v>5415</v>
+      </c>
+      <c r="BU131" s="2">
+        <v>5507</v>
+      </c>
     </row>
-    <row r="132" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -28889,8 +30462,20 @@
       <c r="BQ132" s="2">
         <v>1375</v>
       </c>
+      <c r="BR132" s="2">
+        <v>1388</v>
+      </c>
+      <c r="BS132" s="2">
+        <v>1429</v>
+      </c>
+      <c r="BT132" s="2">
+        <v>1445</v>
+      </c>
+      <c r="BU132" s="2">
+        <v>1460</v>
+      </c>
     </row>
-    <row r="133" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -29098,8 +30683,20 @@
       <c r="BQ133" s="2">
         <v>3</v>
       </c>
+      <c r="BR133" s="2">
+        <v>4</v>
+      </c>
+      <c r="BS133" s="2">
+        <v>4</v>
+      </c>
+      <c r="BT133">
+        <v>4</v>
+      </c>
+      <c r="BU133">
+        <v>4</v>
+      </c>
     </row>
-    <row r="134" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -29307,8 +30904,20 @@
       <c r="BQ134" s="2">
         <v>3</v>
       </c>
+      <c r="BR134" s="2">
+        <v>3</v>
+      </c>
+      <c r="BS134" s="2">
+        <v>3</v>
+      </c>
+      <c r="BT134">
+        <v>3</v>
+      </c>
+      <c r="BU134">
+        <v>3</v>
+      </c>
     </row>
-    <row r="135" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -29516,8 +31125,20 @@
       <c r="BQ135" s="2">
         <v>2626</v>
       </c>
+      <c r="BR135" s="2">
+        <v>2646</v>
+      </c>
+      <c r="BS135" s="2">
+        <v>2675</v>
+      </c>
+      <c r="BT135" s="2">
+        <v>2726</v>
+      </c>
+      <c r="BU135" s="2">
+        <v>2738</v>
+      </c>
     </row>
-    <row r="136" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -29725,8 +31346,20 @@
       <c r="BQ136" s="2">
         <v>131</v>
       </c>
+      <c r="BR136" s="2">
+        <v>131</v>
+      </c>
+      <c r="BS136" s="2">
+        <v>132</v>
+      </c>
+      <c r="BT136">
+        <v>132</v>
+      </c>
+      <c r="BU136">
+        <v>133</v>
+      </c>
     </row>
-    <row r="137" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -29934,8 +31567,20 @@
       <c r="BQ137" s="2">
         <v>4</v>
       </c>
+      <c r="BR137" s="2">
+        <v>4</v>
+      </c>
+      <c r="BS137" s="2">
+        <v>4</v>
+      </c>
+      <c r="BT137">
+        <v>4</v>
+      </c>
+      <c r="BU137">
+        <v>4</v>
+      </c>
     </row>
-    <row r="138" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -30143,8 +31788,20 @@
       <c r="BQ138" s="2">
         <v>26</v>
       </c>
+      <c r="BR138" s="2">
+        <v>26</v>
+      </c>
+      <c r="BS138" s="2">
+        <v>28</v>
+      </c>
+      <c r="BT138">
+        <v>28</v>
+      </c>
+      <c r="BU138">
+        <v>29</v>
+      </c>
     </row>
-    <row r="139" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -30352,8 +32009,20 @@
       <c r="BQ139" s="2">
         <v>2471</v>
       </c>
+      <c r="BR139" s="2">
+        <v>2490</v>
+      </c>
+      <c r="BS139" s="2">
+        <v>2541</v>
+      </c>
+      <c r="BT139" s="2">
+        <v>2571</v>
+      </c>
+      <c r="BU139" s="2">
+        <v>2590</v>
+      </c>
     </row>
-    <row r="140" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -30561,8 +32230,20 @@
       <c r="BQ140" s="2">
         <v>210</v>
       </c>
+      <c r="BR140" s="2">
+        <v>211</v>
+      </c>
+      <c r="BS140" s="2">
+        <v>210</v>
+      </c>
+      <c r="BT140">
+        <v>210</v>
+      </c>
+      <c r="BU140">
+        <v>211</v>
+      </c>
     </row>
-    <row r="141" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -30770,8 +32451,20 @@
       <c r="BQ141" s="2">
         <v>1429</v>
       </c>
+      <c r="BR141" s="2">
+        <v>1467</v>
+      </c>
+      <c r="BS141" s="2">
+        <v>1471</v>
+      </c>
+      <c r="BT141" s="2">
+        <v>1473</v>
+      </c>
+      <c r="BU141" s="2">
+        <v>1483</v>
+      </c>
     </row>
-    <row r="142" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -30979,8 +32672,20 @@
       <c r="BQ142" s="2">
         <v>219</v>
       </c>
+      <c r="BR142" s="2">
+        <v>222</v>
+      </c>
+      <c r="BS142" s="2">
+        <v>223</v>
+      </c>
+      <c r="BT142">
+        <v>224</v>
+      </c>
+      <c r="BU142">
+        <v>225</v>
+      </c>
     </row>
-    <row r="143" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -31188,8 +32893,20 @@
       <c r="BQ143" s="2">
         <v>1588</v>
       </c>
+      <c r="BR143" s="2">
+        <v>1603</v>
+      </c>
+      <c r="BS143" s="2">
+        <v>1635</v>
+      </c>
+      <c r="BT143" s="2">
+        <v>1640</v>
+      </c>
+      <c r="BU143" s="2">
+        <v>1661</v>
+      </c>
     </row>
-    <row r="144" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -31397,8 +33114,20 @@
       <c r="BQ144" s="2">
         <v>550</v>
       </c>
+      <c r="BR144" s="2">
+        <v>552</v>
+      </c>
+      <c r="BS144" s="2">
+        <v>559</v>
+      </c>
+      <c r="BT144">
+        <v>561</v>
+      </c>
+      <c r="BU144">
+        <v>566</v>
+      </c>
     </row>
-    <row r="145" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -31606,8 +33335,20 @@
       <c r="BQ145" s="2">
         <v>762</v>
       </c>
+      <c r="BR145" s="2">
+        <v>786</v>
+      </c>
+      <c r="BS145" s="2">
+        <v>800</v>
+      </c>
+      <c r="BT145">
+        <v>830</v>
+      </c>
+      <c r="BU145">
+        <v>877</v>
+      </c>
     </row>
-    <row r="146" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -31815,8 +33556,20 @@
       <c r="BQ146" s="2">
         <v>396</v>
       </c>
+      <c r="BR146" s="2">
+        <v>397</v>
+      </c>
+      <c r="BS146" s="2">
+        <v>397</v>
+      </c>
+      <c r="BT146">
+        <v>425</v>
+      </c>
+      <c r="BU146">
+        <v>690</v>
+      </c>
     </row>
-    <row r="147" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -32024,8 +33777,20 @@
       <c r="BQ147" s="2">
         <v>622</v>
       </c>
+      <c r="BR147" s="2">
+        <v>628</v>
+      </c>
+      <c r="BS147" s="2">
+        <v>629</v>
+      </c>
+      <c r="BT147">
+        <v>640</v>
+      </c>
+      <c r="BU147">
+        <v>652</v>
+      </c>
     </row>
-    <row r="148" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -32233,8 +33998,20 @@
       <c r="BQ148" s="2">
         <v>3935</v>
       </c>
+      <c r="BR148" s="2">
+        <v>4099</v>
+      </c>
+      <c r="BS148" s="2">
+        <v>4219</v>
+      </c>
+      <c r="BT148" s="2">
+        <v>4349</v>
+      </c>
+      <c r="BU148" s="2">
+        <v>4415</v>
+      </c>
     </row>
-    <row r="149" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -32442,8 +34219,20 @@
       <c r="BQ149" s="2">
         <v>959</v>
       </c>
+      <c r="BR149" s="2">
+        <v>961</v>
+      </c>
+      <c r="BS149" s="2">
+        <v>971</v>
+      </c>
+      <c r="BT149">
+        <v>983</v>
+      </c>
+      <c r="BU149">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="150" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -32651,8 +34440,20 @@
       <c r="BQ150" s="2">
         <v>121</v>
       </c>
+      <c r="BR150" s="2">
+        <v>121</v>
+      </c>
+      <c r="BS150" s="2">
+        <v>121</v>
+      </c>
+      <c r="BT150">
+        <v>121</v>
+      </c>
+      <c r="BU150">
+        <v>121</v>
+      </c>
     </row>
-    <row r="151" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -32860,8 +34661,20 @@
       <c r="BQ151" s="2">
         <v>429</v>
       </c>
+      <c r="BR151" s="2">
+        <v>458</v>
+      </c>
+      <c r="BS151" s="2">
+        <v>466</v>
+      </c>
+      <c r="BT151">
+        <v>469</v>
+      </c>
+      <c r="BU151">
+        <v>474</v>
+      </c>
     </row>
-    <row r="152" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -33069,8 +34882,20 @@
       <c r="BQ152" s="2">
         <v>1201</v>
       </c>
+      <c r="BR152" s="2">
+        <v>1209</v>
+      </c>
+      <c r="BS152" s="2">
+        <v>1217</v>
+      </c>
+      <c r="BT152" s="2">
+        <v>1220</v>
+      </c>
+      <c r="BU152" s="2">
+        <v>1237</v>
+      </c>
     </row>
-    <row r="153" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -33278,8 +35103,20 @@
       <c r="BQ153" s="2">
         <v>1</v>
       </c>
+      <c r="BR153" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS153" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT153">
+        <v>1</v>
+      </c>
+      <c r="BU153">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -33487,8 +35324,20 @@
       <c r="BQ154" s="2">
         <v>14759</v>
       </c>
+      <c r="BR154" s="2">
+        <v>15088</v>
+      </c>
+      <c r="BS154" s="2">
+        <v>15577</v>
+      </c>
+      <c r="BT154" s="2">
+        <v>15656</v>
+      </c>
+      <c r="BU154" s="2">
+        <v>15788</v>
+      </c>
     </row>
-    <row r="155" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -33696,8 +35545,20 @@
       <c r="BQ155" s="2">
         <v>522</v>
       </c>
+      <c r="BR155" s="2">
+        <v>522</v>
+      </c>
+      <c r="BS155" s="2">
+        <v>524</v>
+      </c>
+      <c r="BT155">
+        <v>527</v>
+      </c>
+      <c r="BU155">
+        <v>530</v>
+      </c>
     </row>
-    <row r="156" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -33905,8 +35766,20 @@
       <c r="BQ156" s="2">
         <v>96</v>
       </c>
+      <c r="BR156" s="2">
+        <v>98</v>
+      </c>
+      <c r="BS156" s="2">
+        <v>102</v>
+      </c>
+      <c r="BT156">
+        <v>105</v>
+      </c>
+      <c r="BU156">
+        <v>112</v>
+      </c>
     </row>
-    <row r="157" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -34114,8 +35987,20 @@
       <c r="BQ157" s="2">
         <v>14567</v>
       </c>
+      <c r="BR157" s="2">
+        <v>14845</v>
+      </c>
+      <c r="BS157" s="2">
+        <v>15125</v>
+      </c>
+      <c r="BT157" s="2">
+        <v>15204</v>
+      </c>
+      <c r="BU157" s="2">
+        <v>15337</v>
+      </c>
     </row>
-    <row r="158" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -34323,8 +36208,20 @@
       <c r="BQ158" s="2">
         <v>14</v>
       </c>
+      <c r="BR158" s="2">
+        <v>17</v>
+      </c>
+      <c r="BS158" s="2">
+        <v>18</v>
+      </c>
+      <c r="BT158">
+        <v>18</v>
+      </c>
+      <c r="BU158">
+        <v>20</v>
+      </c>
     </row>
-    <row r="159" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -34532,8 +36429,20 @@
       <c r="BQ159" s="2">
         <v>603</v>
       </c>
+      <c r="BR159" s="2">
+        <v>606</v>
+      </c>
+      <c r="BS159" s="2">
+        <v>612</v>
+      </c>
+      <c r="BT159">
+        <v>617</v>
+      </c>
+      <c r="BU159">
+        <v>638</v>
+      </c>
     </row>
-    <row r="160" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -34741,8 +36650,20 @@
       <c r="BQ160" s="2">
         <v>129</v>
       </c>
+      <c r="BR160" s="2">
+        <v>129</v>
+      </c>
+      <c r="BS160" s="2">
+        <v>130</v>
+      </c>
+      <c r="BT160">
+        <v>130</v>
+      </c>
+      <c r="BU160">
+        <v>133</v>
+      </c>
     </row>
-    <row r="161" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -34950,8 +36871,20 @@
       <c r="BQ161" s="2">
         <v>119</v>
       </c>
+      <c r="BR161" s="2">
+        <v>120</v>
+      </c>
+      <c r="BS161" s="2">
+        <v>120</v>
+      </c>
+      <c r="BT161">
+        <v>125</v>
+      </c>
+      <c r="BU161">
+        <v>126</v>
+      </c>
     </row>
-    <row r="162" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -35159,8 +37092,20 @@
       <c r="BQ162" s="2">
         <v>366</v>
       </c>
+      <c r="BR162" s="2">
+        <v>367</v>
+      </c>
+      <c r="BS162" s="2">
+        <v>371</v>
+      </c>
+      <c r="BT162">
+        <v>373</v>
+      </c>
+      <c r="BU162">
+        <v>373</v>
+      </c>
     </row>
-    <row r="163" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -35368,8 +37313,20 @@
       <c r="BQ163" s="2">
         <v>1856</v>
       </c>
+      <c r="BR163" s="2">
+        <v>1945</v>
+      </c>
+      <c r="BS163" s="2">
+        <v>1998</v>
+      </c>
+      <c r="BT163" s="2">
+        <v>2170</v>
+      </c>
+      <c r="BU163" s="2">
+        <v>2366</v>
+      </c>
     </row>
-    <row r="164" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -35577,8 +37534,20 @@
       <c r="BQ164" s="2">
         <v>3791</v>
       </c>
+      <c r="BR164" s="2">
+        <v>3957</v>
+      </c>
+      <c r="BS164" s="2">
+        <v>4098</v>
+      </c>
+      <c r="BT164" s="2">
+        <v>4183</v>
+      </c>
+      <c r="BU164" s="2">
+        <v>4282</v>
+      </c>
     </row>
-    <row r="165" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -35786,8 +37755,20 @@
       <c r="BQ165" s="2">
         <v>1597</v>
       </c>
+      <c r="BR165" s="2">
+        <v>1610</v>
+      </c>
+      <c r="BS165" s="2">
+        <v>1625</v>
+      </c>
+      <c r="BT165" s="2">
+        <v>1651</v>
+      </c>
+      <c r="BU165" s="2">
+        <v>1679</v>
+      </c>
     </row>
-    <row r="166" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -35995,8 +37976,20 @@
       <c r="BQ166" s="2">
         <v>35</v>
       </c>
+      <c r="BR166" s="2">
+        <v>42</v>
+      </c>
+      <c r="BS166" s="2">
+        <v>45</v>
+      </c>
+      <c r="BT166">
+        <v>53</v>
+      </c>
+      <c r="BU166">
+        <v>57</v>
+      </c>
     </row>
-    <row r="167" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -36204,8 +38197,20 @@
       <c r="BQ167" s="2">
         <v>5754</v>
       </c>
+      <c r="BR167" s="2">
+        <v>6059</v>
+      </c>
+      <c r="BS167" s="2">
+        <v>6213</v>
+      </c>
+      <c r="BT167" s="2">
+        <v>6416</v>
+      </c>
+      <c r="BU167" s="2">
+        <v>6654</v>
+      </c>
     </row>
-    <row r="168" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -36413,8 +38418,20 @@
       <c r="BQ168" s="2">
         <v>1676</v>
       </c>
+      <c r="BR168" s="2">
+        <v>1681</v>
+      </c>
+      <c r="BS168" s="2">
+        <v>1687</v>
+      </c>
+      <c r="BT168" s="2">
+        <v>1692</v>
+      </c>
+      <c r="BU168" s="2">
+        <v>1699</v>
+      </c>
     </row>
-    <row r="169" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -36622,8 +38639,20 @@
       <c r="BQ169" s="2">
         <v>113</v>
       </c>
+      <c r="BR169" s="2">
+        <v>113</v>
+      </c>
+      <c r="BS169" s="2">
+        <v>114</v>
+      </c>
+      <c r="BT169">
+        <v>116</v>
+      </c>
+      <c r="BU169">
+        <v>116</v>
+      </c>
     </row>
-    <row r="170" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -36831,8 +38860,20 @@
       <c r="BQ170" s="2">
         <v>233</v>
       </c>
+      <c r="BR170" s="2">
+        <v>236</v>
+      </c>
+      <c r="BS170" s="2">
+        <v>236</v>
+      </c>
+      <c r="BT170">
+        <v>240</v>
+      </c>
+      <c r="BU170">
+        <v>241</v>
+      </c>
     </row>
-    <row r="171" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -37040,8 +39081,20 @@
       <c r="BQ171" s="2">
         <v>338</v>
       </c>
+      <c r="BR171" s="2">
+        <v>339</v>
+      </c>
+      <c r="BS171" s="2">
+        <v>343</v>
+      </c>
+      <c r="BT171">
+        <v>351</v>
+      </c>
+      <c r="BU171">
+        <v>359</v>
+      </c>
     </row>
-    <row r="172" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -37249,8 +39302,20 @@
       <c r="BQ172" s="2">
         <v>29132</v>
       </c>
+      <c r="BR172" s="2">
+        <v>30322</v>
+      </c>
+      <c r="BS172" s="2">
+        <v>31139</v>
+      </c>
+      <c r="BT172" s="2">
+        <v>31926</v>
+      </c>
+      <c r="BU172" s="2">
+        <v>32522</v>
+      </c>
     </row>
-    <row r="173" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -37458,8 +39523,20 @@
       <c r="BQ173" s="2">
         <v>2931</v>
       </c>
+      <c r="BR173" s="2">
+        <v>3136</v>
+      </c>
+      <c r="BS173" s="2">
+        <v>3138</v>
+      </c>
+      <c r="BT173" s="2">
+        <v>3141</v>
+      </c>
+      <c r="BU173" s="2">
+        <v>3143</v>
+      </c>
     </row>
-    <row r="174" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -37667,8 +39744,20 @@
       <c r="BQ174" s="2">
         <v>276</v>
       </c>
+      <c r="BR174" s="2">
+        <v>278</v>
+      </c>
+      <c r="BS174" s="2">
+        <v>282</v>
+      </c>
+      <c r="BT174">
+        <v>289</v>
+      </c>
+      <c r="BU174">
+        <v>289</v>
+      </c>
     </row>
-    <row r="175" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -37876,8 +39965,20 @@
       <c r="BQ175" s="2">
         <v>31</v>
       </c>
+      <c r="BR175" s="2">
+        <v>35</v>
+      </c>
+      <c r="BS175" s="2">
+        <v>35</v>
+      </c>
+      <c r="BT175">
+        <v>35</v>
+      </c>
+      <c r="BU175">
+        <v>35</v>
+      </c>
     </row>
-    <row r="176" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -38085,8 +40186,20 @@
       <c r="BQ176" s="2">
         <v>3223</v>
       </c>
+      <c r="BR176" s="2">
+        <v>3297</v>
+      </c>
+      <c r="BS176" s="2">
+        <v>3396</v>
+      </c>
+      <c r="BT176" s="2">
+        <v>3451</v>
+      </c>
+      <c r="BU176" s="2">
+        <v>3705</v>
+      </c>
     </row>
-    <row r="177" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -38294,8 +40407,20 @@
       <c r="BQ177" s="2">
         <v>1785</v>
       </c>
+      <c r="BR177" s="2">
+        <v>1800</v>
+      </c>
+      <c r="BS177" s="2">
+        <v>1811</v>
+      </c>
+      <c r="BT177" s="2">
+        <v>1833</v>
+      </c>
+      <c r="BU177" s="2">
+        <v>1848</v>
+      </c>
     </row>
-    <row r="178" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -38503,8 +40628,20 @@
       <c r="BQ178" s="2">
         <v>323</v>
       </c>
+      <c r="BR178" s="2">
+        <v>324</v>
+      </c>
+      <c r="BS178" s="2">
+        <v>327</v>
+      </c>
+      <c r="BT178">
+        <v>330</v>
+      </c>
+      <c r="BU178">
+        <v>354</v>
+      </c>
     </row>
-    <row r="179" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -38712,8 +40849,20 @@
       <c r="BQ179" s="2">
         <v>177</v>
       </c>
+      <c r="BR179" s="2">
+        <v>187</v>
+      </c>
+      <c r="BS179" s="2">
+        <v>191</v>
+      </c>
+      <c r="BT179">
+        <v>193</v>
+      </c>
+      <c r="BU179">
+        <v>197</v>
+      </c>
     </row>
-    <row r="180" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -38921,8 +41070,20 @@
       <c r="BQ180" s="2">
         <v>7181</v>
       </c>
+      <c r="BR180" s="2">
+        <v>7506</v>
+      </c>
+      <c r="BS180" s="2">
+        <v>8296</v>
+      </c>
+      <c r="BT180" s="2">
+        <v>8850</v>
+      </c>
+      <c r="BU180" s="2">
+        <v>9331</v>
+      </c>
     </row>
-    <row r="181" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -39130,8 +41291,20 @@
       <c r="BQ181" s="2">
         <v>151</v>
       </c>
+      <c r="BR181" s="2">
+        <v>152</v>
+      </c>
+      <c r="BS181" s="2">
+        <v>154</v>
+      </c>
+      <c r="BT181">
+        <v>156</v>
+      </c>
+      <c r="BU181">
+        <v>156</v>
+      </c>
     </row>
-    <row r="182" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -39339,8 +41512,20 @@
       <c r="BQ182" s="2">
         <v>119</v>
       </c>
+      <c r="BR182" s="2">
+        <v>122</v>
+      </c>
+      <c r="BS182" s="2">
+        <v>122</v>
+      </c>
+      <c r="BT182">
+        <v>122</v>
+      </c>
+      <c r="BU182">
+        <v>122</v>
+      </c>
     </row>
-    <row r="183" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -39548,8 +41733,20 @@
       <c r="BQ183" s="2">
         <v>1762</v>
       </c>
+      <c r="BR183" s="2">
+        <v>1841</v>
+      </c>
+      <c r="BS183" s="2">
+        <v>1889</v>
+      </c>
+      <c r="BT183" s="2">
+        <v>1962</v>
+      </c>
+      <c r="BU183" s="2">
+        <v>2037</v>
+      </c>
     </row>
-    <row r="184" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -39757,8 +41954,20 @@
       <c r="BQ184" s="2">
         <v>689</v>
       </c>
+      <c r="BR184" s="2">
+        <v>689</v>
+      </c>
+      <c r="BS184" s="2">
+        <v>691</v>
+      </c>
+      <c r="BT184">
+        <v>694</v>
+      </c>
+      <c r="BU184">
+        <v>695</v>
+      </c>
     </row>
-    <row r="185" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -39966,8 +42175,20 @@
       <c r="BQ185" s="2">
         <v>709</v>
       </c>
+      <c r="BR185" s="2">
+        <v>711</v>
+      </c>
+      <c r="BS185" s="2">
+        <v>722</v>
+      </c>
+      <c r="BT185">
+        <v>732</v>
+      </c>
+      <c r="BU185">
+        <v>735</v>
+      </c>
     </row>
-    <row r="186" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -40175,8 +42396,20 @@
       <c r="BQ186" s="2">
         <v>6857</v>
       </c>
+      <c r="BR186" s="2">
+        <v>6904</v>
+      </c>
+      <c r="BS186" s="2">
+        <v>7199</v>
+      </c>
+      <c r="BT186" s="2">
+        <v>7261</v>
+      </c>
+      <c r="BU186" s="2">
+        <v>7286</v>
+      </c>
     </row>
-    <row r="187" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -40384,8 +42617,20 @@
       <c r="BQ187" s="2">
         <v>331</v>
       </c>
+      <c r="BR187" s="2">
+        <v>341</v>
+      </c>
+      <c r="BS187" s="2">
+        <v>345</v>
+      </c>
+      <c r="BT187">
+        <v>345</v>
+      </c>
+      <c r="BU187">
+        <v>345</v>
+      </c>
     </row>
-    <row r="188" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -40593,8 +42838,20 @@
       <c r="BQ188" s="2">
         <v>1148</v>
       </c>
+      <c r="BR188" s="2">
+        <v>1152</v>
+      </c>
+      <c r="BS188" s="2">
+        <v>1152</v>
+      </c>
+      <c r="BT188" s="2">
+        <v>1158</v>
+      </c>
+      <c r="BU188" s="2">
+        <v>1979</v>
+      </c>
     </row>
-    <row r="189" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -40802,8 +43059,20 @@
       <c r="BQ189" s="2">
         <v>2065</v>
       </c>
+      <c r="BR189" s="2">
+        <v>2099</v>
+      </c>
+      <c r="BS189" s="2">
+        <v>2358</v>
+      </c>
+      <c r="BT189" s="2">
+        <v>2409</v>
+      </c>
+      <c r="BU189" s="2">
+        <v>2450</v>
+      </c>
     </row>
-    <row r="190" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -41011,8 +43280,20 @@
       <c r="BQ190" s="2">
         <v>15072</v>
       </c>
+      <c r="BR190" s="2">
+        <v>15515</v>
+      </c>
+      <c r="BS190" s="2">
+        <v>15597</v>
+      </c>
+      <c r="BT190" s="2">
+        <v>15644</v>
+      </c>
+      <c r="BU190" s="2">
+        <v>15742</v>
+      </c>
     </row>
-    <row r="191" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -41220,8 +43501,20 @@
       <c r="BQ191" s="2">
         <v>138</v>
       </c>
+      <c r="BR191" s="2">
+        <v>138</v>
+      </c>
+      <c r="BS191" s="2">
+        <v>138</v>
+      </c>
+      <c r="BT191">
+        <v>139</v>
+      </c>
+      <c r="BU191">
+        <v>140</v>
+      </c>
     </row>
-    <row r="192" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -41429,8 +43722,20 @@
       <c r="BQ192" s="2">
         <v>124</v>
       </c>
+      <c r="BR192" s="2">
+        <v>127</v>
+      </c>
+      <c r="BS192" s="2">
+        <v>128</v>
+      </c>
+      <c r="BT192">
+        <v>130</v>
+      </c>
+      <c r="BU192">
+        <v>160</v>
+      </c>
     </row>
-    <row r="193" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -41638,8 +43943,20 @@
       <c r="BQ193" s="2">
         <v>5366</v>
       </c>
+      <c r="BR193" s="2">
+        <v>5467</v>
+      </c>
+      <c r="BS193" s="2">
+        <v>5556</v>
+      </c>
+      <c r="BT193" s="2">
+        <v>5607</v>
+      </c>
+      <c r="BU193" s="2">
+        <v>5637</v>
+      </c>
     </row>
-    <row r="194" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -41847,8 +44164,20 @@
       <c r="BQ194" s="2">
         <v>115</v>
       </c>
+      <c r="BR194" s="2">
+        <v>115</v>
+      </c>
+      <c r="BS194" s="2">
+        <v>115</v>
+      </c>
+      <c r="BT194">
+        <v>115</v>
+      </c>
+      <c r="BU194">
+        <v>115</v>
+      </c>
     </row>
-    <row r="195" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -42056,8 +44385,20 @@
       <c r="BQ195" s="2">
         <v>144</v>
       </c>
+      <c r="BR195" s="2">
+        <v>144</v>
+      </c>
+      <c r="BS195" s="2">
+        <v>145</v>
+      </c>
+      <c r="BT195">
+        <v>146</v>
+      </c>
+      <c r="BU195">
+        <v>147</v>
+      </c>
     </row>
-    <row r="196" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -42265,8 +44606,20 @@
       <c r="BQ196" s="2">
         <v>473</v>
       </c>
+      <c r="BR196" s="2">
+        <v>484</v>
+      </c>
+      <c r="BS196" s="2">
+        <v>486</v>
+      </c>
+      <c r="BT196">
+        <v>492</v>
+      </c>
+      <c r="BU196">
+        <v>493</v>
+      </c>
     </row>
-    <row r="197" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -42474,8 +44827,20 @@
       <c r="BQ197" s="2">
         <v>242</v>
       </c>
+      <c r="BR197" s="2">
+        <v>242</v>
+      </c>
+      <c r="BS197" s="2">
+        <v>242</v>
+      </c>
+      <c r="BT197">
+        <v>243</v>
+      </c>
+      <c r="BU197">
+        <v>258</v>
+      </c>
     </row>
-    <row r="198" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -42683,8 +45048,20 @@
       <c r="BQ198" s="2">
         <v>228</v>
       </c>
+      <c r="BR198" s="2">
+        <v>232</v>
+      </c>
+      <c r="BS198" s="2">
+        <v>236</v>
+      </c>
+      <c r="BT198">
+        <v>248</v>
+      </c>
+      <c r="BU198">
+        <v>253</v>
+      </c>
     </row>
-    <row r="199" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -42892,8 +45269,20 @@
       <c r="BQ199" s="2">
         <v>8</v>
       </c>
+      <c r="BR199" s="2">
+        <v>8</v>
+      </c>
+      <c r="BS199" s="2">
+        <v>8</v>
+      </c>
+      <c r="BT199">
+        <v>9</v>
+      </c>
+      <c r="BU199">
+        <v>9</v>
+      </c>
     </row>
-    <row r="200" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -43101,8 +45490,20 @@
       <c r="BQ200" s="2">
         <v>749</v>
       </c>
+      <c r="BR200" s="2">
+        <v>773</v>
+      </c>
+      <c r="BS200" s="2">
+        <v>781</v>
+      </c>
+      <c r="BT200">
+        <v>791</v>
+      </c>
+      <c r="BU200">
+        <v>813</v>
+      </c>
     </row>
-    <row r="201" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -43310,8 +45711,20 @@
       <c r="BQ201" s="2">
         <v>5163</v>
       </c>
+      <c r="BR201" s="2">
+        <v>5369</v>
+      </c>
+      <c r="BS201" s="2">
+        <v>5445</v>
+      </c>
+      <c r="BT201" s="2">
+        <v>5517</v>
+      </c>
+      <c r="BU201" s="2">
+        <v>5554</v>
+      </c>
     </row>
-    <row r="202" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -43519,8 +45932,20 @@
       <c r="BQ202" s="2">
         <v>353</v>
       </c>
+      <c r="BR202" s="2">
+        <v>360</v>
+      </c>
+      <c r="BS202" s="2">
+        <v>363</v>
+      </c>
+      <c r="BT202">
+        <v>373</v>
+      </c>
+      <c r="BU202">
+        <v>375</v>
+      </c>
     </row>
-    <row r="203" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -43728,8 +46153,20 @@
       <c r="BQ203" s="2">
         <v>1391</v>
       </c>
+      <c r="BR203" s="2">
+        <v>1399</v>
+      </c>
+      <c r="BS203" s="2">
+        <v>1404</v>
+      </c>
+      <c r="BT203" s="2">
+        <v>1414</v>
+      </c>
+      <c r="BU203" s="2">
+        <v>1516</v>
+      </c>
     </row>
-    <row r="204" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -43937,8 +46374,20 @@
       <c r="BQ204" s="2">
         <v>535</v>
       </c>
+      <c r="BR204" s="2">
+        <v>538</v>
+      </c>
+      <c r="BS204" s="2">
+        <v>541</v>
+      </c>
+      <c r="BT204">
+        <v>547</v>
+      </c>
+      <c r="BU204">
+        <v>557</v>
+      </c>
     </row>
-    <row r="205" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -44146,8 +46595,20 @@
       <c r="BQ205" s="2">
         <v>381</v>
       </c>
+      <c r="BR205" s="2">
+        <v>385</v>
+      </c>
+      <c r="BS205" s="2">
+        <v>386</v>
+      </c>
+      <c r="BT205">
+        <v>387</v>
+      </c>
+      <c r="BU205">
+        <v>403</v>
+      </c>
     </row>
-    <row r="206" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -44355,8 +46816,20 @@
       <c r="BQ206" s="2">
         <v>758</v>
       </c>
+      <c r="BR206" s="2">
+        <v>777</v>
+      </c>
+      <c r="BS206" s="2">
+        <v>796</v>
+      </c>
+      <c r="BT206">
+        <v>809</v>
+      </c>
+      <c r="BU206">
+        <v>820</v>
+      </c>
     </row>
-    <row r="207" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -44564,8 +47037,20 @@
       <c r="BQ207" s="2">
         <v>1301</v>
       </c>
+      <c r="BR207" s="2">
+        <v>1334</v>
+      </c>
+      <c r="BS207" s="2">
+        <v>1440</v>
+      </c>
+      <c r="BT207" s="2">
+        <v>1571</v>
+      </c>
+      <c r="BU207" s="2">
+        <v>1622</v>
+      </c>
     </row>
-    <row r="208" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -44773,8 +47258,20 @@
       <c r="BQ208" s="2">
         <v>201</v>
       </c>
+      <c r="BR208" s="2">
+        <v>200</v>
+      </c>
+      <c r="BS208" s="2">
+        <v>200</v>
+      </c>
+      <c r="BT208">
+        <v>201</v>
+      </c>
+      <c r="BU208">
+        <v>203</v>
+      </c>
     </row>
-    <row r="209" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -44982,8 +47479,20 @@
       <c r="BQ209" s="2">
         <v>119</v>
       </c>
+      <c r="BR209" s="2">
+        <v>123</v>
+      </c>
+      <c r="BS209" s="2">
+        <v>126</v>
+      </c>
+      <c r="BT209">
+        <v>131</v>
+      </c>
+      <c r="BU209">
+        <v>133</v>
+      </c>
     </row>
-    <row r="210" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -45191,8 +47700,20 @@
       <c r="BQ210" s="2">
         <v>105</v>
       </c>
+      <c r="BR210" s="2">
+        <v>107</v>
+      </c>
+      <c r="BS210" s="2">
+        <v>107</v>
+      </c>
+      <c r="BT210">
+        <v>107</v>
+      </c>
+      <c r="BU210">
+        <v>107</v>
+      </c>
     </row>
-    <row r="211" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -45400,8 +47921,20 @@
       <c r="BQ211" s="2">
         <v>46</v>
       </c>
+      <c r="BR211" s="2">
+        <v>46</v>
+      </c>
+      <c r="BS211" s="2">
+        <v>47</v>
+      </c>
+      <c r="BT211">
+        <v>48</v>
+      </c>
+      <c r="BU211">
+        <v>48</v>
+      </c>
     </row>
-    <row r="212" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -45609,8 +48142,20 @@
       <c r="BQ212" s="2">
         <v>1558</v>
       </c>
+      <c r="BR212" s="2">
+        <v>1582</v>
+      </c>
+      <c r="BS212" s="2">
+        <v>1599</v>
+      </c>
+      <c r="BT212" s="2">
+        <v>1613</v>
+      </c>
+      <c r="BU212" s="2">
+        <v>1628</v>
+      </c>
     </row>
-    <row r="213" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -45818,8 +48363,20 @@
       <c r="BQ213" s="2">
         <v>38</v>
       </c>
+      <c r="BR213" s="2">
+        <v>40</v>
+      </c>
+      <c r="BS213" s="2">
+        <v>40</v>
+      </c>
+      <c r="BT213">
+        <v>40</v>
+      </c>
+      <c r="BU213">
+        <v>40</v>
+      </c>
     </row>
-    <row r="214" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -46027,8 +48584,20 @@
       <c r="BQ214" s="2">
         <v>8557</v>
       </c>
+      <c r="BR214" s="2">
+        <v>8841</v>
+      </c>
+      <c r="BS214" s="2">
+        <v>9035</v>
+      </c>
+      <c r="BT214" s="2">
+        <v>9080</v>
+      </c>
+      <c r="BU214" s="2">
+        <v>9212</v>
+      </c>
     </row>
-    <row r="215" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -46236,8 +48805,20 @@
       <c r="BQ215" s="2">
         <v>305</v>
       </c>
+      <c r="BR215" s="2">
+        <v>308</v>
+      </c>
+      <c r="BS215" s="2">
+        <v>311</v>
+      </c>
+      <c r="BT215">
+        <v>311</v>
+      </c>
+      <c r="BU215">
+        <v>316</v>
+      </c>
     </row>
-    <row r="216" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -46445,8 +49026,20 @@
       <c r="BQ216" s="2">
         <v>3223</v>
       </c>
+      <c r="BR216" s="2">
+        <v>3420</v>
+      </c>
+      <c r="BS216" s="2">
+        <v>3696</v>
+      </c>
+      <c r="BT216" s="2">
+        <v>3963</v>
+      </c>
+      <c r="BU216" s="2">
+        <v>4146</v>
+      </c>
     </row>
-    <row r="217" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -46654,8 +49247,20 @@
       <c r="BQ217" s="2">
         <v>136</v>
       </c>
+      <c r="BR217" s="2">
+        <v>136</v>
+      </c>
+      <c r="BS217" s="2">
+        <v>141</v>
+      </c>
+      <c r="BT217">
+        <v>141</v>
+      </c>
+      <c r="BU217">
+        <v>145</v>
+      </c>
     </row>
-    <row r="218" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -46863,8 +49468,20 @@
       <c r="BQ218" s="2">
         <v>29</v>
       </c>
+      <c r="BR218" s="2">
+        <v>30</v>
+      </c>
+      <c r="BS218" s="2">
+        <v>30</v>
+      </c>
+      <c r="BT218">
+        <v>31</v>
+      </c>
+      <c r="BU218">
+        <v>31</v>
+      </c>
     </row>
-    <row r="219" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -47072,8 +49689,20 @@
       <c r="BQ219" s="2">
         <v>9</v>
       </c>
+      <c r="BR219" s="2">
+        <v>9</v>
+      </c>
+      <c r="BS219" s="2">
+        <v>9</v>
+      </c>
+      <c r="BT219">
+        <v>9</v>
+      </c>
+      <c r="BU219">
+        <v>10</v>
+      </c>
     </row>
-    <row r="220" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -47281,8 +49910,20 @@
       <c r="BQ220" s="2">
         <v>64</v>
       </c>
+      <c r="BR220" s="2">
+        <v>65</v>
+      </c>
+      <c r="BS220" s="2">
+        <v>65</v>
+      </c>
+      <c r="BT220">
+        <v>65</v>
+      </c>
+      <c r="BU220">
+        <v>65</v>
+      </c>
     </row>
-    <row r="221" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -47490,8 +50131,20 @@
       <c r="BQ221" s="2">
         <v>264</v>
       </c>
+      <c r="BR221" s="2">
+        <v>267</v>
+      </c>
+      <c r="BS221" s="2">
+        <v>273</v>
+      </c>
+      <c r="BT221">
+        <v>275</v>
+      </c>
+      <c r="BU221">
+        <v>276</v>
+      </c>
     </row>
-    <row r="222" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -47699,8 +50352,20 @@
       <c r="BQ222" s="2">
         <v>96707</v>
       </c>
+      <c r="BR222" s="2">
+        <v>100360</v>
+      </c>
+      <c r="BS222" s="2">
+        <v>101958</v>
+      </c>
+      <c r="BT222" s="2">
+        <v>103697</v>
+      </c>
+      <c r="BU222" s="2">
+        <v>105467</v>
+      </c>
     </row>
-    <row r="223" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -47908,8 +50573,20 @@
       <c r="BQ223" s="2">
         <v>9871</v>
       </c>
+      <c r="BR223" s="2">
+        <v>10033</v>
+      </c>
+      <c r="BS223" s="2">
+        <v>10072</v>
+      </c>
+      <c r="BT223" s="2">
+        <v>10173</v>
+      </c>
+      <c r="BU223" s="2">
+        <v>10445</v>
+      </c>
     </row>
-    <row r="224" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -48117,8 +50794,20 @@
       <c r="BQ224" s="2">
         <v>6</v>
       </c>
+      <c r="BR224" s="2">
+        <v>6</v>
+      </c>
+      <c r="BS224" s="2">
+        <v>6</v>
+      </c>
+      <c r="BT224">
+        <v>6</v>
+      </c>
+      <c r="BU224">
+        <v>6</v>
+      </c>
     </row>
-    <row r="225" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -48326,8 +51015,20 @@
       <c r="BQ225" s="2">
         <v>290</v>
       </c>
+      <c r="BR225" s="2">
+        <v>292</v>
+      </c>
+      <c r="BS225" s="2">
+        <v>293</v>
+      </c>
+      <c r="BT225">
+        <v>295</v>
+      </c>
+      <c r="BU225">
+        <v>296</v>
+      </c>
     </row>
-    <row r="226" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -48535,8 +51236,20 @@
       <c r="BQ226" s="2">
         <v>43</v>
       </c>
+      <c r="BR226" s="2">
+        <v>43</v>
+      </c>
+      <c r="BS226" s="2">
+        <v>43</v>
+      </c>
+      <c r="BT226">
+        <v>43</v>
+      </c>
+      <c r="BU226">
+        <v>43</v>
+      </c>
     </row>
-    <row r="227" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -48744,8 +51457,20 @@
       <c r="BQ227" s="2">
         <v>2970</v>
       </c>
+      <c r="BR227" s="2">
+        <v>2982</v>
+      </c>
+      <c r="BS227" s="2">
+        <v>2987</v>
+      </c>
+      <c r="BT227" s="2">
+        <v>2994</v>
+      </c>
+      <c r="BU227" s="2">
+        <v>3063</v>
+      </c>
     </row>
-    <row r="228" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -48953,8 +51678,20 @@
       <c r="BQ228" s="2">
         <v>3001</v>
       </c>
+      <c r="BR228" s="2">
+        <v>3188</v>
+      </c>
+      <c r="BS228" s="2">
+        <v>3352</v>
+      </c>
+      <c r="BT228" s="2">
+        <v>3477</v>
+      </c>
+      <c r="BU228" s="2">
+        <v>3580</v>
+      </c>
     </row>
-    <row r="229" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -49162,8 +51899,20 @@
       <c r="BQ229" s="2">
         <v>63825</v>
       </c>
+      <c r="BR229" s="2">
+        <v>64756</v>
+      </c>
+      <c r="BS229" s="2">
+        <v>66745</v>
+      </c>
+      <c r="BT229" s="2">
+        <v>68256</v>
+      </c>
+      <c r="BU229" s="2">
+        <v>70359</v>
+      </c>
     </row>
-    <row r="230" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -49371,8 +52120,20 @@
       <c r="BQ230" s="2">
         <v>729</v>
       </c>
+      <c r="BR230" s="2">
+        <v>737</v>
+      </c>
+      <c r="BS230" s="2">
+        <v>739</v>
+      </c>
+      <c r="BT230">
+        <v>768</v>
+      </c>
+      <c r="BU230">
+        <v>790</v>
+      </c>
     </row>
-    <row r="231" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -49580,8 +52341,20 @@
       <c r="BQ231" s="2">
         <v>723</v>
       </c>
+      <c r="BR231" s="2">
+        <v>737</v>
+      </c>
+      <c r="BS231" s="2">
+        <v>747</v>
+      </c>
+      <c r="BT231">
+        <v>756</v>
+      </c>
+      <c r="BU231">
+        <v>778</v>
+      </c>
     </row>
-    <row r="232" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -49789,8 +52562,20 @@
       <c r="BQ232" s="2">
         <v>518</v>
       </c>
+      <c r="BR232" s="2">
+        <v>523</v>
+      </c>
+      <c r="BS232" s="2">
+        <v>525</v>
+      </c>
+      <c r="BT232">
+        <v>527</v>
+      </c>
+      <c r="BU232">
+        <v>532</v>
+      </c>
     </row>
-    <row r="233" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -49998,8 +52783,20 @@
       <c r="BQ233" s="2">
         <v>158</v>
       </c>
+      <c r="BR233" s="2">
+        <v>159</v>
+      </c>
+      <c r="BS233" s="2">
+        <v>160</v>
+      </c>
+      <c r="BT233">
+        <v>160</v>
+      </c>
+      <c r="BU233">
+        <v>161</v>
+      </c>
     </row>
-    <row r="234" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -50207,8 +53004,20 @@
       <c r="BQ234" s="2">
         <v>1000</v>
       </c>
+      <c r="BR234" s="2">
+        <v>1004</v>
+      </c>
+      <c r="BS234" s="2">
+        <v>1033</v>
+      </c>
+      <c r="BT234" s="2">
+        <v>1084</v>
+      </c>
+      <c r="BU234" s="2">
+        <v>1091</v>
+      </c>
     </row>
-    <row r="235" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -50416,8 +53225,20 @@
       <c r="BQ235" s="2">
         <v>1707</v>
       </c>
+      <c r="BR235" s="2">
+        <v>1728</v>
+      </c>
+      <c r="BS235" s="2">
+        <v>1825</v>
+      </c>
+      <c r="BT235" s="2">
+        <v>1880</v>
+      </c>
+      <c r="BU235" s="2">
+        <v>1970</v>
+      </c>
     </row>
-    <row r="236" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -50625,8 +53446,20 @@
       <c r="BQ236" s="2">
         <v>1555</v>
       </c>
+      <c r="BR236" s="2">
+        <v>1569</v>
+      </c>
+      <c r="BS236" s="2">
+        <v>1584</v>
+      </c>
+      <c r="BT236" s="2">
+        <v>1605</v>
+      </c>
+      <c r="BU236" s="2">
+        <v>1623</v>
+      </c>
     </row>
-    <row r="237" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -50834,8 +53667,20 @@
       <c r="BQ237" s="2">
         <v>3944</v>
       </c>
+      <c r="BR237" s="2">
+        <v>4066</v>
+      </c>
+      <c r="BS237" s="2">
+        <v>4206</v>
+      </c>
+      <c r="BT237" s="2">
+        <v>4349</v>
+      </c>
+      <c r="BU237" s="2">
+        <v>4725</v>
+      </c>
     </row>
-    <row r="238" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -51043,8 +53888,20 @@
       <c r="BQ238" s="2">
         <v>13633</v>
       </c>
+      <c r="BR238" s="2">
+        <v>13757</v>
+      </c>
+      <c r="BS238" s="2">
+        <v>13826</v>
+      </c>
+      <c r="BT238" s="2">
+        <v>14049</v>
+      </c>
+      <c r="BU238" s="2">
+        <v>17526</v>
+      </c>
     </row>
-    <row r="239" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -51252,8 +54109,20 @@
       <c r="BQ239" s="2">
         <v>1892</v>
       </c>
+      <c r="BR239" s="2">
+        <v>1933</v>
+      </c>
+      <c r="BS239" s="2">
+        <v>1963</v>
+      </c>
+      <c r="BT239" s="2">
+        <v>2003</v>
+      </c>
+      <c r="BU239" s="2">
+        <v>2075</v>
+      </c>
     </row>
-    <row r="240" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -51461,8 +54330,20 @@
       <c r="BQ240" s="2">
         <v>258</v>
       </c>
+      <c r="BR240" s="2">
+        <v>264</v>
+      </c>
+      <c r="BS240" s="2">
+        <v>265</v>
+      </c>
+      <c r="BT240">
+        <v>271</v>
+      </c>
+      <c r="BU240">
+        <v>272</v>
+      </c>
     </row>
-    <row r="241" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -51670,8 +54551,20 @@
       <c r="BQ241" s="2">
         <v>2556</v>
       </c>
+      <c r="BR241" s="2">
+        <v>2567</v>
+      </c>
+      <c r="BS241" s="2">
+        <v>2579</v>
+      </c>
+      <c r="BT241" s="2">
+        <v>2586</v>
+      </c>
+      <c r="BU241" s="2">
+        <v>2673</v>
+      </c>
     </row>
-    <row r="242" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -51879,8 +54772,20 @@
       <c r="BQ242" s="2">
         <v>9219</v>
       </c>
+      <c r="BR242" s="2">
+        <v>9377</v>
+      </c>
+      <c r="BS242" s="2">
+        <v>9670</v>
+      </c>
+      <c r="BT242" s="2">
+        <v>9845</v>
+      </c>
+      <c r="BU242" s="2">
+        <v>10049</v>
+      </c>
     </row>
-    <row r="243" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -52088,8 +54993,20 @@
       <c r="BQ243" s="2">
         <v>2506</v>
       </c>
+      <c r="BR243" s="2">
+        <v>2617</v>
+      </c>
+      <c r="BS243" s="2">
+        <v>2636</v>
+      </c>
+      <c r="BT243" s="2">
+        <v>2712</v>
+      </c>
+      <c r="BU243" s="2">
+        <v>2747</v>
+      </c>
     </row>
-    <row r="244" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -52297,8 +55214,20 @@
       <c r="BQ244" s="2">
         <v>143</v>
       </c>
+      <c r="BR244" s="2">
+        <v>145</v>
+      </c>
+      <c r="BS244" s="2">
+        <v>148</v>
+      </c>
+      <c r="BT244">
+        <v>149</v>
+      </c>
+      <c r="BU244">
+        <v>149</v>
+      </c>
     </row>
-    <row r="245" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -52506,8 +55435,20 @@
       <c r="BQ245" s="2">
         <v>7115</v>
       </c>
+      <c r="BR245" s="2">
+        <v>7127</v>
+      </c>
+      <c r="BS245" s="2">
+        <v>7198</v>
+      </c>
+      <c r="BT245" s="2">
+        <v>7260</v>
+      </c>
+      <c r="BU245" s="2">
+        <v>7300</v>
+      </c>
     </row>
-    <row r="246" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -52715,8 +55656,20 @@
       <c r="BQ246" s="2">
         <v>301</v>
       </c>
+      <c r="BR246" s="2">
+        <v>301</v>
+      </c>
+      <c r="BS246" s="2">
+        <v>303</v>
+      </c>
+      <c r="BT246">
+        <v>305</v>
+      </c>
+      <c r="BU246">
+        <v>305</v>
+      </c>
     </row>
-    <row r="247" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -52924,8 +55877,20 @@
       <c r="BQ247" s="2">
         <v>1798</v>
       </c>
+      <c r="BR247" s="2">
+        <v>1842</v>
+      </c>
+      <c r="BS247" s="2">
+        <v>1936</v>
+      </c>
+      <c r="BT247" s="2">
+        <v>1998</v>
+      </c>
+      <c r="BU247" s="2">
+        <v>2108</v>
+      </c>
     </row>
-    <row r="248" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -53133,8 +56098,20 @@
       <c r="BQ248" s="2">
         <v>21101</v>
       </c>
+      <c r="BR248" s="2">
+        <v>21312</v>
+      </c>
+      <c r="BS248" s="2">
+        <v>21667</v>
+      </c>
+      <c r="BT248" s="2">
+        <v>22095</v>
+      </c>
+      <c r="BU248" s="2">
+        <v>22894</v>
+      </c>
     </row>
-    <row r="249" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -53342,8 +56319,20 @@
       <c r="BQ249" s="2">
         <v>1403</v>
       </c>
+      <c r="BR249" s="2">
+        <v>1427</v>
+      </c>
+      <c r="BS249" s="2">
+        <v>1531</v>
+      </c>
+      <c r="BT249" s="2">
+        <v>1581</v>
+      </c>
+      <c r="BU249" s="2">
+        <v>1616</v>
+      </c>
     </row>
-    <row r="250" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -53551,8 +56540,20 @@
       <c r="BQ250" s="2">
         <v>36</v>
       </c>
+      <c r="BR250" s="2">
+        <v>36</v>
+      </c>
+      <c r="BS250" s="2">
+        <v>36</v>
+      </c>
+      <c r="BT250">
+        <v>40</v>
+      </c>
+      <c r="BU250">
+        <v>42</v>
+      </c>
     </row>
-    <row r="251" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -53760,8 +56761,20 @@
       <c r="BQ251" s="2">
         <v>1638</v>
       </c>
+      <c r="BR251" s="2">
+        <v>1667</v>
+      </c>
+      <c r="BS251" s="2">
+        <v>1723</v>
+      </c>
+      <c r="BT251" s="2">
+        <v>1764</v>
+      </c>
+      <c r="BU251" s="2">
+        <v>1803</v>
+      </c>
     </row>
-    <row r="252" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -53969,8 +56982,20 @@
       <c r="BQ252" s="2">
         <v>928</v>
       </c>
+      <c r="BR252" s="2">
+        <v>938</v>
+      </c>
+      <c r="BS252" s="2">
+        <v>952</v>
+      </c>
+      <c r="BT252">
+        <v>968</v>
+      </c>
+      <c r="BU252">
+        <v>984</v>
+      </c>
     </row>
-    <row r="253" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -54178,8 +57203,20 @@
       <c r="BQ253" s="2">
         <v>258</v>
       </c>
+      <c r="BR253" s="2">
+        <v>268</v>
+      </c>
+      <c r="BS253" s="2">
+        <v>287</v>
+      </c>
+      <c r="BT253">
+        <v>306</v>
+      </c>
+      <c r="BU253">
+        <v>308</v>
+      </c>
     </row>
-    <row r="254" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -54387,8 +57424,20 @@
       <c r="BQ254" s="2">
         <v>749</v>
       </c>
+      <c r="BR254" s="2">
+        <v>751</v>
+      </c>
+      <c r="BS254" s="2">
+        <v>754</v>
+      </c>
+      <c r="BT254">
+        <v>757</v>
+      </c>
+      <c r="BU254">
+        <v>765</v>
+      </c>
     </row>
-    <row r="255" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -54596,8 +57645,20 @@
       <c r="BQ255" s="2">
         <v>781</v>
       </c>
+      <c r="BR255" s="2">
+        <v>783</v>
+      </c>
+      <c r="BS255" s="2">
+        <v>786</v>
+      </c>
+      <c r="BT255">
+        <v>789</v>
+      </c>
+      <c r="BU255">
+        <v>796</v>
+      </c>
     </row>
-    <row r="256" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -54805,8 +57866,20 @@
       <c r="BQ256" s="2">
         <v>149</v>
       </c>
+      <c r="BR256" s="2">
+        <v>185</v>
+      </c>
+      <c r="BS256" s="2">
+        <v>197</v>
+      </c>
+      <c r="BT256">
+        <v>331</v>
+      </c>
+      <c r="BU256">
+        <v>365</v>
+      </c>
     </row>
-    <row r="257" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -55014,8 +58087,20 @@
       <c r="BQ257" s="2">
         <v>4995</v>
       </c>
+      <c r="BR257" s="2">
+        <v>5244</v>
+      </c>
+      <c r="BS257" s="2">
+        <v>5249</v>
+      </c>
+      <c r="BT257" s="2">
+        <v>5252</v>
+      </c>
+      <c r="BU257" s="2">
+        <v>5265</v>
+      </c>
     </row>
-    <row r="258" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -55224,8 +58309,20 @@
       <c r="BQ258" s="2">
         <v>462282</v>
       </c>
+      <c r="BR258" s="2">
+        <v>458294</v>
+      </c>
+      <c r="BS258" s="2">
+        <v>478023</v>
+      </c>
+      <c r="BT258" s="2">
+        <v>501201</v>
+      </c>
+      <c r="BU258" s="2">
+        <v>515448</v>
+      </c>
     </row>
-    <row r="259" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>257</v>
       </c>
@@ -55440,8 +58537,24 @@
       <c r="BQ259" s="10">
         <v>1959617</v>
       </c>
+      <c r="BR259" s="10">
+        <f>SUM(BR3:BR258)</f>
+        <v>2006724</v>
+      </c>
+      <c r="BS259" s="10">
+        <f>SUM(BS3:BS258)</f>
+        <v>2061939</v>
+      </c>
+      <c r="BT259" s="10">
+        <f>SUM(BT3:BT258)</f>
+        <v>2119036</v>
+      </c>
+      <c r="BU259" s="10">
+        <f>SUM(BU3:BU258)</f>
+        <v>2174548</v>
+      </c>
     </row>
-    <row r="261" spans="1:69" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -55454,7 +58567,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
         <v>258</v>
       </c>
@@ -55467,7 +58580,7 @@
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:69" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:73" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>259</v>
       </c>
@@ -55480,7 +58593,7 @@
       <c r="H263" s="24"/>
       <c r="I263" s="24"/>
     </row>
-    <row r="264" spans="1:69" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:73" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>260</v>
       </c>
@@ -55493,7 +58606,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
     </row>
-    <row r="265" spans="1:69" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:73" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>288</v>
       </c>
@@ -55565,10 +58678,12 @@
       <c r="BO265" s="13"/>
       <c r="BP265" s="13"/>
       <c r="BQ265" s="13"/>
+      <c r="BR265" s="13"/>
+      <c r="BS265" s="13"/>
     </row>
-    <row r="266" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:73" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B266" s="18"/>
       <c r="C266" s="13"/>
@@ -55579,7 +58694,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:69" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:73" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="23" t="s">
         <v>278</v>
       </c>

--- a/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
+++ b/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1C1792BB-6B0F-4498-8D44-D6672667DD3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BEF50DA8-CE60-40D6-ACDF-D28E0FA0B6DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests Received" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="344">
   <si>
     <t>County</t>
   </si>
@@ -1049,7 +1049,19 @@
     <t>Tests Through July 1</t>
   </si>
   <si>
-    <t>5. This file will be updated daily; the next cumulative update will be 7/3/2020.</t>
+    <t>Tests Through July 2</t>
+  </si>
+  <si>
+    <t>Tests Through July 3</t>
+  </si>
+  <si>
+    <t>Tests Through July 4</t>
+  </si>
+  <si>
+    <t>Tests Through July 5</t>
+  </si>
+  <si>
+    <t>5. This file will be updated daily; the next cumulative update will be 7/7/2020.</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU267"/>
+  <dimension ref="A1:BY267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -1516,15 +1528,15 @@
     <col min="46" max="46" width="11.453125" style="2" customWidth="1"/>
     <col min="47" max="49" width="11.1796875" style="2" customWidth="1"/>
     <col min="50" max="71" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="11.08984375" customWidth="1"/>
+    <col min="72" max="77" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:73" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:77" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1744,8 +1756,20 @@
       <c r="BU2" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="BV2" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1965,8 +1989,20 @@
       <c r="BU3" s="2">
         <v>7091</v>
       </c>
+      <c r="BV3" s="2">
+        <v>8000</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>10982</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>11017</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>11037</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2186,8 +2222,20 @@
       <c r="BU4">
         <v>139</v>
       </c>
+      <c r="BV4">
+        <v>140</v>
+      </c>
+      <c r="BW4">
+        <v>140</v>
+      </c>
+      <c r="BX4">
+        <v>147</v>
+      </c>
+      <c r="BY4">
+        <v>169</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2407,8 +2455,20 @@
       <c r="BU5" s="2">
         <v>4512</v>
       </c>
+      <c r="BV5" s="2">
+        <v>4651</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>4712</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>4756</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>4821</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2628,8 +2688,20 @@
       <c r="BU6">
         <v>403</v>
       </c>
+      <c r="BV6">
+        <v>412</v>
+      </c>
+      <c r="BW6">
+        <v>412</v>
+      </c>
+      <c r="BX6">
+        <v>417</v>
+      </c>
+      <c r="BY6">
+        <v>433</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2849,8 +2921,20 @@
       <c r="BU7">
         <v>104</v>
       </c>
+      <c r="BV7">
+        <v>107</v>
+      </c>
+      <c r="BW7">
+        <v>108</v>
+      </c>
+      <c r="BX7">
+        <v>106</v>
+      </c>
+      <c r="BY7">
+        <v>107</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3070,8 +3154,20 @@
       <c r="BU8">
         <v>187</v>
       </c>
+      <c r="BV8">
+        <v>187</v>
+      </c>
+      <c r="BW8">
+        <v>187</v>
+      </c>
+      <c r="BX8">
+        <v>187</v>
+      </c>
+      <c r="BY8">
+        <v>188</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3291,8 +3387,20 @@
       <c r="BU9" s="2">
         <v>1813</v>
       </c>
+      <c r="BV9" s="2">
+        <v>1857</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>1893</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>1991</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3512,8 +3620,20 @@
       <c r="BU10" s="2">
         <v>1677</v>
       </c>
+      <c r="BV10" s="2">
+        <v>1733</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>1776</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>1804</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>1852</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3733,8 +3853,20 @@
       <c r="BU11">
         <v>131</v>
       </c>
+      <c r="BV11">
+        <v>131</v>
+      </c>
+      <c r="BW11">
+        <v>131</v>
+      </c>
+      <c r="BX11">
+        <v>134</v>
+      </c>
+      <c r="BY11">
+        <v>134</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3954,8 +4086,20 @@
       <c r="BU12">
         <v>479</v>
       </c>
+      <c r="BV12">
+        <v>485</v>
+      </c>
+      <c r="BW12">
+        <v>506</v>
+      </c>
+      <c r="BX12">
+        <v>520</v>
+      </c>
+      <c r="BY12">
+        <v>535</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -4175,8 +4319,20 @@
       <c r="BU13" s="2">
         <v>2836</v>
       </c>
+      <c r="BV13" s="2">
+        <v>2874</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>2896</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>2941</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>2976</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -4396,8 +4552,20 @@
       <c r="BU14">
         <v>76</v>
       </c>
+      <c r="BV14">
+        <v>75</v>
+      </c>
+      <c r="BW14">
+        <v>75</v>
+      </c>
+      <c r="BX14">
+        <v>76</v>
+      </c>
+      <c r="BY14">
+        <v>76</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4617,8 +4785,20 @@
       <c r="BU15" s="2">
         <v>3290</v>
       </c>
+      <c r="BV15" s="2">
+        <v>3446</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>4466</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>4639</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>4642</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4838,8 +5018,20 @@
       <c r="BU16" s="2">
         <v>24231</v>
       </c>
+      <c r="BV16" s="2">
+        <v>24282</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>24378</v>
+      </c>
+      <c r="BX16" s="2">
+        <v>24577</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>24738</v>
+      </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -5059,8 +5251,20 @@
       <c r="BU17" s="2">
         <v>80586</v>
       </c>
+      <c r="BV17" s="2">
+        <v>82135</v>
+      </c>
+      <c r="BW17" s="2">
+        <v>85063</v>
+      </c>
+      <c r="BX17" s="2">
+        <v>89087</v>
+      </c>
+      <c r="BY17" s="2">
+        <v>91707</v>
+      </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -5280,8 +5484,20 @@
       <c r="BU18" s="2">
         <v>2533</v>
       </c>
+      <c r="BV18" s="2">
+        <v>2569</v>
+      </c>
+      <c r="BW18" s="2">
+        <v>2622</v>
+      </c>
+      <c r="BX18" s="2">
+        <v>2713</v>
+      </c>
+      <c r="BY18" s="2">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -5501,8 +5717,20 @@
       <c r="BU19">
         <v>2</v>
       </c>
+      <c r="BV19">
+        <v>2</v>
+      </c>
+      <c r="BW19">
+        <v>2</v>
+      </c>
+      <c r="BX19">
+        <v>2</v>
+      </c>
+      <c r="BY19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -5722,8 +5950,20 @@
       <c r="BU20" s="2">
         <v>1064</v>
       </c>
+      <c r="BV20" s="2">
+        <v>1066</v>
+      </c>
+      <c r="BW20" s="2">
+        <v>1068</v>
+      </c>
+      <c r="BX20" s="2">
+        <v>1071</v>
+      </c>
+      <c r="BY20" s="2">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -5943,8 +6183,20 @@
       <c r="BU21" s="2">
         <v>7934</v>
       </c>
+      <c r="BV21" s="2">
+        <v>7975</v>
+      </c>
+      <c r="BW21" s="2">
+        <v>8036</v>
+      </c>
+      <c r="BX21" s="2">
+        <v>8099</v>
+      </c>
+      <c r="BY21" s="2">
+        <v>8142</v>
+      </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -6164,8 +6416,20 @@
       <c r="BU22" s="2">
         <v>17734</v>
       </c>
+      <c r="BV22" s="2">
+        <v>18465</v>
+      </c>
+      <c r="BW22" s="2">
+        <v>19696</v>
+      </c>
+      <c r="BX22" s="2">
+        <v>20599</v>
+      </c>
+      <c r="BY22" s="2">
+        <v>21333</v>
+      </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -6385,8 +6649,20 @@
       <c r="BU23" s="2">
         <v>14734</v>
       </c>
+      <c r="BV23" s="2">
+        <v>14937</v>
+      </c>
+      <c r="BW23" s="2">
+        <v>15111</v>
+      </c>
+      <c r="BX23" s="2">
+        <v>15366</v>
+      </c>
+      <c r="BY23" s="2">
+        <v>15564</v>
+      </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -6606,8 +6882,20 @@
       <c r="BU24">
         <v>997</v>
       </c>
+      <c r="BV24">
+        <v>1003</v>
+      </c>
+      <c r="BW24">
+        <v>1011</v>
+      </c>
+      <c r="BX24">
+        <v>1025</v>
+      </c>
+      <c r="BY24">
+        <v>1033</v>
+      </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -6827,8 +7115,20 @@
       <c r="BU25">
         <v>62</v>
       </c>
+      <c r="BV25">
+        <v>62</v>
+      </c>
+      <c r="BW25">
+        <v>66</v>
+      </c>
+      <c r="BX25">
+        <v>70</v>
+      </c>
+      <c r="BY25">
+        <v>75</v>
+      </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -7048,8 +7348,20 @@
       <c r="BU26">
         <v>148</v>
       </c>
+      <c r="BV26">
+        <v>159</v>
+      </c>
+      <c r="BW26">
+        <v>161</v>
+      </c>
+      <c r="BX26">
+        <v>166</v>
+      </c>
+      <c r="BY26">
+        <v>176</v>
+      </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -7269,8 +7581,20 @@
       <c r="BU27" s="2">
         <v>1158</v>
       </c>
+      <c r="BV27" s="2">
+        <v>1172</v>
+      </c>
+      <c r="BW27" s="2">
+        <v>1188</v>
+      </c>
+      <c r="BX27" s="2">
+        <v>1228</v>
+      </c>
+      <c r="BY27" s="2">
+        <v>1253</v>
+      </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -7490,8 +7814,20 @@
       <c r="BU28">
         <v>818</v>
       </c>
+      <c r="BV28">
+        <v>833</v>
+      </c>
+      <c r="BW28">
+        <v>847</v>
+      </c>
+      <c r="BX28">
+        <v>865</v>
+      </c>
+      <c r="BY28">
+        <v>888</v>
+      </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -7711,8 +8047,20 @@
       <c r="BU29" s="2">
         <v>2018</v>
       </c>
+      <c r="BV29" s="2">
+        <v>2020</v>
+      </c>
+      <c r="BW29" s="2">
+        <v>2034</v>
+      </c>
+      <c r="BX29" s="2">
+        <v>2051</v>
+      </c>
+      <c r="BY29" s="2">
+        <v>2068</v>
+      </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -7932,8 +8280,20 @@
       <c r="BU30" s="2">
         <v>1640</v>
       </c>
+      <c r="BV30" s="2">
+        <v>1673</v>
+      </c>
+      <c r="BW30" s="2">
+        <v>1701</v>
+      </c>
+      <c r="BX30" s="2">
+        <v>1763</v>
+      </c>
+      <c r="BY30" s="2">
+        <v>1858</v>
+      </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -8153,8 +8513,20 @@
       <c r="BU31" s="2">
         <v>1171</v>
       </c>
+      <c r="BV31" s="2">
+        <v>1187</v>
+      </c>
+      <c r="BW31" s="2">
+        <v>1219</v>
+      </c>
+      <c r="BX31" s="2">
+        <v>1231</v>
+      </c>
+      <c r="BY31" s="2">
+        <v>1237</v>
+      </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -8374,8 +8746,20 @@
       <c r="BU32">
         <v>345</v>
       </c>
+      <c r="BV32">
+        <v>358</v>
+      </c>
+      <c r="BW32">
+        <v>363</v>
+      </c>
+      <c r="BX32">
+        <v>375</v>
+      </c>
+      <c r="BY32">
+        <v>380</v>
+      </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -8595,8 +8979,20 @@
       <c r="BU33" s="2">
         <v>21451</v>
       </c>
+      <c r="BV33" s="2">
+        <v>21895</v>
+      </c>
+      <c r="BW33" s="2">
+        <v>22265</v>
+      </c>
+      <c r="BX33" s="2">
+        <v>22958</v>
+      </c>
+      <c r="BY33" s="2">
+        <v>23576</v>
+      </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -8816,8 +9212,20 @@
       <c r="BU34">
         <v>405</v>
       </c>
+      <c r="BV34">
+        <v>405</v>
+      </c>
+      <c r="BW34">
+        <v>407</v>
+      </c>
+      <c r="BX34">
+        <v>408</v>
+      </c>
+      <c r="BY34">
+        <v>408</v>
+      </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -9037,8 +9445,20 @@
       <c r="BU35">
         <v>183</v>
       </c>
+      <c r="BV35">
+        <v>183</v>
+      </c>
+      <c r="BW35">
+        <v>191</v>
+      </c>
+      <c r="BX35">
+        <v>197</v>
+      </c>
+      <c r="BY35">
+        <v>199</v>
+      </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -9258,8 +9678,20 @@
       <c r="BU36">
         <v>890</v>
       </c>
+      <c r="BV36">
+        <v>901</v>
+      </c>
+      <c r="BW36">
+        <v>923</v>
+      </c>
+      <c r="BX36">
+        <v>938</v>
+      </c>
+      <c r="BY36">
+        <v>948</v>
+      </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -9479,8 +9911,20 @@
       <c r="BU37">
         <v>332</v>
       </c>
+      <c r="BV37">
+        <v>335</v>
+      </c>
+      <c r="BW37">
+        <v>335</v>
+      </c>
+      <c r="BX37">
+        <v>337</v>
+      </c>
+      <c r="BY37">
+        <v>340</v>
+      </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -9700,8 +10144,20 @@
       <c r="BU38" s="2">
         <v>2192</v>
       </c>
+      <c r="BV38" s="2">
+        <v>2291</v>
+      </c>
+      <c r="BW38" s="2">
+        <v>2328</v>
+      </c>
+      <c r="BX38" s="2">
+        <v>2483</v>
+      </c>
+      <c r="BY38" s="2">
+        <v>2685</v>
+      </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -9921,8 +10377,20 @@
       <c r="BU39" s="2">
         <v>1624</v>
       </c>
+      <c r="BV39" s="2">
+        <v>2834</v>
+      </c>
+      <c r="BW39" s="2">
+        <v>2911</v>
+      </c>
+      <c r="BX39" s="2">
+        <v>2925</v>
+      </c>
+      <c r="BY39" s="2">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -10142,8 +10610,20 @@
       <c r="BU40">
         <v>298</v>
       </c>
+      <c r="BV40">
+        <v>307</v>
+      </c>
+      <c r="BW40">
+        <v>314</v>
+      </c>
+      <c r="BX40">
+        <v>318</v>
+      </c>
+      <c r="BY40">
+        <v>319</v>
+      </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -10363,8 +10843,20 @@
       <c r="BU41">
         <v>339</v>
       </c>
+      <c r="BV41">
+        <v>348</v>
+      </c>
+      <c r="BW41">
+        <v>348</v>
+      </c>
+      <c r="BX41">
+        <v>355</v>
+      </c>
+      <c r="BY41">
+        <v>356</v>
+      </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -10584,8 +11076,20 @@
       <c r="BU42">
         <v>24</v>
       </c>
+      <c r="BV42">
+        <v>24</v>
+      </c>
+      <c r="BW42">
+        <v>24</v>
+      </c>
+      <c r="BX42">
+        <v>26</v>
+      </c>
+      <c r="BY42">
+        <v>27</v>
+      </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -10805,8 +11309,20 @@
       <c r="BU43">
         <v>39</v>
       </c>
+      <c r="BV43">
+        <v>39</v>
+      </c>
+      <c r="BW43">
+        <v>40</v>
+      </c>
+      <c r="BX43">
+        <v>40</v>
+      </c>
+      <c r="BY43">
+        <v>41</v>
+      </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -11026,8 +11542,20 @@
       <c r="BU44">
         <v>209</v>
       </c>
+      <c r="BV44">
+        <v>213</v>
+      </c>
+      <c r="BW44">
+        <v>213</v>
+      </c>
+      <c r="BX44">
+        <v>222</v>
+      </c>
+      <c r="BY44">
+        <v>223</v>
+      </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -11247,8 +11775,20 @@
       <c r="BU45" s="2">
         <v>47382</v>
       </c>
+      <c r="BV45" s="2">
+        <v>48498</v>
+      </c>
+      <c r="BW45" s="2">
+        <v>49607</v>
+      </c>
+      <c r="BX45" s="2">
+        <v>50785</v>
+      </c>
+      <c r="BY45" s="2">
+        <v>52116</v>
+      </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -11468,8 +12008,20 @@
       <c r="BU46">
         <v>163</v>
       </c>
+      <c r="BV46">
+        <v>165</v>
+      </c>
+      <c r="BW46">
+        <v>168</v>
+      </c>
+      <c r="BX46">
+        <v>169</v>
+      </c>
+      <c r="BY46">
+        <v>169</v>
+      </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -11689,8 +12241,20 @@
       <c r="BU47" s="2">
         <v>1331</v>
       </c>
+      <c r="BV47" s="2">
+        <v>1341</v>
+      </c>
+      <c r="BW47" s="2">
+        <v>1345</v>
+      </c>
+      <c r="BX47" s="2">
+        <v>1350</v>
+      </c>
+      <c r="BY47" s="2">
+        <v>1357</v>
+      </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -11910,8 +12474,20 @@
       <c r="BU48" s="2">
         <v>6865</v>
       </c>
+      <c r="BV48" s="2">
+        <v>6909</v>
+      </c>
+      <c r="BW48" s="2">
+        <v>6969</v>
+      </c>
+      <c r="BX48" s="2">
+        <v>7085</v>
+      </c>
+      <c r="BY48" s="2">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -12131,8 +12707,20 @@
       <c r="BU49">
         <v>740</v>
       </c>
+      <c r="BV49">
+        <v>756</v>
+      </c>
+      <c r="BW49">
+        <v>757</v>
+      </c>
+      <c r="BX49">
+        <v>764</v>
+      </c>
+      <c r="BY49">
+        <v>812</v>
+      </c>
     </row>
-    <row r="50" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -12352,8 +12940,20 @@
       <c r="BU50">
         <v>102</v>
       </c>
+      <c r="BV50">
+        <v>106</v>
+      </c>
+      <c r="BW50">
+        <v>106</v>
+      </c>
+      <c r="BX50">
+        <v>105</v>
+      </c>
+      <c r="BY50">
+        <v>110</v>
+      </c>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -12573,8 +13173,20 @@
       <c r="BU51" s="2">
         <v>1880</v>
       </c>
+      <c r="BV51" s="2">
+        <v>1908</v>
+      </c>
+      <c r="BW51" s="2">
+        <v>1925</v>
+      </c>
+      <c r="BX51" s="2">
+        <v>1949</v>
+      </c>
+      <c r="BY51" s="2">
+        <v>1995</v>
+      </c>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -12794,8 +13406,20 @@
       <c r="BU52" s="2">
         <v>8690</v>
       </c>
+      <c r="BV52" s="2">
+        <v>10322</v>
+      </c>
+      <c r="BW52" s="2">
+        <v>11020</v>
+      </c>
+      <c r="BX52" s="2">
+        <v>11035</v>
+      </c>
+      <c r="BY52" s="2">
+        <v>11061</v>
+      </c>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -13015,8 +13639,20 @@
       <c r="BU53">
         <v>39</v>
       </c>
+      <c r="BV53">
+        <v>39</v>
+      </c>
+      <c r="BW53">
+        <v>39</v>
+      </c>
+      <c r="BX53">
+        <v>41</v>
+      </c>
+      <c r="BY53">
+        <v>41</v>
+      </c>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -13236,8 +13872,20 @@
       <c r="BU54">
         <v>178</v>
       </c>
+      <c r="BV54">
+        <v>178</v>
+      </c>
+      <c r="BW54">
+        <v>178</v>
+      </c>
+      <c r="BX54">
+        <v>212</v>
+      </c>
+      <c r="BY54">
+        <v>213</v>
+      </c>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -13457,8 +14105,20 @@
       <c r="BU55">
         <v>120</v>
       </c>
+      <c r="BV55">
+        <v>120</v>
+      </c>
+      <c r="BW55">
+        <v>120</v>
+      </c>
+      <c r="BX55">
+        <v>121</v>
+      </c>
+      <c r="BY55">
+        <v>124</v>
+      </c>
     </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -13678,8 +14338,20 @@
       <c r="BU56">
         <v>168</v>
       </c>
+      <c r="BV56">
+        <v>168</v>
+      </c>
+      <c r="BW56">
+        <v>168</v>
+      </c>
+      <c r="BX56">
+        <v>173</v>
+      </c>
+      <c r="BY56">
+        <v>174</v>
+      </c>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -13899,8 +14571,20 @@
       <c r="BU57">
         <v>57</v>
       </c>
+      <c r="BV57">
+        <v>57</v>
+      </c>
+      <c r="BW57">
+        <v>58</v>
+      </c>
+      <c r="BX57">
+        <v>59</v>
+      </c>
+      <c r="BY57">
+        <v>63</v>
+      </c>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -14120,8 +14804,20 @@
       <c r="BU58">
         <v>10</v>
       </c>
+      <c r="BV58">
+        <v>10</v>
+      </c>
+      <c r="BW58">
+        <v>10</v>
+      </c>
+      <c r="BX58">
+        <v>10</v>
+      </c>
+      <c r="BY58">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -14341,8 +15037,20 @@
       <c r="BU59" s="2">
         <v>189267</v>
       </c>
+      <c r="BV59" s="2">
+        <v>191835</v>
+      </c>
+      <c r="BW59" s="2">
+        <v>194475</v>
+      </c>
+      <c r="BX59" s="2">
+        <v>199489</v>
+      </c>
+      <c r="BY59" s="2">
+        <v>204605</v>
+      </c>
     </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -14562,8 +15270,20 @@
       <c r="BU60">
         <v>466</v>
       </c>
+      <c r="BV60">
+        <v>1084</v>
+      </c>
+      <c r="BW60">
+        <v>1905</v>
+      </c>
+      <c r="BX60">
+        <v>1906</v>
+      </c>
+      <c r="BY60">
+        <v>1910</v>
+      </c>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -14783,8 +15503,20 @@
       <c r="BU61">
         <v>492</v>
       </c>
+      <c r="BV61">
+        <v>495</v>
+      </c>
+      <c r="BW61">
+        <v>498</v>
+      </c>
+      <c r="BX61">
+        <v>504</v>
+      </c>
+      <c r="BY61">
+        <v>506</v>
+      </c>
     </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -15004,8 +15736,20 @@
       <c r="BU62">
         <v>109</v>
       </c>
+      <c r="BV62">
+        <v>109</v>
+      </c>
+      <c r="BW62">
+        <v>111</v>
+      </c>
+      <c r="BX62">
+        <v>113</v>
+      </c>
+      <c r="BY62">
+        <v>115</v>
+      </c>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -15225,8 +15969,20 @@
       <c r="BU63" s="2">
         <v>42837</v>
       </c>
+      <c r="BV63" s="2">
+        <v>43420</v>
+      </c>
+      <c r="BW63" s="2">
+        <v>44172</v>
+      </c>
+      <c r="BX63" s="2">
+        <v>45177</v>
+      </c>
+      <c r="BY63" s="2">
+        <v>46253</v>
+      </c>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -15446,8 +16202,20 @@
       <c r="BU64">
         <v>616</v>
       </c>
+      <c r="BV64">
+        <v>625</v>
+      </c>
+      <c r="BW64">
+        <v>636</v>
+      </c>
+      <c r="BX64">
+        <v>646</v>
+      </c>
+      <c r="BY64">
+        <v>653</v>
+      </c>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -15667,8 +16435,20 @@
       <c r="BU65">
         <v>31</v>
       </c>
+      <c r="BV65">
+        <v>32</v>
+      </c>
+      <c r="BW65">
+        <v>32</v>
+      </c>
+      <c r="BX65">
+        <v>32</v>
+      </c>
+      <c r="BY65">
+        <v>32</v>
+      </c>
     </row>
-    <row r="66" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -15888,8 +16668,20 @@
       <c r="BU66">
         <v>331</v>
       </c>
+      <c r="BV66">
+        <v>341</v>
+      </c>
+      <c r="BW66">
+        <v>349</v>
+      </c>
+      <c r="BX66">
+        <v>358</v>
+      </c>
+      <c r="BY66">
+        <v>513</v>
+      </c>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -16109,8 +16901,20 @@
       <c r="BU67">
         <v>199</v>
       </c>
+      <c r="BV67">
+        <v>201</v>
+      </c>
+      <c r="BW67">
+        <v>201</v>
+      </c>
+      <c r="BX67">
+        <v>201</v>
+      </c>
+      <c r="BY67">
+        <v>201</v>
+      </c>
     </row>
-    <row r="68" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -16330,8 +17134,20 @@
       <c r="BU68">
         <v>469</v>
       </c>
+      <c r="BV68">
+        <v>471</v>
+      </c>
+      <c r="BW68">
+        <v>471</v>
+      </c>
+      <c r="BX68">
+        <v>480</v>
+      </c>
+      <c r="BY68">
+        <v>497</v>
+      </c>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -16551,8 +17367,20 @@
       <c r="BU69">
         <v>490</v>
       </c>
+      <c r="BV69">
+        <v>491</v>
+      </c>
+      <c r="BW69">
+        <v>493</v>
+      </c>
+      <c r="BX69">
+        <v>501</v>
+      </c>
+      <c r="BY69">
+        <v>515</v>
+      </c>
     </row>
-    <row r="70" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -16772,8 +17600,20 @@
       <c r="BU70" s="2">
         <v>5555</v>
       </c>
+      <c r="BV70" s="2">
+        <v>5745</v>
+      </c>
+      <c r="BW70" s="2">
+        <v>5864</v>
+      </c>
+      <c r="BX70" s="2">
+        <v>5976</v>
+      </c>
+      <c r="BY70" s="2">
+        <v>6138</v>
+      </c>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -16993,8 +17833,20 @@
       <c r="BU71">
         <v>33</v>
       </c>
+      <c r="BV71">
+        <v>33</v>
+      </c>
+      <c r="BW71">
+        <v>33</v>
+      </c>
+      <c r="BX71">
+        <v>35</v>
+      </c>
+      <c r="BY71">
+        <v>40</v>
+      </c>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -17214,8 +18066,20 @@
       <c r="BU72" s="2">
         <v>11256</v>
       </c>
+      <c r="BV72" s="2">
+        <v>11360</v>
+      </c>
+      <c r="BW72" s="2">
+        <v>11500</v>
+      </c>
+      <c r="BX72" s="2">
+        <v>11835</v>
+      </c>
+      <c r="BY72" s="2">
+        <v>12117</v>
+      </c>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -17435,8 +18299,20 @@
       <c r="BU73" s="2">
         <v>46861</v>
       </c>
+      <c r="BV73" s="2">
+        <v>47067</v>
+      </c>
+      <c r="BW73" s="2">
+        <v>47301</v>
+      </c>
+      <c r="BX73" s="2">
+        <v>47848</v>
+      </c>
+      <c r="BY73" s="2">
+        <v>48877</v>
+      </c>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -17656,8 +18532,20 @@
       <c r="BU74" s="2">
         <v>1632</v>
       </c>
+      <c r="BV74" s="2">
+        <v>1635</v>
+      </c>
+      <c r="BW74" s="2">
+        <v>1639</v>
+      </c>
+      <c r="BX74" s="2">
+        <v>1651</v>
+      </c>
+      <c r="BY74" s="2">
+        <v>1673</v>
+      </c>
     </row>
-    <row r="75" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -17877,8 +18765,20 @@
       <c r="BU75">
         <v>1108</v>
       </c>
+      <c r="BV75">
+        <v>2151</v>
+      </c>
+      <c r="BW75">
+        <v>2162</v>
+      </c>
+      <c r="BX75">
+        <v>2164</v>
+      </c>
+      <c r="BY75">
+        <v>2167</v>
+      </c>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -18098,8 +18998,20 @@
       <c r="BU76" s="2">
         <v>1642</v>
       </c>
+      <c r="BV76" s="2">
+        <v>1684</v>
+      </c>
+      <c r="BW76" s="2">
+        <v>1694</v>
+      </c>
+      <c r="BX76" s="2">
+        <v>1712</v>
+      </c>
+      <c r="BY76" s="2">
+        <v>1739</v>
+      </c>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -18319,8 +19231,20 @@
       <c r="BU77" s="2">
         <v>1711</v>
       </c>
+      <c r="BV77" s="2">
+        <v>1721</v>
+      </c>
+      <c r="BW77" s="2">
+        <v>1728</v>
+      </c>
+      <c r="BX77" s="2">
+        <v>1748</v>
+      </c>
+      <c r="BY77" s="2">
+        <v>1763</v>
+      </c>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -18540,8 +19464,20 @@
       <c r="BU78">
         <v>37</v>
       </c>
+      <c r="BV78">
+        <v>37</v>
+      </c>
+      <c r="BW78">
+        <v>37</v>
+      </c>
+      <c r="BX78">
+        <v>41</v>
+      </c>
+      <c r="BY78">
+        <v>41</v>
+      </c>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -18761,8 +19697,20 @@
       <c r="BU79">
         <v>343</v>
       </c>
+      <c r="BV79">
+        <v>346</v>
+      </c>
+      <c r="BW79">
+        <v>354</v>
+      </c>
+      <c r="BX79">
+        <v>364</v>
+      </c>
+      <c r="BY79">
+        <v>372</v>
+      </c>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -18982,8 +19930,20 @@
       <c r="BU80">
         <v>96</v>
       </c>
+      <c r="BV80">
+        <v>98</v>
+      </c>
+      <c r="BW80">
+        <v>99</v>
+      </c>
+      <c r="BX80">
+        <v>99</v>
+      </c>
+      <c r="BY80">
+        <v>99</v>
+      </c>
     </row>
-    <row r="81" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -19203,8 +20163,20 @@
       <c r="BU81" s="2">
         <v>107424</v>
       </c>
+      <c r="BV81" s="2">
+        <v>108908</v>
+      </c>
+      <c r="BW81" s="2">
+        <v>110206</v>
+      </c>
+      <c r="BX81" s="2">
+        <v>111952</v>
+      </c>
+      <c r="BY81" s="2">
+        <v>113745</v>
+      </c>
     </row>
-    <row r="82" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -19424,8 +20396,20 @@
       <c r="BU82">
         <v>283</v>
       </c>
+      <c r="BV82">
+        <v>284</v>
+      </c>
+      <c r="BW82">
+        <v>287</v>
+      </c>
+      <c r="BX82">
+        <v>289</v>
+      </c>
+      <c r="BY82">
+        <v>289</v>
+      </c>
     </row>
-    <row r="83" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -19645,8 +20629,20 @@
       <c r="BU83">
         <v>1452</v>
       </c>
+      <c r="BV83">
+        <v>1999</v>
+      </c>
+      <c r="BW83">
+        <v>2003</v>
+      </c>
+      <c r="BX83">
+        <v>2027</v>
+      </c>
+      <c r="BY83">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="84" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -19866,8 +20862,20 @@
       <c r="BU84">
         <v>988</v>
       </c>
+      <c r="BV84">
+        <v>1004</v>
+      </c>
+      <c r="BW84">
+        <v>1015</v>
+      </c>
+      <c r="BX84">
+        <v>1034</v>
+      </c>
+      <c r="BY84">
+        <v>1048</v>
+      </c>
     </row>
-    <row r="85" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -20087,8 +21095,20 @@
       <c r="BU85">
         <v>299</v>
       </c>
+      <c r="BV85">
+        <v>307</v>
+      </c>
+      <c r="BW85">
+        <v>309</v>
+      </c>
+      <c r="BX85">
+        <v>315</v>
+      </c>
+      <c r="BY85">
+        <v>318</v>
+      </c>
     </row>
-    <row r="86" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -20308,8 +21328,20 @@
       <c r="BU86" s="2">
         <v>48333</v>
       </c>
+      <c r="BV86" s="2">
+        <v>49341</v>
+      </c>
+      <c r="BW86" s="2">
+        <v>50144</v>
+      </c>
+      <c r="BX86" s="2">
+        <v>52613</v>
+      </c>
+      <c r="BY86" s="2">
+        <v>54821</v>
+      </c>
     </row>
-    <row r="87" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -20529,8 +21561,20 @@
       <c r="BU87">
         <v>3</v>
       </c>
+      <c r="BV87">
+        <v>3</v>
+      </c>
+      <c r="BW87">
+        <v>3</v>
+      </c>
+      <c r="BX87">
+        <v>3</v>
+      </c>
+      <c r="BY87">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -20750,8 +21794,20 @@
       <c r="BU88" s="2">
         <v>1253</v>
       </c>
+      <c r="BV88" s="2">
+        <v>1315</v>
+      </c>
+      <c r="BW88" s="2">
+        <v>1323</v>
+      </c>
+      <c r="BX88" s="2">
+        <v>1339</v>
+      </c>
+      <c r="BY88" s="2">
+        <v>1361</v>
+      </c>
     </row>
-    <row r="89" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -20971,8 +22027,20 @@
       <c r="BU89">
         <v>77</v>
       </c>
+      <c r="BV89">
+        <v>77</v>
+      </c>
+      <c r="BW89">
+        <v>79</v>
+      </c>
+      <c r="BX89">
+        <v>83</v>
+      </c>
+      <c r="BY89">
+        <v>84</v>
+      </c>
     </row>
-    <row r="90" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -21192,8 +22260,20 @@
       <c r="BU90">
         <v>208</v>
       </c>
+      <c r="BV90">
+        <v>216</v>
+      </c>
+      <c r="BW90">
+        <v>224</v>
+      </c>
+      <c r="BX90">
+        <v>233</v>
+      </c>
+      <c r="BY90">
+        <v>236</v>
+      </c>
     </row>
-    <row r="91" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -21413,8 +22493,20 @@
       <c r="BU91" s="2">
         <v>1265</v>
       </c>
+      <c r="BV91" s="2">
+        <v>1310</v>
+      </c>
+      <c r="BW91" s="2">
+        <v>1331</v>
+      </c>
+      <c r="BX91" s="2">
+        <v>1349</v>
+      </c>
+      <c r="BY91" s="2">
+        <v>1354</v>
+      </c>
     </row>
-    <row r="92" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -21634,8 +22726,20 @@
       <c r="BU92">
         <v>946</v>
       </c>
+      <c r="BV92">
+        <v>951</v>
+      </c>
+      <c r="BW92">
+        <v>953</v>
+      </c>
+      <c r="BX92">
+        <v>957</v>
+      </c>
+      <c r="BY92">
+        <v>958</v>
+      </c>
     </row>
-    <row r="93" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -21855,8 +22959,20 @@
       <c r="BU93" s="2">
         <v>8277</v>
       </c>
+      <c r="BV93" s="2">
+        <v>8767</v>
+      </c>
+      <c r="BW93" s="2">
+        <v>8793</v>
+      </c>
+      <c r="BX93" s="2">
+        <v>8884</v>
+      </c>
+      <c r="BY93" s="2">
+        <v>8998</v>
+      </c>
     </row>
-    <row r="94" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -22076,8 +23192,20 @@
       <c r="BU94" s="2">
         <v>3296</v>
       </c>
+      <c r="BV94" s="2">
+        <v>3309</v>
+      </c>
+      <c r="BW94" s="2">
+        <v>3362</v>
+      </c>
+      <c r="BX94" s="2">
+        <v>3382</v>
+      </c>
+      <c r="BY94" s="2">
+        <v>3593</v>
+      </c>
     </row>
-    <row r="95" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -22297,8 +23425,20 @@
       <c r="BU95" s="2">
         <v>2639</v>
       </c>
+      <c r="BV95" s="2">
+        <v>2679</v>
+      </c>
+      <c r="BW95" s="2">
+        <v>2765</v>
+      </c>
+      <c r="BX95" s="2">
+        <v>2802</v>
+      </c>
+      <c r="BY95" s="2">
+        <v>2824</v>
+      </c>
     </row>
-    <row r="96" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -22518,8 +23658,20 @@
       <c r="BU96" s="2">
         <v>4780</v>
       </c>
+      <c r="BV96" s="2">
+        <v>4890</v>
+      </c>
+      <c r="BW96" s="2">
+        <v>4997</v>
+      </c>
+      <c r="BX96" s="2">
+        <v>5077</v>
+      </c>
+      <c r="BY96" s="2">
+        <v>5151</v>
+      </c>
     </row>
-    <row r="97" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -22739,8 +23891,20 @@
       <c r="BU97">
         <v>517</v>
       </c>
+      <c r="BV97">
+        <v>553</v>
+      </c>
+      <c r="BW97">
+        <v>639</v>
+      </c>
+      <c r="BX97">
+        <v>699</v>
+      </c>
+      <c r="BY97">
+        <v>731</v>
+      </c>
     </row>
-    <row r="98" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -22960,8 +24124,20 @@
       <c r="BU98">
         <v>165</v>
       </c>
+      <c r="BV98">
+        <v>165</v>
+      </c>
+      <c r="BW98">
+        <v>165</v>
+      </c>
+      <c r="BX98">
+        <v>165</v>
+      </c>
+      <c r="BY98">
+        <v>166</v>
+      </c>
     </row>
-    <row r="99" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -23181,8 +24357,20 @@
       <c r="BU99">
         <v>863</v>
       </c>
+      <c r="BV99">
+        <v>864</v>
+      </c>
+      <c r="BW99">
+        <v>865</v>
+      </c>
+      <c r="BX99">
+        <v>865</v>
+      </c>
+      <c r="BY99">
+        <v>865</v>
+      </c>
     </row>
-    <row r="100" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -23402,8 +24590,20 @@
       <c r="BU100">
         <v>59</v>
       </c>
+      <c r="BV100">
+        <v>59</v>
+      </c>
+      <c r="BW100">
+        <v>59</v>
+      </c>
+      <c r="BX100">
+        <v>59</v>
+      </c>
+      <c r="BY100">
+        <v>59</v>
+      </c>
     </row>
-    <row r="101" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -23623,8 +24823,20 @@
       <c r="BU101">
         <v>69</v>
       </c>
+      <c r="BV101">
+        <v>78</v>
+      </c>
+      <c r="BW101">
+        <v>81</v>
+      </c>
+      <c r="BX101">
+        <v>83</v>
+      </c>
+      <c r="BY101">
+        <v>84</v>
+      </c>
     </row>
-    <row r="102" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -23844,8 +25056,20 @@
       <c r="BU102" s="2">
         <v>1138</v>
       </c>
+      <c r="BV102" s="2">
+        <v>1185</v>
+      </c>
+      <c r="BW102" s="2">
+        <v>1208</v>
+      </c>
+      <c r="BX102" s="2">
+        <v>1235</v>
+      </c>
+      <c r="BY102" s="2">
+        <v>1261</v>
+      </c>
     </row>
-    <row r="103" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -24065,8 +25289,20 @@
       <c r="BU103" s="2">
         <v>312882</v>
       </c>
+      <c r="BV103" s="2">
+        <v>319826</v>
+      </c>
+      <c r="BW103" s="2">
+        <v>325126</v>
+      </c>
+      <c r="BX103" s="2">
+        <v>333039</v>
+      </c>
+      <c r="BY103" s="2">
+        <v>342489</v>
+      </c>
     </row>
-    <row r="104" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -24286,8 +25522,20 @@
       <c r="BU104" s="2">
         <v>5242</v>
       </c>
+      <c r="BV104" s="2">
+        <v>5250</v>
+      </c>
+      <c r="BW104" s="2">
+        <v>5289</v>
+      </c>
+      <c r="BX104" s="2">
+        <v>5334</v>
+      </c>
+      <c r="BY104" s="2">
+        <v>5449</v>
+      </c>
     </row>
-    <row r="105" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -24507,8 +25755,20 @@
       <c r="BU105">
         <v>105</v>
       </c>
+      <c r="BV105">
+        <v>110</v>
+      </c>
+      <c r="BW105">
+        <v>116</v>
+      </c>
+      <c r="BX105">
+        <v>121</v>
+      </c>
+      <c r="BY105">
+        <v>127</v>
+      </c>
     </row>
-    <row r="106" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -24728,8 +25988,20 @@
       <c r="BU106">
         <v>306</v>
       </c>
+      <c r="BV106">
+        <v>308</v>
+      </c>
+      <c r="BW106">
+        <v>308</v>
+      </c>
+      <c r="BX106">
+        <v>308</v>
+      </c>
+      <c r="BY106">
+        <v>309</v>
+      </c>
     </row>
-    <row r="107" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -24949,8 +26221,20 @@
       <c r="BU107" s="2">
         <v>15252</v>
       </c>
+      <c r="BV107" s="2">
+        <v>15485</v>
+      </c>
+      <c r="BW107" s="2">
+        <v>15715</v>
+      </c>
+      <c r="BX107" s="2">
+        <v>16363</v>
+      </c>
+      <c r="BY107" s="2">
+        <v>17084</v>
+      </c>
     </row>
-    <row r="108" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -25170,8 +26454,20 @@
       <c r="BU108">
         <v>198</v>
       </c>
+      <c r="BV108">
+        <v>199</v>
+      </c>
+      <c r="BW108">
+        <v>201</v>
+      </c>
+      <c r="BX108">
+        <v>211</v>
+      </c>
+      <c r="BY108">
+        <v>211</v>
+      </c>
     </row>
-    <row r="109" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -25391,8 +26687,20 @@
       <c r="BU109" s="2">
         <v>2126</v>
       </c>
+      <c r="BV109" s="2">
+        <v>2136</v>
+      </c>
+      <c r="BW109" s="2">
+        <v>2148</v>
+      </c>
+      <c r="BX109" s="2">
+        <v>2152</v>
+      </c>
+      <c r="BY109" s="2">
+        <v>2165</v>
+      </c>
     </row>
-    <row r="110" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -25612,8 +26920,20 @@
       <c r="BU110" s="2">
         <v>31680</v>
       </c>
+      <c r="BV110" s="2">
+        <v>32674</v>
+      </c>
+      <c r="BW110" s="2">
+        <v>33133</v>
+      </c>
+      <c r="BX110" s="2">
+        <v>34411</v>
+      </c>
+      <c r="BY110" s="2">
+        <v>35523</v>
+      </c>
     </row>
-    <row r="111" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -25833,8 +27153,20 @@
       <c r="BU111" s="2">
         <v>1398</v>
       </c>
+      <c r="BV111" s="2">
+        <v>1408</v>
+      </c>
+      <c r="BW111" s="2">
+        <v>1411</v>
+      </c>
+      <c r="BX111" s="2">
+        <v>1422</v>
+      </c>
+      <c r="BY111" s="2">
+        <v>1424</v>
+      </c>
     </row>
-    <row r="112" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -26054,8 +27386,20 @@
       <c r="BU112">
         <v>121</v>
       </c>
+      <c r="BV112">
+        <v>121</v>
+      </c>
+      <c r="BW112">
+        <v>131</v>
+      </c>
+      <c r="BX112">
+        <v>134</v>
+      </c>
+      <c r="BY112">
+        <v>138</v>
+      </c>
     </row>
-    <row r="113" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -26275,8 +27619,20 @@
       <c r="BU113" s="2">
         <v>1371</v>
       </c>
+      <c r="BV113" s="2">
+        <v>1377</v>
+      </c>
+      <c r="BW113" s="2">
+        <v>1441</v>
+      </c>
+      <c r="BX113" s="2">
+        <v>1475</v>
+      </c>
+      <c r="BY113" s="2">
+        <v>1506</v>
+      </c>
     </row>
-    <row r="114" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -26496,8 +27852,20 @@
       <c r="BU114">
         <v>798</v>
       </c>
+      <c r="BV114">
+        <v>803</v>
+      </c>
+      <c r="BW114">
+        <v>806</v>
+      </c>
+      <c r="BX114">
+        <v>807</v>
+      </c>
+      <c r="BY114">
+        <v>811</v>
+      </c>
     </row>
-    <row r="115" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -26717,8 +28085,20 @@
       <c r="BU115" s="2">
         <v>1795</v>
       </c>
+      <c r="BV115" s="2">
+        <v>2998</v>
+      </c>
+      <c r="BW115" s="2">
+        <v>3156</v>
+      </c>
+      <c r="BX115" s="2">
+        <v>3162</v>
+      </c>
+      <c r="BY115" s="2">
+        <v>3172</v>
+      </c>
     </row>
-    <row r="116" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -26938,8 +28318,20 @@
       <c r="BU116">
         <v>558</v>
       </c>
+      <c r="BV116">
+        <v>638</v>
+      </c>
+      <c r="BW116">
+        <v>658</v>
+      </c>
+      <c r="BX116">
+        <v>674</v>
+      </c>
+      <c r="BY116">
+        <v>685</v>
+      </c>
     </row>
-    <row r="117" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -27159,8 +28551,20 @@
       <c r="BU117">
         <v>63</v>
       </c>
+      <c r="BV117">
+        <v>63</v>
+      </c>
+      <c r="BW117">
+        <v>64</v>
+      </c>
+      <c r="BX117">
+        <v>64</v>
+      </c>
+      <c r="BY117">
+        <v>64</v>
+      </c>
     </row>
-    <row r="118" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -27380,8 +28784,20 @@
       <c r="BU118" s="2">
         <v>4196</v>
       </c>
+      <c r="BV118" s="2">
+        <v>4220</v>
+      </c>
+      <c r="BW118" s="2">
+        <v>4246</v>
+      </c>
+      <c r="BX118" s="2">
+        <v>4288</v>
+      </c>
+      <c r="BY118" s="2">
+        <v>4350</v>
+      </c>
     </row>
-    <row r="119" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -27601,8 +29017,20 @@
       <c r="BU119">
         <v>689</v>
       </c>
+      <c r="BV119">
+        <v>691</v>
+      </c>
+      <c r="BW119">
+        <v>701</v>
+      </c>
+      <c r="BX119">
+        <v>702</v>
+      </c>
+      <c r="BY119">
+        <v>703</v>
+      </c>
     </row>
-    <row r="120" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -27822,8 +29250,20 @@
       <c r="BU120">
         <v>9</v>
       </c>
+      <c r="BV120">
+        <v>10</v>
+      </c>
+      <c r="BW120">
+        <v>10</v>
+      </c>
+      <c r="BX120">
+        <v>11</v>
+      </c>
+      <c r="BY120">
+        <v>11</v>
+      </c>
     </row>
-    <row r="121" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -28043,8 +29483,20 @@
       <c r="BU121">
         <v>112</v>
       </c>
+      <c r="BV121">
+        <v>114</v>
+      </c>
+      <c r="BW121">
+        <v>114</v>
+      </c>
+      <c r="BX121">
+        <v>118</v>
+      </c>
+      <c r="BY121">
+        <v>119</v>
+      </c>
     </row>
-    <row r="122" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -28264,8 +29716,20 @@
       <c r="BU122">
         <v>947</v>
       </c>
+      <c r="BV122">
+        <v>957</v>
+      </c>
+      <c r="BW122">
+        <v>967</v>
+      </c>
+      <c r="BX122">
+        <v>985</v>
+      </c>
+      <c r="BY122">
+        <v>994</v>
+      </c>
     </row>
-    <row r="123" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -28485,8 +29949,20 @@
       <c r="BU123" s="2">
         <v>1125</v>
       </c>
+      <c r="BV123" s="2">
+        <v>1147</v>
+      </c>
+      <c r="BW123" s="2">
+        <v>1161</v>
+      </c>
+      <c r="BX123" s="2">
+        <v>1177</v>
+      </c>
+      <c r="BY123" s="2">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="124" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -28706,8 +30182,20 @@
       <c r="BU124">
         <v>14</v>
       </c>
+      <c r="BV124">
+        <v>14</v>
+      </c>
+      <c r="BW124">
+        <v>14</v>
+      </c>
+      <c r="BX124">
+        <v>14</v>
+      </c>
+      <c r="BY124">
+        <v>19</v>
+      </c>
     </row>
-    <row r="125" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -28927,8 +30415,20 @@
       <c r="BU125" s="2">
         <v>19387</v>
       </c>
+      <c r="BV125" s="2">
+        <v>20353</v>
+      </c>
+      <c r="BW125" s="2">
+        <v>21180</v>
+      </c>
+      <c r="BX125" s="2">
+        <v>22604</v>
+      </c>
+      <c r="BY125" s="2">
+        <v>23071</v>
+      </c>
     </row>
-    <row r="126" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -29148,8 +30648,20 @@
       <c r="BU126">
         <v>172</v>
       </c>
+      <c r="BV126">
+        <v>173</v>
+      </c>
+      <c r="BW126">
+        <v>174</v>
+      </c>
+      <c r="BX126">
+        <v>209</v>
+      </c>
+      <c r="BY126">
+        <v>355</v>
+      </c>
     </row>
-    <row r="127" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -29369,8 +30881,20 @@
       <c r="BU127" s="2">
         <v>2813</v>
       </c>
+      <c r="BV127" s="2">
+        <v>2825</v>
+      </c>
+      <c r="BW127" s="2">
+        <v>2832</v>
+      </c>
+      <c r="BX127" s="2">
+        <v>2848</v>
+      </c>
+      <c r="BY127" s="2">
+        <v>2872</v>
+      </c>
     </row>
-    <row r="128" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -29590,8 +31114,20 @@
       <c r="BU128" s="2">
         <v>9278</v>
       </c>
+      <c r="BV128" s="2">
+        <v>9398</v>
+      </c>
+      <c r="BW128" s="2">
+        <v>9472</v>
+      </c>
+      <c r="BX128" s="2">
+        <v>9606</v>
+      </c>
+      <c r="BY128" s="2">
+        <v>9958</v>
+      </c>
     </row>
-    <row r="129" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -29811,8 +31347,20 @@
       <c r="BU129">
         <v>738</v>
       </c>
+      <c r="BV129">
+        <v>744</v>
+      </c>
+      <c r="BW129">
+        <v>748</v>
+      </c>
+      <c r="BX129">
+        <v>763</v>
+      </c>
+      <c r="BY129">
+        <v>773</v>
+      </c>
     </row>
-    <row r="130" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -30032,8 +31580,20 @@
       <c r="BU130">
         <v>417</v>
       </c>
+      <c r="BV130">
+        <v>430</v>
+      </c>
+      <c r="BW130">
+        <v>730</v>
+      </c>
+      <c r="BX130">
+        <v>750</v>
+      </c>
+      <c r="BY130">
+        <v>764</v>
+      </c>
     </row>
-    <row r="131" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -30253,8 +31813,20 @@
       <c r="BU131" s="2">
         <v>5507</v>
       </c>
+      <c r="BV131" s="2">
+        <v>5670</v>
+      </c>
+      <c r="BW131" s="2">
+        <v>5871</v>
+      </c>
+      <c r="BX131" s="2">
+        <v>5984</v>
+      </c>
+      <c r="BY131" s="2">
+        <v>6132</v>
+      </c>
     </row>
-    <row r="132" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -30474,8 +32046,20 @@
       <c r="BU132" s="2">
         <v>1460</v>
       </c>
+      <c r="BV132" s="2">
+        <v>1478</v>
+      </c>
+      <c r="BW132" s="2">
+        <v>1638</v>
+      </c>
+      <c r="BX132" s="2">
+        <v>1689</v>
+      </c>
+      <c r="BY132" s="2">
+        <v>1737</v>
+      </c>
     </row>
-    <row r="133" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -30695,8 +32279,20 @@
       <c r="BU133">
         <v>4</v>
       </c>
+      <c r="BV133">
+        <v>4</v>
+      </c>
+      <c r="BW133">
+        <v>4</v>
+      </c>
+      <c r="BX133">
+        <v>5</v>
+      </c>
+      <c r="BY133">
+        <v>5</v>
+      </c>
     </row>
-    <row r="134" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -30916,8 +32512,20 @@
       <c r="BU134">
         <v>3</v>
       </c>
+      <c r="BV134">
+        <v>3</v>
+      </c>
+      <c r="BW134">
+        <v>3</v>
+      </c>
+      <c r="BX134">
+        <v>3</v>
+      </c>
+      <c r="BY134">
+        <v>3</v>
+      </c>
     </row>
-    <row r="135" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -31137,8 +32745,20 @@
       <c r="BU135" s="2">
         <v>2738</v>
       </c>
+      <c r="BV135" s="2">
+        <v>2826</v>
+      </c>
+      <c r="BW135" s="2">
+        <v>2842</v>
+      </c>
+      <c r="BX135" s="2">
+        <v>2854</v>
+      </c>
+      <c r="BY135" s="2">
+        <v>3026</v>
+      </c>
     </row>
-    <row r="136" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -31358,8 +32978,20 @@
       <c r="BU136">
         <v>133</v>
       </c>
+      <c r="BV136">
+        <v>133</v>
+      </c>
+      <c r="BW136">
+        <v>132</v>
+      </c>
+      <c r="BX136">
+        <v>132</v>
+      </c>
+      <c r="BY136">
+        <v>132</v>
+      </c>
     </row>
-    <row r="137" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -31579,8 +33211,20 @@
       <c r="BU137">
         <v>4</v>
       </c>
+      <c r="BV137">
+        <v>4</v>
+      </c>
+      <c r="BW137">
+        <v>4</v>
+      </c>
+      <c r="BX137">
+        <v>4</v>
+      </c>
+      <c r="BY137">
+        <v>5</v>
+      </c>
     </row>
-    <row r="138" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -31800,8 +33444,20 @@
       <c r="BU138">
         <v>29</v>
       </c>
+      <c r="BV138">
+        <v>31</v>
+      </c>
+      <c r="BW138">
+        <v>32</v>
+      </c>
+      <c r="BX138">
+        <v>32</v>
+      </c>
+      <c r="BY138">
+        <v>32</v>
+      </c>
     </row>
-    <row r="139" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -32021,8 +33677,20 @@
       <c r="BU139" s="2">
         <v>2590</v>
       </c>
+      <c r="BV139" s="2">
+        <v>2701</v>
+      </c>
+      <c r="BW139" s="2">
+        <v>2779</v>
+      </c>
+      <c r="BX139" s="2">
+        <v>2799</v>
+      </c>
+      <c r="BY139" s="2">
+        <v>2806</v>
+      </c>
     </row>
-    <row r="140" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -32242,8 +33910,20 @@
       <c r="BU140">
         <v>211</v>
       </c>
+      <c r="BV140">
+        <v>211</v>
+      </c>
+      <c r="BW140">
+        <v>211</v>
+      </c>
+      <c r="BX140">
+        <v>212</v>
+      </c>
+      <c r="BY140">
+        <v>212</v>
+      </c>
     </row>
-    <row r="141" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -32463,8 +34143,20 @@
       <c r="BU141" s="2">
         <v>1483</v>
       </c>
+      <c r="BV141" s="2">
+        <v>1499</v>
+      </c>
+      <c r="BW141" s="2">
+        <v>1502</v>
+      </c>
+      <c r="BX141" s="2">
+        <v>1505</v>
+      </c>
+      <c r="BY141" s="2">
+        <v>1513</v>
+      </c>
     </row>
-    <row r="142" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -32684,8 +34376,20 @@
       <c r="BU142">
         <v>225</v>
       </c>
+      <c r="BV142">
+        <v>287</v>
+      </c>
+      <c r="BW142">
+        <v>296</v>
+      </c>
+      <c r="BX142">
+        <v>299</v>
+      </c>
+      <c r="BY142">
+        <v>300</v>
+      </c>
     </row>
-    <row r="143" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -32905,8 +34609,20 @@
       <c r="BU143" s="2">
         <v>1661</v>
       </c>
+      <c r="BV143" s="2">
+        <v>1666</v>
+      </c>
+      <c r="BW143" s="2">
+        <v>1672</v>
+      </c>
+      <c r="BX143" s="2">
+        <v>1687</v>
+      </c>
+      <c r="BY143" s="2">
+        <v>1695</v>
+      </c>
     </row>
-    <row r="144" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -33126,8 +34842,20 @@
       <c r="BU144">
         <v>566</v>
       </c>
+      <c r="BV144">
+        <v>579</v>
+      </c>
+      <c r="BW144">
+        <v>602</v>
+      </c>
+      <c r="BX144">
+        <v>614</v>
+      </c>
+      <c r="BY144">
+        <v>625</v>
+      </c>
     </row>
-    <row r="145" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -33347,8 +35075,20 @@
       <c r="BU145">
         <v>877</v>
       </c>
+      <c r="BV145">
+        <v>905</v>
+      </c>
+      <c r="BW145">
+        <v>937</v>
+      </c>
+      <c r="BX145">
+        <v>1017</v>
+      </c>
+      <c r="BY145">
+        <v>1029</v>
+      </c>
     </row>
-    <row r="146" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -33568,8 +35308,20 @@
       <c r="BU146">
         <v>690</v>
       </c>
+      <c r="BV146">
+        <v>727</v>
+      </c>
+      <c r="BW146">
+        <v>745</v>
+      </c>
+      <c r="BX146">
+        <v>784</v>
+      </c>
+      <c r="BY146">
+        <v>809</v>
+      </c>
     </row>
-    <row r="147" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -33789,8 +35541,20 @@
       <c r="BU147">
         <v>652</v>
       </c>
+      <c r="BV147">
+        <v>757</v>
+      </c>
+      <c r="BW147">
+        <v>766</v>
+      </c>
+      <c r="BX147">
+        <v>772</v>
+      </c>
+      <c r="BY147">
+        <v>783</v>
+      </c>
     </row>
-    <row r="148" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -34010,8 +35774,20 @@
       <c r="BU148" s="2">
         <v>4415</v>
       </c>
+      <c r="BV148" s="2">
+        <v>4951</v>
+      </c>
+      <c r="BW148" s="2">
+        <v>5040</v>
+      </c>
+      <c r="BX148" s="2">
+        <v>5177</v>
+      </c>
+      <c r="BY148" s="2">
+        <v>5321</v>
+      </c>
     </row>
-    <row r="149" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -34231,8 +36007,20 @@
       <c r="BU149">
         <v>1004</v>
       </c>
+      <c r="BV149">
+        <v>1245</v>
+      </c>
+      <c r="BW149">
+        <v>1256</v>
+      </c>
+      <c r="BX149">
+        <v>1260</v>
+      </c>
+      <c r="BY149">
+        <v>1261</v>
+      </c>
     </row>
-    <row r="150" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -34452,8 +36240,20 @@
       <c r="BU150">
         <v>121</v>
       </c>
+      <c r="BV150">
+        <v>122</v>
+      </c>
+      <c r="BW150">
+        <v>123</v>
+      </c>
+      <c r="BX150">
+        <v>123</v>
+      </c>
+      <c r="BY150">
+        <v>124</v>
+      </c>
     </row>
-    <row r="151" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -34673,8 +36473,20 @@
       <c r="BU151">
         <v>474</v>
       </c>
+      <c r="BV151">
+        <v>495</v>
+      </c>
+      <c r="BW151">
+        <v>500</v>
+      </c>
+      <c r="BX151">
+        <v>513</v>
+      </c>
+      <c r="BY151">
+        <v>518</v>
+      </c>
     </row>
-    <row r="152" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -34894,8 +36706,20 @@
       <c r="BU152" s="2">
         <v>1237</v>
       </c>
+      <c r="BV152" s="2">
+        <v>1240</v>
+      </c>
+      <c r="BW152" s="2">
+        <v>1241</v>
+      </c>
+      <c r="BX152" s="2">
+        <v>1244</v>
+      </c>
+      <c r="BY152" s="2">
+        <v>1250</v>
+      </c>
     </row>
-    <row r="153" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -35115,8 +36939,20 @@
       <c r="BU153">
         <v>1</v>
       </c>
+      <c r="BV153">
+        <v>1</v>
+      </c>
+      <c r="BW153">
+        <v>1</v>
+      </c>
+      <c r="BX153">
+        <v>1</v>
+      </c>
+      <c r="BY153">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -35336,8 +37172,20 @@
       <c r="BU154" s="2">
         <v>15788</v>
       </c>
+      <c r="BV154" s="2">
+        <v>16162</v>
+      </c>
+      <c r="BW154" s="2">
+        <v>16787</v>
+      </c>
+      <c r="BX154" s="2">
+        <v>17078</v>
+      </c>
+      <c r="BY154" s="2">
+        <v>17260</v>
+      </c>
     </row>
-    <row r="155" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -35557,8 +37405,20 @@
       <c r="BU155">
         <v>530</v>
       </c>
+      <c r="BV155">
+        <v>534</v>
+      </c>
+      <c r="BW155">
+        <v>538</v>
+      </c>
+      <c r="BX155">
+        <v>543</v>
+      </c>
+      <c r="BY155">
+        <v>549</v>
+      </c>
     </row>
-    <row r="156" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -35778,8 +37638,20 @@
       <c r="BU156">
         <v>112</v>
       </c>
+      <c r="BV156">
+        <v>114</v>
+      </c>
+      <c r="BW156">
+        <v>120</v>
+      </c>
+      <c r="BX156">
+        <v>119</v>
+      </c>
+      <c r="BY156">
+        <v>137</v>
+      </c>
     </row>
-    <row r="157" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -35999,8 +37871,20 @@
       <c r="BU157" s="2">
         <v>15337</v>
       </c>
+      <c r="BV157" s="2">
+        <v>15429</v>
+      </c>
+      <c r="BW157" s="2">
+        <v>15544</v>
+      </c>
+      <c r="BX157" s="2">
+        <v>16135</v>
+      </c>
+      <c r="BY157" s="2">
+        <v>17180</v>
+      </c>
     </row>
-    <row r="158" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -36220,8 +38104,20 @@
       <c r="BU158">
         <v>20</v>
       </c>
+      <c r="BV158">
+        <v>21</v>
+      </c>
+      <c r="BW158">
+        <v>22</v>
+      </c>
+      <c r="BX158">
+        <v>22</v>
+      </c>
+      <c r="BY158">
+        <v>23</v>
+      </c>
     </row>
-    <row r="159" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -36441,8 +38337,20 @@
       <c r="BU159">
         <v>638</v>
       </c>
+      <c r="BV159">
+        <v>666</v>
+      </c>
+      <c r="BW159">
+        <v>2684</v>
+      </c>
+      <c r="BX159">
+        <v>2893</v>
+      </c>
+      <c r="BY159">
+        <v>2908</v>
+      </c>
     </row>
-    <row r="160" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -36662,8 +38570,20 @@
       <c r="BU160">
         <v>133</v>
       </c>
+      <c r="BV160">
+        <v>133</v>
+      </c>
+      <c r="BW160">
+        <v>134</v>
+      </c>
+      <c r="BX160">
+        <v>134</v>
+      </c>
+      <c r="BY160">
+        <v>136</v>
+      </c>
     </row>
-    <row r="161" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -36883,8 +38803,20 @@
       <c r="BU161">
         <v>126</v>
       </c>
+      <c r="BV161">
+        <v>127</v>
+      </c>
+      <c r="BW161">
+        <v>129</v>
+      </c>
+      <c r="BX161">
+        <v>130</v>
+      </c>
+      <c r="BY161">
+        <v>131</v>
+      </c>
     </row>
-    <row r="162" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -37104,8 +39036,20 @@
       <c r="BU162">
         <v>373</v>
       </c>
+      <c r="BV162">
+        <v>375</v>
+      </c>
+      <c r="BW162">
+        <v>376</v>
+      </c>
+      <c r="BX162">
+        <v>375</v>
+      </c>
+      <c r="BY162">
+        <v>378</v>
+      </c>
     </row>
-    <row r="163" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -37325,8 +39269,20 @@
       <c r="BU163" s="2">
         <v>2366</v>
       </c>
+      <c r="BV163" s="2">
+        <v>2460</v>
+      </c>
+      <c r="BW163" s="2">
+        <v>2490</v>
+      </c>
+      <c r="BX163" s="2">
+        <v>2640</v>
+      </c>
+      <c r="BY163" s="2">
+        <v>2739</v>
+      </c>
     </row>
-    <row r="164" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -37546,8 +39502,20 @@
       <c r="BU164" s="2">
         <v>4282</v>
       </c>
+      <c r="BV164" s="2">
+        <v>4630</v>
+      </c>
+      <c r="BW164" s="2">
+        <v>4796</v>
+      </c>
+      <c r="BX164" s="2">
+        <v>4885</v>
+      </c>
+      <c r="BY164" s="2">
+        <v>5115</v>
+      </c>
     </row>
-    <row r="165" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -37767,8 +39735,20 @@
       <c r="BU165" s="2">
         <v>1679</v>
       </c>
+      <c r="BV165" s="2">
+        <v>2614</v>
+      </c>
+      <c r="BW165" s="2">
+        <v>2992</v>
+      </c>
+      <c r="BX165" s="2">
+        <v>3021</v>
+      </c>
+      <c r="BY165" s="2">
+        <v>3046</v>
+      </c>
     </row>
-    <row r="166" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -37988,8 +39968,20 @@
       <c r="BU166">
         <v>57</v>
       </c>
+      <c r="BV166">
+        <v>69</v>
+      </c>
+      <c r="BW166">
+        <v>71</v>
+      </c>
+      <c r="BX166">
+        <v>71</v>
+      </c>
+      <c r="BY166">
+        <v>72</v>
+      </c>
     </row>
-    <row r="167" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -38209,8 +40201,20 @@
       <c r="BU167" s="2">
         <v>6654</v>
       </c>
+      <c r="BV167" s="2">
+        <v>6777</v>
+      </c>
+      <c r="BW167" s="2">
+        <v>6867</v>
+      </c>
+      <c r="BX167" s="2">
+        <v>7117</v>
+      </c>
+      <c r="BY167" s="2">
+        <v>7368</v>
+      </c>
     </row>
-    <row r="168" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -38430,8 +40434,20 @@
       <c r="BU168" s="2">
         <v>1699</v>
       </c>
+      <c r="BV168" s="2">
+        <v>1700</v>
+      </c>
+      <c r="BW168" s="2">
+        <v>1704</v>
+      </c>
+      <c r="BX168" s="2">
+        <v>1706</v>
+      </c>
+      <c r="BY168" s="2">
+        <v>1748</v>
+      </c>
     </row>
-    <row r="169" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -38651,8 +40667,20 @@
       <c r="BU169">
         <v>116</v>
       </c>
+      <c r="BV169">
+        <v>117</v>
+      </c>
+      <c r="BW169">
+        <v>118</v>
+      </c>
+      <c r="BX169">
+        <v>119</v>
+      </c>
+      <c r="BY169">
+        <v>119</v>
+      </c>
     </row>
-    <row r="170" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -38872,8 +40900,20 @@
       <c r="BU170">
         <v>241</v>
       </c>
+      <c r="BV170">
+        <v>255</v>
+      </c>
+      <c r="BW170">
+        <v>261</v>
+      </c>
+      <c r="BX170">
+        <v>267</v>
+      </c>
+      <c r="BY170">
+        <v>267</v>
+      </c>
     </row>
-    <row r="171" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -39093,8 +41133,20 @@
       <c r="BU171">
         <v>359</v>
       </c>
+      <c r="BV171">
+        <v>366</v>
+      </c>
+      <c r="BW171">
+        <v>372</v>
+      </c>
+      <c r="BX171">
+        <v>377</v>
+      </c>
+      <c r="BY171">
+        <v>381</v>
+      </c>
     </row>
-    <row r="172" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -39314,8 +41366,20 @@
       <c r="BU172" s="2">
         <v>32522</v>
       </c>
+      <c r="BV172" s="2">
+        <v>33030</v>
+      </c>
+      <c r="BW172" s="2">
+        <v>33509</v>
+      </c>
+      <c r="BX172" s="2">
+        <v>34683</v>
+      </c>
+      <c r="BY172" s="2">
+        <v>35864</v>
+      </c>
     </row>
-    <row r="173" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -39535,8 +41599,20 @@
       <c r="BU173" s="2">
         <v>3143</v>
       </c>
+      <c r="BV173" s="2">
+        <v>3147</v>
+      </c>
+      <c r="BW173" s="2">
+        <v>3148</v>
+      </c>
+      <c r="BX173" s="2">
+        <v>3149</v>
+      </c>
+      <c r="BY173" s="2">
+        <v>3158</v>
+      </c>
     </row>
-    <row r="174" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -39756,8 +41832,20 @@
       <c r="BU174">
         <v>289</v>
       </c>
+      <c r="BV174">
+        <v>289</v>
+      </c>
+      <c r="BW174">
+        <v>292</v>
+      </c>
+      <c r="BX174">
+        <v>296</v>
+      </c>
+      <c r="BY174">
+        <v>303</v>
+      </c>
     </row>
-    <row r="175" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -39977,8 +42065,20 @@
       <c r="BU175">
         <v>35</v>
       </c>
+      <c r="BV175">
+        <v>35</v>
+      </c>
+      <c r="BW175">
+        <v>35</v>
+      </c>
+      <c r="BX175">
+        <v>35</v>
+      </c>
+      <c r="BY175">
+        <v>35</v>
+      </c>
     </row>
-    <row r="176" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -40198,8 +42298,20 @@
       <c r="BU176" s="2">
         <v>3705</v>
       </c>
+      <c r="BV176" s="2">
+        <v>3805</v>
+      </c>
+      <c r="BW176" s="2">
+        <v>3819</v>
+      </c>
+      <c r="BX176" s="2">
+        <v>3868</v>
+      </c>
+      <c r="BY176" s="2">
+        <v>3973</v>
+      </c>
     </row>
-    <row r="177" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -40419,8 +42531,20 @@
       <c r="BU177" s="2">
         <v>1848</v>
       </c>
+      <c r="BV177" s="2">
+        <v>1861</v>
+      </c>
+      <c r="BW177" s="2">
+        <v>1879</v>
+      </c>
+      <c r="BX177" s="2">
+        <v>1889</v>
+      </c>
+      <c r="BY177" s="2">
+        <v>1901</v>
+      </c>
     </row>
-    <row r="178" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -40640,8 +42764,20 @@
       <c r="BU178">
         <v>354</v>
       </c>
+      <c r="BV178">
+        <v>358</v>
+      </c>
+      <c r="BW178">
+        <v>360</v>
+      </c>
+      <c r="BX178">
+        <v>362</v>
+      </c>
+      <c r="BY178">
+        <v>367</v>
+      </c>
     </row>
-    <row r="179" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -40861,8 +42997,20 @@
       <c r="BU179">
         <v>197</v>
       </c>
+      <c r="BV179">
+        <v>207</v>
+      </c>
+      <c r="BW179">
+        <v>207</v>
+      </c>
+      <c r="BX179">
+        <v>213</v>
+      </c>
+      <c r="BY179">
+        <v>216</v>
+      </c>
     </row>
-    <row r="180" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -41082,8 +43230,20 @@
       <c r="BU180" s="2">
         <v>9331</v>
       </c>
+      <c r="BV180" s="2">
+        <v>9597</v>
+      </c>
+      <c r="BW180" s="2">
+        <v>9698</v>
+      </c>
+      <c r="BX180" s="2">
+        <v>9940</v>
+      </c>
+      <c r="BY180" s="2">
+        <v>10421</v>
+      </c>
     </row>
-    <row r="181" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -41303,8 +43463,20 @@
       <c r="BU181">
         <v>156</v>
       </c>
+      <c r="BV181">
+        <v>157</v>
+      </c>
+      <c r="BW181">
+        <v>157</v>
+      </c>
+      <c r="BX181">
+        <v>157</v>
+      </c>
+      <c r="BY181">
+        <v>157</v>
+      </c>
     </row>
-    <row r="182" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -41524,8 +43696,20 @@
       <c r="BU182">
         <v>122</v>
       </c>
+      <c r="BV182">
+        <v>123</v>
+      </c>
+      <c r="BW182">
+        <v>123</v>
+      </c>
+      <c r="BX182">
+        <v>125</v>
+      </c>
+      <c r="BY182">
+        <v>126</v>
+      </c>
     </row>
-    <row r="183" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -41745,8 +43929,20 @@
       <c r="BU183" s="2">
         <v>2037</v>
       </c>
+      <c r="BV183" s="2">
+        <v>2100</v>
+      </c>
+      <c r="BW183" s="2">
+        <v>2137</v>
+      </c>
+      <c r="BX183" s="2">
+        <v>2168</v>
+      </c>
+      <c r="BY183" s="2">
+        <v>2250</v>
+      </c>
     </row>
-    <row r="184" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -41966,8 +44162,20 @@
       <c r="BU184">
         <v>695</v>
       </c>
+      <c r="BV184">
+        <v>695</v>
+      </c>
+      <c r="BW184">
+        <v>697</v>
+      </c>
+      <c r="BX184">
+        <v>697</v>
+      </c>
+      <c r="BY184">
+        <v>702</v>
+      </c>
     </row>
-    <row r="185" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -42187,8 +44395,20 @@
       <c r="BU185">
         <v>735</v>
       </c>
+      <c r="BV185">
+        <v>735</v>
+      </c>
+      <c r="BW185">
+        <v>744</v>
+      </c>
+      <c r="BX185">
+        <v>750</v>
+      </c>
+      <c r="BY185">
+        <v>757</v>
+      </c>
     </row>
-    <row r="186" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -42408,8 +44628,20 @@
       <c r="BU186" s="2">
         <v>7286</v>
       </c>
+      <c r="BV186" s="2">
+        <v>7305</v>
+      </c>
+      <c r="BW186" s="2">
+        <v>7343</v>
+      </c>
+      <c r="BX186" s="2">
+        <v>7405</v>
+      </c>
+      <c r="BY186" s="2">
+        <v>7495</v>
+      </c>
     </row>
-    <row r="187" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -42629,8 +44861,20 @@
       <c r="BU187">
         <v>345</v>
       </c>
+      <c r="BV187">
+        <v>345</v>
+      </c>
+      <c r="BW187">
+        <v>345</v>
+      </c>
+      <c r="BX187">
+        <v>345</v>
+      </c>
+      <c r="BY187">
+        <v>346</v>
+      </c>
     </row>
-    <row r="188" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -42850,8 +45094,20 @@
       <c r="BU188" s="2">
         <v>1979</v>
       </c>
+      <c r="BV188" s="2">
+        <v>1981</v>
+      </c>
+      <c r="BW188" s="2">
+        <v>1987</v>
+      </c>
+      <c r="BX188" s="2">
+        <v>1988</v>
+      </c>
+      <c r="BY188" s="2">
+        <v>1995</v>
+      </c>
     </row>
-    <row r="189" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -43071,8 +45327,20 @@
       <c r="BU189" s="2">
         <v>2450</v>
       </c>
+      <c r="BV189" s="2">
+        <v>2485</v>
+      </c>
+      <c r="BW189" s="2">
+        <v>3157</v>
+      </c>
+      <c r="BX189" s="2">
+        <v>3218</v>
+      </c>
+      <c r="BY189" s="2">
+        <v>3281</v>
+      </c>
     </row>
-    <row r="190" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -43292,8 +45560,20 @@
       <c r="BU190" s="2">
         <v>15742</v>
       </c>
+      <c r="BV190" s="2">
+        <v>15860</v>
+      </c>
+      <c r="BW190" s="2">
+        <v>16789</v>
+      </c>
+      <c r="BX190" s="2">
+        <v>16831</v>
+      </c>
+      <c r="BY190" s="2">
+        <v>16864</v>
+      </c>
     </row>
-    <row r="191" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -43513,8 +45793,20 @@
       <c r="BU191">
         <v>140</v>
       </c>
+      <c r="BV191">
+        <v>141</v>
+      </c>
+      <c r="BW191">
+        <v>142</v>
+      </c>
+      <c r="BX191">
+        <v>143</v>
+      </c>
+      <c r="BY191">
+        <v>145</v>
+      </c>
     </row>
-    <row r="192" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -43734,8 +46026,20 @@
       <c r="BU192">
         <v>160</v>
       </c>
+      <c r="BV192">
+        <v>163</v>
+      </c>
+      <c r="BW192">
+        <v>164</v>
+      </c>
+      <c r="BX192">
+        <v>166</v>
+      </c>
+      <c r="BY192">
+        <v>168</v>
+      </c>
     </row>
-    <row r="193" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -43955,8 +46259,20 @@
       <c r="BU193" s="2">
         <v>5637</v>
       </c>
+      <c r="BV193" s="2">
+        <v>5710</v>
+      </c>
+      <c r="BW193" s="2">
+        <v>5765</v>
+      </c>
+      <c r="BX193" s="2">
+        <v>5812</v>
+      </c>
+      <c r="BY193" s="2">
+        <v>5886</v>
+      </c>
     </row>
-    <row r="194" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -44176,8 +46492,20 @@
       <c r="BU194">
         <v>115</v>
       </c>
+      <c r="BV194">
+        <v>115</v>
+      </c>
+      <c r="BW194">
+        <v>115</v>
+      </c>
+      <c r="BX194">
+        <v>118</v>
+      </c>
+      <c r="BY194">
+        <v>122</v>
+      </c>
     </row>
-    <row r="195" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -44397,8 +46725,20 @@
       <c r="BU195">
         <v>147</v>
       </c>
+      <c r="BV195">
+        <v>147</v>
+      </c>
+      <c r="BW195">
+        <v>148</v>
+      </c>
+      <c r="BX195">
+        <v>151</v>
+      </c>
+      <c r="BY195">
+        <v>151</v>
+      </c>
     </row>
-    <row r="196" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -44618,8 +46958,20 @@
       <c r="BU196">
         <v>493</v>
       </c>
+      <c r="BV196">
+        <v>528</v>
+      </c>
+      <c r="BW196">
+        <v>529</v>
+      </c>
+      <c r="BX196">
+        <v>529</v>
+      </c>
+      <c r="BY196">
+        <v>529</v>
+      </c>
     </row>
-    <row r="197" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -44839,8 +47191,20 @@
       <c r="BU197">
         <v>258</v>
       </c>
+      <c r="BV197">
+        <v>259</v>
+      </c>
+      <c r="BW197">
+        <v>288</v>
+      </c>
+      <c r="BX197">
+        <v>300</v>
+      </c>
+      <c r="BY197">
+        <v>315</v>
+      </c>
     </row>
-    <row r="198" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -45060,8 +47424,20 @@
       <c r="BU198">
         <v>253</v>
       </c>
+      <c r="BV198">
+        <v>257</v>
+      </c>
+      <c r="BW198">
+        <v>259</v>
+      </c>
+      <c r="BX198">
+        <v>264</v>
+      </c>
+      <c r="BY198">
+        <v>276</v>
+      </c>
     </row>
-    <row r="199" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -45281,8 +47657,20 @@
       <c r="BU199">
         <v>9</v>
       </c>
+      <c r="BV199">
+        <v>9</v>
+      </c>
+      <c r="BW199">
+        <v>10</v>
+      </c>
+      <c r="BX199">
+        <v>12</v>
+      </c>
+      <c r="BY199">
+        <v>12</v>
+      </c>
     </row>
-    <row r="200" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -45502,8 +47890,20 @@
       <c r="BU200">
         <v>813</v>
       </c>
+      <c r="BV200">
+        <v>827</v>
+      </c>
+      <c r="BW200">
+        <v>838</v>
+      </c>
+      <c r="BX200">
+        <v>849</v>
+      </c>
+      <c r="BY200">
+        <v>864</v>
+      </c>
     </row>
-    <row r="201" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -45723,8 +48123,20 @@
       <c r="BU201" s="2">
         <v>5554</v>
       </c>
+      <c r="BV201" s="2">
+        <v>5589</v>
+      </c>
+      <c r="BW201" s="2">
+        <v>5650</v>
+      </c>
+      <c r="BX201" s="2">
+        <v>5779</v>
+      </c>
+      <c r="BY201" s="2">
+        <v>5926</v>
+      </c>
     </row>
-    <row r="202" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -45944,8 +48356,20 @@
       <c r="BU202">
         <v>375</v>
       </c>
+      <c r="BV202">
+        <v>376</v>
+      </c>
+      <c r="BW202">
+        <v>376</v>
+      </c>
+      <c r="BX202">
+        <v>385</v>
+      </c>
+      <c r="BY202">
+        <v>400</v>
+      </c>
     </row>
-    <row r="203" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -46165,8 +48589,20 @@
       <c r="BU203" s="2">
         <v>1516</v>
       </c>
+      <c r="BV203" s="2">
+        <v>3391</v>
+      </c>
+      <c r="BW203" s="2">
+        <v>4395</v>
+      </c>
+      <c r="BX203" s="2">
+        <v>4428</v>
+      </c>
+      <c r="BY203" s="2">
+        <v>4452</v>
+      </c>
     </row>
-    <row r="204" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -46386,8 +48822,20 @@
       <c r="BU204">
         <v>557</v>
       </c>
+      <c r="BV204">
+        <v>560</v>
+      </c>
+      <c r="BW204">
+        <v>562</v>
+      </c>
+      <c r="BX204">
+        <v>566</v>
+      </c>
+      <c r="BY204">
+        <v>573</v>
+      </c>
     </row>
-    <row r="205" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -46607,8 +49055,20 @@
       <c r="BU205">
         <v>403</v>
       </c>
+      <c r="BV205">
+        <v>408</v>
+      </c>
+      <c r="BW205">
+        <v>411</v>
+      </c>
+      <c r="BX205">
+        <v>411</v>
+      </c>
+      <c r="BY205">
+        <v>415</v>
+      </c>
     </row>
-    <row r="206" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -46828,8 +49288,20 @@
       <c r="BU206">
         <v>820</v>
       </c>
+      <c r="BV206">
+        <v>828</v>
+      </c>
+      <c r="BW206">
+        <v>848</v>
+      </c>
+      <c r="BX206">
+        <v>860</v>
+      </c>
+      <c r="BY206">
+        <v>877</v>
+      </c>
     </row>
-    <row r="207" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -47049,8 +49521,20 @@
       <c r="BU207" s="2">
         <v>1622</v>
       </c>
+      <c r="BV207" s="2">
+        <v>1642</v>
+      </c>
+      <c r="BW207" s="2">
+        <v>1654</v>
+      </c>
+      <c r="BX207" s="2">
+        <v>1677</v>
+      </c>
+      <c r="BY207" s="2">
+        <v>1728</v>
+      </c>
     </row>
-    <row r="208" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -47270,8 +49754,20 @@
       <c r="BU208">
         <v>203</v>
       </c>
+      <c r="BV208">
+        <v>203</v>
+      </c>
+      <c r="BW208">
+        <v>203</v>
+      </c>
+      <c r="BX208">
+        <v>204</v>
+      </c>
+      <c r="BY208">
+        <v>206</v>
+      </c>
     </row>
-    <row r="209" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -47491,8 +49987,20 @@
       <c r="BU209">
         <v>133</v>
       </c>
+      <c r="BV209">
+        <v>133</v>
+      </c>
+      <c r="BW209">
+        <v>133</v>
+      </c>
+      <c r="BX209">
+        <v>134</v>
+      </c>
+      <c r="BY209">
+        <v>136</v>
+      </c>
     </row>
-    <row r="210" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -47712,8 +50220,20 @@
       <c r="BU210">
         <v>107</v>
       </c>
+      <c r="BV210">
+        <v>108</v>
+      </c>
+      <c r="BW210">
+        <v>109</v>
+      </c>
+      <c r="BX210">
+        <v>109</v>
+      </c>
+      <c r="BY210">
+        <v>112</v>
+      </c>
     </row>
-    <row r="211" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -47933,8 +50453,20 @@
       <c r="BU211">
         <v>48</v>
       </c>
+      <c r="BV211">
+        <v>48</v>
+      </c>
+      <c r="BW211">
+        <v>48</v>
+      </c>
+      <c r="BX211">
+        <v>50</v>
+      </c>
+      <c r="BY211">
+        <v>50</v>
+      </c>
     </row>
-    <row r="212" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -48154,8 +50686,20 @@
       <c r="BU212" s="2">
         <v>1628</v>
       </c>
+      <c r="BV212" s="2">
+        <v>1635</v>
+      </c>
+      <c r="BW212" s="2">
+        <v>1637</v>
+      </c>
+      <c r="BX212" s="2">
+        <v>1651</v>
+      </c>
+      <c r="BY212" s="2">
+        <v>1667</v>
+      </c>
     </row>
-    <row r="213" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -48375,8 +50919,20 @@
       <c r="BU213">
         <v>40</v>
       </c>
+      <c r="BV213">
+        <v>40</v>
+      </c>
+      <c r="BW213">
+        <v>40</v>
+      </c>
+      <c r="BX213">
+        <v>40</v>
+      </c>
+      <c r="BY213">
+        <v>42</v>
+      </c>
     </row>
-    <row r="214" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -48596,8 +51152,20 @@
       <c r="BU214" s="2">
         <v>9212</v>
       </c>
+      <c r="BV214" s="2">
+        <v>9256</v>
+      </c>
+      <c r="BW214" s="2">
+        <v>9371</v>
+      </c>
+      <c r="BX214" s="2">
+        <v>9417</v>
+      </c>
+      <c r="BY214" s="2">
+        <v>9736</v>
+      </c>
     </row>
-    <row r="215" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -48817,8 +51385,20 @@
       <c r="BU215">
         <v>316</v>
       </c>
+      <c r="BV215">
+        <v>316</v>
+      </c>
+      <c r="BW215">
+        <v>316</v>
+      </c>
+      <c r="BX215">
+        <v>317</v>
+      </c>
+      <c r="BY215">
+        <v>320</v>
+      </c>
     </row>
-    <row r="216" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -49038,8 +51618,20 @@
       <c r="BU216" s="2">
         <v>4146</v>
       </c>
+      <c r="BV216" s="2">
+        <v>4199</v>
+      </c>
+      <c r="BW216" s="2">
+        <v>4221</v>
+      </c>
+      <c r="BX216" s="2">
+        <v>4297</v>
+      </c>
+      <c r="BY216" s="2">
+        <v>4492</v>
+      </c>
     </row>
-    <row r="217" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -49259,8 +51851,20 @@
       <c r="BU217">
         <v>145</v>
       </c>
+      <c r="BV217">
+        <v>149</v>
+      </c>
+      <c r="BW217">
+        <v>155</v>
+      </c>
+      <c r="BX217">
+        <v>157</v>
+      </c>
+      <c r="BY217">
+        <v>161</v>
+      </c>
     </row>
-    <row r="218" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -49480,8 +52084,20 @@
       <c r="BU218">
         <v>31</v>
       </c>
+      <c r="BV218">
+        <v>33</v>
+      </c>
+      <c r="BW218">
+        <v>33</v>
+      </c>
+      <c r="BX218">
+        <v>34</v>
+      </c>
+      <c r="BY218">
+        <v>34</v>
+      </c>
     </row>
-    <row r="219" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -49701,8 +52317,20 @@
       <c r="BU219">
         <v>10</v>
       </c>
+      <c r="BV219">
+        <v>11</v>
+      </c>
+      <c r="BW219">
+        <v>11</v>
+      </c>
+      <c r="BX219">
+        <v>12</v>
+      </c>
+      <c r="BY219">
+        <v>13</v>
+      </c>
     </row>
-    <row r="220" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -49922,8 +52550,20 @@
       <c r="BU220">
         <v>65</v>
       </c>
+      <c r="BV220">
+        <v>65</v>
+      </c>
+      <c r="BW220">
+        <v>65</v>
+      </c>
+      <c r="BX220">
+        <v>68</v>
+      </c>
+      <c r="BY220">
+        <v>70</v>
+      </c>
     </row>
-    <row r="221" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -50143,8 +52783,20 @@
       <c r="BU221">
         <v>276</v>
       </c>
+      <c r="BV221">
+        <v>288</v>
+      </c>
+      <c r="BW221">
+        <v>305</v>
+      </c>
+      <c r="BX221">
+        <v>308</v>
+      </c>
+      <c r="BY221">
+        <v>325</v>
+      </c>
     </row>
-    <row r="222" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -50364,8 +53016,20 @@
       <c r="BU222" s="2">
         <v>105467</v>
       </c>
+      <c r="BV222" s="2">
+        <v>106702</v>
+      </c>
+      <c r="BW222" s="2">
+        <v>112221</v>
+      </c>
+      <c r="BX222" s="2">
+        <v>114897</v>
+      </c>
+      <c r="BY222" s="2">
+        <v>117759</v>
+      </c>
     </row>
-    <row r="223" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -50585,8 +53249,20 @@
       <c r="BU223" s="2">
         <v>10445</v>
       </c>
+      <c r="BV223" s="2">
+        <v>10684</v>
+      </c>
+      <c r="BW223" s="2">
+        <v>10734</v>
+      </c>
+      <c r="BX223" s="2">
+        <v>11024</v>
+      </c>
+      <c r="BY223" s="2">
+        <v>11076</v>
+      </c>
     </row>
-    <row r="224" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -50806,8 +53482,20 @@
       <c r="BU224">
         <v>6</v>
       </c>
+      <c r="BV224">
+        <v>6</v>
+      </c>
+      <c r="BW224">
+        <v>6</v>
+      </c>
+      <c r="BX224">
+        <v>6</v>
+      </c>
+      <c r="BY224">
+        <v>6</v>
+      </c>
     </row>
-    <row r="225" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -51027,8 +53715,20 @@
       <c r="BU225">
         <v>296</v>
       </c>
+      <c r="BV225">
+        <v>296</v>
+      </c>
+      <c r="BW225">
+        <v>299</v>
+      </c>
+      <c r="BX225">
+        <v>303</v>
+      </c>
+      <c r="BY225">
+        <v>307</v>
+      </c>
     </row>
-    <row r="226" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -51248,8 +53948,20 @@
       <c r="BU226">
         <v>43</v>
       </c>
+      <c r="BV226">
+        <v>43</v>
+      </c>
+      <c r="BW226">
+        <v>43</v>
+      </c>
+      <c r="BX226">
+        <v>43</v>
+      </c>
+      <c r="BY226">
+        <v>43</v>
+      </c>
     </row>
-    <row r="227" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -51469,8 +54181,20 @@
       <c r="BU227" s="2">
         <v>3063</v>
       </c>
+      <c r="BV227" s="2">
+        <v>3249</v>
+      </c>
+      <c r="BW227" s="2">
+        <v>3250</v>
+      </c>
+      <c r="BX227" s="2">
+        <v>3256</v>
+      </c>
+      <c r="BY227" s="2">
+        <v>3261</v>
+      </c>
     </row>
-    <row r="228" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -51690,8 +54414,20 @@
       <c r="BU228" s="2">
         <v>3580</v>
       </c>
+      <c r="BV228" s="2">
+        <v>3809</v>
+      </c>
+      <c r="BW228" s="2">
+        <v>3822</v>
+      </c>
+      <c r="BX228" s="2">
+        <v>3938</v>
+      </c>
+      <c r="BY228" s="2">
+        <v>4122</v>
+      </c>
     </row>
-    <row r="229" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -51911,8 +54647,20 @@
       <c r="BU229" s="2">
         <v>70359</v>
       </c>
+      <c r="BV229" s="2">
+        <v>71420</v>
+      </c>
+      <c r="BW229" s="2">
+        <v>72501</v>
+      </c>
+      <c r="BX229" s="2">
+        <v>74991</v>
+      </c>
+      <c r="BY229" s="2">
+        <v>77130</v>
+      </c>
     </row>
-    <row r="230" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -52132,8 +54880,20 @@
       <c r="BU230">
         <v>790</v>
       </c>
+      <c r="BV230">
+        <v>816</v>
+      </c>
+      <c r="BW230">
+        <v>827</v>
+      </c>
+      <c r="BX230">
+        <v>847</v>
+      </c>
+      <c r="BY230">
+        <v>865</v>
+      </c>
     </row>
-    <row r="231" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -52353,8 +55113,20 @@
       <c r="BU231">
         <v>778</v>
       </c>
+      <c r="BV231">
+        <v>1207</v>
+      </c>
+      <c r="BW231">
+        <v>2560</v>
+      </c>
+      <c r="BX231">
+        <v>2566</v>
+      </c>
+      <c r="BY231">
+        <v>2568</v>
+      </c>
     </row>
-    <row r="232" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -52574,8 +55346,20 @@
       <c r="BU232">
         <v>532</v>
       </c>
+      <c r="BV232">
+        <v>532</v>
+      </c>
+      <c r="BW232">
+        <v>569</v>
+      </c>
+      <c r="BX232">
+        <v>577</v>
+      </c>
+      <c r="BY232">
+        <v>598</v>
+      </c>
     </row>
-    <row r="233" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -52795,8 +55579,20 @@
       <c r="BU233">
         <v>161</v>
       </c>
+      <c r="BV233">
+        <v>161</v>
+      </c>
+      <c r="BW233">
+        <v>162</v>
+      </c>
+      <c r="BX233">
+        <v>164</v>
+      </c>
+      <c r="BY233">
+        <v>164</v>
+      </c>
     </row>
-    <row r="234" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -53016,8 +55812,20 @@
       <c r="BU234" s="2">
         <v>1091</v>
       </c>
+      <c r="BV234" s="2">
+        <v>1101</v>
+      </c>
+      <c r="BW234" s="2">
+        <v>1115</v>
+      </c>
+      <c r="BX234" s="2">
+        <v>1135</v>
+      </c>
+      <c r="BY234" s="2">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="235" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -53237,8 +56045,20 @@
       <c r="BU235" s="2">
         <v>1970</v>
       </c>
+      <c r="BV235" s="2">
+        <v>2001</v>
+      </c>
+      <c r="BW235" s="2">
+        <v>2025</v>
+      </c>
+      <c r="BX235" s="2">
+        <v>2057</v>
+      </c>
+      <c r="BY235" s="2">
+        <v>2110</v>
+      </c>
     </row>
-    <row r="236" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -53458,8 +56278,20 @@
       <c r="BU236" s="2">
         <v>1623</v>
       </c>
+      <c r="BV236" s="2">
+        <v>1655</v>
+      </c>
+      <c r="BW236" s="2">
+        <v>1677</v>
+      </c>
+      <c r="BX236" s="2">
+        <v>1692</v>
+      </c>
+      <c r="BY236" s="2">
+        <v>1720</v>
+      </c>
     </row>
-    <row r="237" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -53679,8 +56511,20 @@
       <c r="BU237" s="2">
         <v>4725</v>
       </c>
+      <c r="BV237" s="2">
+        <v>4999</v>
+      </c>
+      <c r="BW237" s="2">
+        <v>5406</v>
+      </c>
+      <c r="BX237" s="2">
+        <v>5689</v>
+      </c>
+      <c r="BY237" s="2">
+        <v>5802</v>
+      </c>
     </row>
-    <row r="238" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -53900,8 +56744,20 @@
       <c r="BU238" s="2">
         <v>17526</v>
       </c>
+      <c r="BV238" s="2">
+        <v>18319</v>
+      </c>
+      <c r="BW238" s="2">
+        <v>19743</v>
+      </c>
+      <c r="BX238" s="2">
+        <v>19901</v>
+      </c>
+      <c r="BY238" s="2">
+        <v>20065</v>
+      </c>
     </row>
-    <row r="239" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -54121,8 +56977,20 @@
       <c r="BU239" s="2">
         <v>2075</v>
       </c>
+      <c r="BV239" s="2">
+        <v>2139</v>
+      </c>
+      <c r="BW239" s="2">
+        <v>2197</v>
+      </c>
+      <c r="BX239" s="2">
+        <v>2391</v>
+      </c>
+      <c r="BY239" s="2">
+        <v>2439</v>
+      </c>
     </row>
-    <row r="240" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -54342,8 +57210,20 @@
       <c r="BU240">
         <v>272</v>
       </c>
+      <c r="BV240">
+        <v>272</v>
+      </c>
+      <c r="BW240">
+        <v>275</v>
+      </c>
+      <c r="BX240">
+        <v>277</v>
+      </c>
+      <c r="BY240">
+        <v>283</v>
+      </c>
     </row>
-    <row r="241" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -54563,8 +57443,20 @@
       <c r="BU241" s="2">
         <v>2673</v>
       </c>
+      <c r="BV241" s="2">
+        <v>2751</v>
+      </c>
+      <c r="BW241" s="2">
+        <v>2776</v>
+      </c>
+      <c r="BX241" s="2">
+        <v>2819</v>
+      </c>
+      <c r="BY241" s="2">
+        <v>2833</v>
+      </c>
     </row>
-    <row r="242" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -54784,8 +57676,20 @@
       <c r="BU242" s="2">
         <v>10049</v>
       </c>
+      <c r="BV242" s="2">
+        <v>10705</v>
+      </c>
+      <c r="BW242" s="2">
+        <v>10927</v>
+      </c>
+      <c r="BX242" s="2">
+        <v>11069</v>
+      </c>
+      <c r="BY242" s="2">
+        <v>11298</v>
+      </c>
     </row>
-    <row r="243" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -55005,8 +57909,20 @@
       <c r="BU243" s="2">
         <v>2747</v>
       </c>
+      <c r="BV243" s="2">
+        <v>2801</v>
+      </c>
+      <c r="BW243" s="2">
+        <v>2830</v>
+      </c>
+      <c r="BX243" s="2">
+        <v>2864</v>
+      </c>
+      <c r="BY243" s="2">
+        <v>2895</v>
+      </c>
     </row>
-    <row r="244" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -55226,8 +58142,20 @@
       <c r="BU244">
         <v>149</v>
       </c>
+      <c r="BV244">
+        <v>150</v>
+      </c>
+      <c r="BW244">
+        <v>150</v>
+      </c>
+      <c r="BX244">
+        <v>152</v>
+      </c>
+      <c r="BY244">
+        <v>152</v>
+      </c>
     </row>
-    <row r="245" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -55447,8 +58375,20 @@
       <c r="BU245" s="2">
         <v>7300</v>
       </c>
+      <c r="BV245" s="2">
+        <v>8410</v>
+      </c>
+      <c r="BW245" s="2">
+        <v>8458</v>
+      </c>
+      <c r="BX245" s="2">
+        <v>8495</v>
+      </c>
+      <c r="BY245" s="2">
+        <v>8514</v>
+      </c>
     </row>
-    <row r="246" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -55668,8 +58608,20 @@
       <c r="BU246">
         <v>305</v>
       </c>
+      <c r="BV246">
+        <v>399</v>
+      </c>
+      <c r="BW246">
+        <v>398</v>
+      </c>
+      <c r="BX246">
+        <v>407</v>
+      </c>
+      <c r="BY246">
+        <v>408</v>
+      </c>
     </row>
-    <row r="247" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -55889,8 +58841,20 @@
       <c r="BU247" s="2">
         <v>2108</v>
       </c>
+      <c r="BV247" s="2">
+        <v>2148</v>
+      </c>
+      <c r="BW247" s="2">
+        <v>2175</v>
+      </c>
+      <c r="BX247" s="2">
+        <v>2209</v>
+      </c>
+      <c r="BY247" s="2">
+        <v>2265</v>
+      </c>
     </row>
-    <row r="248" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -56110,8 +59074,20 @@
       <c r="BU248" s="2">
         <v>22894</v>
       </c>
+      <c r="BV248" s="2">
+        <v>23552</v>
+      </c>
+      <c r="BW248" s="2">
+        <v>24035</v>
+      </c>
+      <c r="BX248" s="2">
+        <v>24836</v>
+      </c>
+      <c r="BY248" s="2">
+        <v>25281</v>
+      </c>
     </row>
-    <row r="249" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -56331,8 +59307,20 @@
       <c r="BU249" s="2">
         <v>1616</v>
       </c>
+      <c r="BV249" s="2">
+        <v>1648</v>
+      </c>
+      <c r="BW249" s="2">
+        <v>1681</v>
+      </c>
+      <c r="BX249" s="2">
+        <v>1730</v>
+      </c>
+      <c r="BY249" s="2">
+        <v>1758</v>
+      </c>
     </row>
-    <row r="250" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -56552,8 +59540,20 @@
       <c r="BU250">
         <v>42</v>
       </c>
+      <c r="BV250">
+        <v>42</v>
+      </c>
+      <c r="BW250">
+        <v>44</v>
+      </c>
+      <c r="BX250">
+        <v>47</v>
+      </c>
+      <c r="BY250">
+        <v>50</v>
+      </c>
     </row>
-    <row r="251" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -56773,8 +59773,20 @@
       <c r="BU251" s="2">
         <v>1803</v>
       </c>
+      <c r="BV251" s="2">
+        <v>1827</v>
+      </c>
+      <c r="BW251" s="2">
+        <v>1856</v>
+      </c>
+      <c r="BX251" s="2">
+        <v>1953</v>
+      </c>
+      <c r="BY251" s="2">
+        <v>2230</v>
+      </c>
     </row>
-    <row r="252" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -56994,8 +60006,20 @@
       <c r="BU252">
         <v>984</v>
       </c>
+      <c r="BV252">
+        <v>986</v>
+      </c>
+      <c r="BW252">
+        <v>991</v>
+      </c>
+      <c r="BX252">
+        <v>993</v>
+      </c>
+      <c r="BY252">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="253" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -57215,8 +60239,20 @@
       <c r="BU253">
         <v>308</v>
       </c>
+      <c r="BV253">
+        <v>314</v>
+      </c>
+      <c r="BW253">
+        <v>319</v>
+      </c>
+      <c r="BX253">
+        <v>334</v>
+      </c>
+      <c r="BY253">
+        <v>344</v>
+      </c>
     </row>
-    <row r="254" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -57436,8 +60472,20 @@
       <c r="BU254">
         <v>765</v>
       </c>
+      <c r="BV254">
+        <v>766</v>
+      </c>
+      <c r="BW254">
+        <v>766</v>
+      </c>
+      <c r="BX254">
+        <v>767</v>
+      </c>
+      <c r="BY254">
+        <v>767</v>
+      </c>
     </row>
-    <row r="255" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -57657,8 +60705,20 @@
       <c r="BU255">
         <v>796</v>
       </c>
+      <c r="BV255">
+        <v>800</v>
+      </c>
+      <c r="BW255">
+        <v>808</v>
+      </c>
+      <c r="BX255">
+        <v>812</v>
+      </c>
+      <c r="BY255">
+        <v>819</v>
+      </c>
     </row>
-    <row r="256" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -57878,8 +60938,20 @@
       <c r="BU256">
         <v>365</v>
       </c>
+      <c r="BV256">
+        <v>401</v>
+      </c>
+      <c r="BW256">
+        <v>411</v>
+      </c>
+      <c r="BX256">
+        <v>427</v>
+      </c>
+      <c r="BY256">
+        <v>467</v>
+      </c>
     </row>
-    <row r="257" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -58099,8 +61171,20 @@
       <c r="BU257" s="2">
         <v>5265</v>
       </c>
+      <c r="BV257" s="2">
+        <v>5299</v>
+      </c>
+      <c r="BW257" s="2">
+        <v>5324</v>
+      </c>
+      <c r="BX257" s="2">
+        <v>5324</v>
+      </c>
+      <c r="BY257" s="2">
+        <v>5358</v>
+      </c>
     </row>
-    <row r="258" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -58321,8 +61405,20 @@
       <c r="BU258" s="2">
         <v>515448</v>
       </c>
+      <c r="BV258" s="2">
+        <v>510839</v>
+      </c>
+      <c r="BW258" s="2">
+        <v>526545</v>
+      </c>
+      <c r="BX258" s="2">
+        <v>547232</v>
+      </c>
+      <c r="BY258" s="2">
+        <v>536385</v>
+      </c>
     </row>
-    <row r="259" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>257</v>
       </c>
@@ -58553,8 +61649,23 @@
         <f>SUM(BU3:BU258)</f>
         <v>2174548</v>
       </c>
+      <c r="BV259" s="10">
+        <v>2212947</v>
+      </c>
+      <c r="BW259" s="10">
+        <f>SUM(BW3:BW258)</f>
+        <v>2273591</v>
+      </c>
+      <c r="BX259" s="10">
+        <f>SUM(BX3:BX258)</f>
+        <v>2338098</v>
+      </c>
+      <c r="BY259" s="10">
+        <f>SUM(BY3:BY258)</f>
+        <v>2371709</v>
+      </c>
     </row>
-    <row r="261" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -58567,7 +61678,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
         <v>258</v>
       </c>
@@ -58580,7 +61691,7 @@
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:73" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:77" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>259</v>
       </c>
@@ -58593,7 +61704,7 @@
       <c r="H263" s="24"/>
       <c r="I263" s="24"/>
     </row>
-    <row r="264" spans="1:73" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>260</v>
       </c>
@@ -58606,7 +61717,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
     </row>
-    <row r="265" spans="1:73" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:77" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>288</v>
       </c>
@@ -58681,9 +61792,9 @@
       <c r="BR265" s="13"/>
       <c r="BS265" s="13"/>
     </row>
-    <row r="266" spans="1:73" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B266" s="18"/>
       <c r="C266" s="13"/>
@@ -58694,7 +61805,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:73" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:77" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="23" t="s">
         <v>278</v>
       </c>

--- a/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
+++ b/data/COVID-19CumulativeTestTotalsbyCounty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BEF50DA8-CE60-40D6-ACDF-D28E0FA0B6DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A07F3D26-A78C-4F2A-A140-8401D1A89E77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="345">
   <si>
     <t>County</t>
   </si>
@@ -1061,7 +1061,10 @@
     <t>Tests Through July 5</t>
   </si>
   <si>
-    <t>5. This file will be updated daily; the next cumulative update will be 7/7/2020.</t>
+    <t>Tests Through July 6</t>
+  </si>
+  <si>
+    <t>5. This file will be updated daily; the next cumulative update will be 7/8/2020.</t>
   </si>
 </sst>
 </file>
@@ -1510,13 +1513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY267"/>
+  <dimension ref="A1:BZ267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A267" sqref="A267:I267"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1528,15 +1531,15 @@
     <col min="46" max="46" width="11.453125" style="2" customWidth="1"/>
     <col min="47" max="49" width="11.1796875" style="2" customWidth="1"/>
     <col min="50" max="71" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="77" width="11.08984375" customWidth="1"/>
+    <col min="72" max="78" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1768,8 +1771,11 @@
       <c r="BY2" s="7" t="s">
         <v>342</v>
       </c>
+      <c r="BZ2" s="7" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2001,8 +2007,11 @@
       <c r="BY3" s="2">
         <v>11037</v>
       </c>
+      <c r="BZ3" s="2">
+        <v>11081</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2234,8 +2243,11 @@
       <c r="BY4">
         <v>169</v>
       </c>
+      <c r="BZ4">
+        <v>184</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2467,8 +2479,11 @@
       <c r="BY5" s="2">
         <v>4821</v>
       </c>
+      <c r="BZ5" s="2">
+        <v>4962</v>
+      </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2700,8 +2715,11 @@
       <c r="BY6">
         <v>433</v>
       </c>
+      <c r="BZ6">
+        <v>450</v>
+      </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2933,8 +2951,11 @@
       <c r="BY7">
         <v>107</v>
       </c>
+      <c r="BZ7">
+        <v>112</v>
+      </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3166,8 +3187,11 @@
       <c r="BY8">
         <v>188</v>
       </c>
+      <c r="BZ8">
+        <v>189</v>
+      </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3399,8 +3423,11 @@
       <c r="BY9" s="2">
         <v>2050</v>
       </c>
+      <c r="BZ9" s="2">
+        <v>2107</v>
+      </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3632,8 +3659,11 @@
       <c r="BY10" s="2">
         <v>1852</v>
       </c>
+      <c r="BZ10" s="2">
+        <v>1882</v>
+      </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3865,8 +3895,11 @@
       <c r="BY11">
         <v>134</v>
       </c>
+      <c r="BZ11">
+        <v>134</v>
+      </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -4098,8 +4131,11 @@
       <c r="BY12">
         <v>535</v>
       </c>
+      <c r="BZ12">
+        <v>551</v>
+      </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -4331,8 +4367,11 @@
       <c r="BY13" s="2">
         <v>2976</v>
       </c>
+      <c r="BZ13" s="2">
+        <v>3073</v>
+      </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -4564,8 +4603,11 @@
       <c r="BY14">
         <v>76</v>
       </c>
+      <c r="BZ14">
+        <v>80</v>
+      </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4797,8 +4839,11 @@
       <c r="BY15" s="2">
         <v>4642</v>
       </c>
+      <c r="BZ15" s="2">
+        <v>4676</v>
+      </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -5030,8 +5075,11 @@
       <c r="BY16" s="2">
         <v>24738</v>
       </c>
+      <c r="BZ16" s="2">
+        <v>24958</v>
+      </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -5263,8 +5311,11 @@
       <c r="BY17" s="2">
         <v>91707</v>
       </c>
+      <c r="BZ17" s="2">
+        <v>94612</v>
+      </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -5496,8 +5547,11 @@
       <c r="BY18" s="2">
         <v>2889</v>
       </c>
+      <c r="BZ18" s="2">
+        <v>2954</v>
+      </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -5729,8 +5783,11 @@
       <c r="BY19">
         <v>2</v>
       </c>
+      <c r="BZ19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -5962,8 +6019,11 @@
       <c r="BY20" s="2">
         <v>1074</v>
       </c>
+      <c r="BZ20" s="2">
+        <v>1081</v>
+      </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -6195,8 +6255,11 @@
       <c r="BY21" s="2">
         <v>8142</v>
       </c>
+      <c r="BZ21" s="2">
+        <v>8222</v>
+      </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -6428,8 +6491,11 @@
       <c r="BY22" s="2">
         <v>21333</v>
       </c>
+      <c r="BZ22" s="2">
+        <v>21931</v>
+      </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -6661,8 +6727,11 @@
       <c r="BY23" s="2">
         <v>15564</v>
       </c>
+      <c r="BZ23" s="2">
+        <v>15739</v>
+      </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -6894,8 +6963,11 @@
       <c r="BY24">
         <v>1033</v>
       </c>
+      <c r="BZ24">
+        <v>1050</v>
+      </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -7127,8 +7199,11 @@
       <c r="BY25">
         <v>75</v>
       </c>
+      <c r="BZ25">
+        <v>90</v>
+      </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -7360,8 +7435,11 @@
       <c r="BY26">
         <v>176</v>
       </c>
+      <c r="BZ26">
+        <v>179</v>
+      </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -7593,8 +7671,11 @@
       <c r="BY27" s="2">
         <v>1253</v>
       </c>
+      <c r="BZ27" s="2">
+        <v>1297</v>
+      </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -7826,8 +7907,11 @@
       <c r="BY28">
         <v>888</v>
       </c>
+      <c r="BZ28">
+        <v>921</v>
+      </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -8059,8 +8143,11 @@
       <c r="BY29" s="2">
         <v>2068</v>
       </c>
+      <c r="BZ29" s="2">
+        <v>2177</v>
+      </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -8292,8 +8379,11 @@
       <c r="BY30" s="2">
         <v>1858</v>
       </c>
+      <c r="BZ30" s="2">
+        <v>1998</v>
+      </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -8525,8 +8615,11 @@
       <c r="BY31" s="2">
         <v>1237</v>
       </c>
+      <c r="BZ31" s="2">
+        <v>1247</v>
+      </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -8758,8 +8851,11 @@
       <c r="BY32">
         <v>380</v>
       </c>
+      <c r="BZ32">
+        <v>392</v>
+      </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -8991,8 +9087,11 @@
       <c r="BY33" s="2">
         <v>23576</v>
       </c>
+      <c r="BZ33" s="2">
+        <v>24273</v>
+      </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -9224,8 +9323,11 @@
       <c r="BY34">
         <v>408</v>
       </c>
+      <c r="BZ34">
+        <v>422</v>
+      </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -9457,8 +9559,11 @@
       <c r="BY35">
         <v>199</v>
       </c>
+      <c r="BZ35">
+        <v>204</v>
+      </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -9690,8 +9795,11 @@
       <c r="BY36">
         <v>948</v>
       </c>
+      <c r="BZ36">
+        <v>958</v>
+      </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -9923,8 +10031,11 @@
       <c r="BY37">
         <v>340</v>
       </c>
+      <c r="BZ37">
+        <v>340</v>
+      </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -10156,8 +10267,11 @@
       <c r="BY38" s="2">
         <v>2685</v>
       </c>
+      <c r="BZ38" s="2">
+        <v>2810</v>
+      </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -10389,8 +10503,11 @@
       <c r="BY39" s="2">
         <v>2959</v>
       </c>
+      <c r="BZ39" s="2">
+        <v>2997</v>
+      </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -10622,8 +10739,11 @@
       <c r="BY40">
         <v>319</v>
       </c>
+      <c r="BZ40">
+        <v>322</v>
+      </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -10855,8 +10975,11 @@
       <c r="BY41">
         <v>356</v>
       </c>
+      <c r="BZ41">
+        <v>366</v>
+      </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -11088,8 +11211,11 @@
       <c r="BY42">
         <v>27</v>
       </c>
+      <c r="BZ42">
+        <v>29</v>
+      </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -11321,8 +11447,11 @@
       <c r="BY43">
         <v>41</v>
       </c>
+      <c r="BZ43">
+        <v>43</v>
+      </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -11554,8 +11683,11 @@
       <c r="BY44">
         <v>223</v>
       </c>
+      <c r="BZ44">
+        <v>236</v>
+      </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -11787,8 +11919,11 @@
       <c r="BY45" s="2">
         <v>52116</v>
       </c>
+      <c r="BZ45" s="2">
+        <v>52850</v>
+      </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -12020,8 +12155,11 @@
       <c r="BY46">
         <v>169</v>
       </c>
+      <c r="BZ46">
+        <v>169</v>
+      </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -12253,8 +12391,11 @@
       <c r="BY47" s="2">
         <v>1357</v>
       </c>
+      <c r="BZ47" s="2">
+        <v>1372</v>
+      </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -12486,8 +12627,11 @@
       <c r="BY48" s="2">
         <v>7200</v>
       </c>
+      <c r="BZ48" s="2">
+        <v>7369</v>
+      </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -12719,8 +12863,11 @@
       <c r="BY49">
         <v>812</v>
       </c>
+      <c r="BZ49">
+        <v>819</v>
+      </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -12952,8 +13099,11 @@
       <c r="BY50">
         <v>110</v>
       </c>
+      <c r="BZ50">
+        <v>111</v>
+      </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -13185,8 +13335,11 @@
       <c r="BY51" s="2">
         <v>1995</v>
       </c>
+      <c r="BZ51" s="2">
+        <v>2040</v>
+      </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -13418,8 +13571,11 @@
       <c r="BY52" s="2">
         <v>11061</v>
       </c>
+      <c r="BZ52" s="2">
+        <v>11080</v>
+      </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -13651,8 +13807,11 @@
       <c r="BY53">
         <v>41</v>
       </c>
+      <c r="BZ53">
+        <v>42</v>
+      </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -13884,8 +14043,11 @@
       <c r="BY54">
         <v>213</v>
       </c>
+      <c r="BZ54">
+        <v>216</v>
+      </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -14117,8 +14279,11 @@
       <c r="BY55">
         <v>124</v>
       </c>
+      <c r="BZ55">
+        <v>124</v>
+      </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -14350,8 +14515,11 @@
       <c r="BY56">
         <v>174</v>
       </c>
+      <c r="BZ56">
+        <v>176</v>
+      </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -14583,8 +14751,11 @@
       <c r="BY57">
         <v>63</v>
       </c>
+      <c r="BZ57">
+        <v>65</v>
+      </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -14816,8 +14987,11 @@
       <c r="BY58">
         <v>10</v>
       </c>
+      <c r="BZ58">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -15049,8 +15223,11 @@
       <c r="BY59" s="2">
         <v>204605</v>
       </c>
+      <c r="BZ59" s="2">
+        <v>208058</v>
+      </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -15282,8 +15459,11 @@
       <c r="BY60">
         <v>1910</v>
       </c>
+      <c r="BZ60">
+        <v>1910</v>
+      </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -15515,8 +15695,11 @@
       <c r="BY61">
         <v>506</v>
       </c>
+      <c r="BZ61">
+        <v>510</v>
+      </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -15748,8 +15931,11 @@
       <c r="BY62">
         <v>115</v>
       </c>
+      <c r="BZ62">
+        <v>116</v>
+      </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -15981,8 +16167,11 @@
       <c r="BY63" s="2">
         <v>46253</v>
       </c>
+      <c r="BZ63" s="2">
+        <v>47153</v>
+      </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -16214,8 +16403,11 @@
       <c r="BY64">
         <v>653</v>
       </c>
+      <c r="BZ64">
+        <v>719</v>
+      </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -16447,8 +16639,11 @@
       <c r="BY65">
         <v>32</v>
       </c>
+      <c r="BZ65">
+        <v>32</v>
+      </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -16680,8 +16875,11 @@
       <c r="BY66">
         <v>513</v>
       </c>
+      <c r="BZ66">
+        <v>743</v>
+      </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -16913,8 +17111,11 @@
       <c r="BY67">
         <v>201</v>
       </c>
+      <c r="BZ67">
+        <v>205</v>
+      </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -17146,8 +17347,11 @@
       <c r="BY68">
         <v>497</v>
       </c>
+      <c r="BZ68">
+        <v>532</v>
+      </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -17379,8 +17583,11 @@
       <c r="BY69">
         <v>515</v>
       </c>
+      <c r="BZ69">
+        <v>527</v>
+      </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -17612,8 +17819,11 @@
       <c r="BY70" s="2">
         <v>6138</v>
       </c>
+      <c r="BZ70" s="2">
+        <v>6421</v>
+      </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -17845,8 +18055,11 @@
       <c r="BY71">
         <v>40</v>
       </c>
+      <c r="BZ71">
+        <v>40</v>
+      </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -18078,8 +18291,11 @@
       <c r="BY72" s="2">
         <v>12117</v>
       </c>
+      <c r="BZ72" s="2">
+        <v>12477</v>
+      </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -18311,8 +18527,11 @@
       <c r="BY73" s="2">
         <v>48877</v>
       </c>
+      <c r="BZ73" s="2">
+        <v>50759</v>
+      </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -18544,8 +18763,11 @@
       <c r="BY74" s="2">
         <v>1673</v>
       </c>
+      <c r="BZ74" s="2">
+        <v>1691</v>
+      </c>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -18777,8 +18999,11 @@
       <c r="BY75">
         <v>2167</v>
       </c>
+      <c r="BZ75">
+        <v>2178</v>
+      </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -19010,8 +19235,11 @@
       <c r="BY76" s="2">
         <v>1739</v>
       </c>
+      <c r="BZ76" s="2">
+        <v>1756</v>
+      </c>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -19243,8 +19471,11 @@
       <c r="BY77" s="2">
         <v>1763</v>
       </c>
+      <c r="BZ77" s="2">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -19476,8 +19707,11 @@
       <c r="BY78">
         <v>41</v>
       </c>
+      <c r="BZ78">
+        <v>41</v>
+      </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -19709,8 +19943,11 @@
       <c r="BY79">
         <v>372</v>
       </c>
+      <c r="BZ79">
+        <v>379</v>
+      </c>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -19942,8 +20179,11 @@
       <c r="BY80">
         <v>99</v>
       </c>
+      <c r="BZ80">
+        <v>102</v>
+      </c>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -20175,8 +20415,11 @@
       <c r="BY81" s="2">
         <v>113745</v>
       </c>
+      <c r="BZ81" s="2">
+        <v>115499</v>
+      </c>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -20408,8 +20651,11 @@
       <c r="BY82">
         <v>289</v>
       </c>
+      <c r="BZ82">
+        <v>298</v>
+      </c>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -20641,8 +20887,11 @@
       <c r="BY83">
         <v>2050</v>
       </c>
+      <c r="BZ83">
+        <v>2075</v>
+      </c>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -20874,8 +21123,11 @@
       <c r="BY84">
         <v>1048</v>
       </c>
+      <c r="BZ84">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -21107,8 +21359,11 @@
       <c r="BY85">
         <v>318</v>
       </c>
+      <c r="BZ85">
+        <v>322</v>
+      </c>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -21340,8 +21595,11 @@
       <c r="BY86" s="2">
         <v>54821</v>
       </c>
+      <c r="BZ86" s="2">
+        <v>56590</v>
+      </c>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -21573,8 +21831,11 @@
       <c r="BY87">
         <v>3</v>
       </c>
+      <c r="BZ87">
+        <v>3</v>
+      </c>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -21806,8 +22067,11 @@
       <c r="BY88" s="2">
         <v>1361</v>
       </c>
+      <c r="BZ88" s="2">
+        <v>1506</v>
+      </c>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -22039,8 +22303,11 @@
       <c r="BY89">
         <v>84</v>
       </c>
+      <c r="BZ89">
+        <v>85</v>
+      </c>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -22272,8 +22539,11 @@
       <c r="BY90">
         <v>236</v>
       </c>
+      <c r="BZ90">
+        <v>248</v>
+      </c>
     </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -22505,8 +22775,11 @@
       <c r="BY91" s="2">
         <v>1354</v>
       </c>
+      <c r="BZ91" s="2">
+        <v>1402</v>
+      </c>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -22738,8 +23011,11 @@
       <c r="BY92">
         <v>958</v>
       </c>
+      <c r="BZ92">
+        <v>960</v>
+      </c>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -22971,8 +23247,11 @@
       <c r="BY93" s="2">
         <v>8998</v>
       </c>
+      <c r="BZ93" s="2">
+        <v>9077</v>
+      </c>
     </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -23204,8 +23483,11 @@
       <c r="BY94" s="2">
         <v>3593</v>
       </c>
+      <c r="BZ94" s="2">
+        <v>3911</v>
+      </c>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -23437,8 +23719,11 @@
       <c r="BY95" s="2">
         <v>2824</v>
       </c>
+      <c r="BZ95" s="2">
+        <v>2850</v>
+      </c>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -23670,8 +23955,11 @@
       <c r="BY96" s="2">
         <v>5151</v>
       </c>
+      <c r="BZ96" s="2">
+        <v>5428</v>
+      </c>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -23903,8 +24191,11 @@
       <c r="BY97">
         <v>731</v>
       </c>
+      <c r="BZ97">
+        <v>741</v>
+      </c>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -24136,8 +24427,11 @@
       <c r="BY98">
         <v>166</v>
       </c>
+      <c r="BZ98">
+        <v>166</v>
+      </c>
     </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -24369,8 +24663,11 @@
       <c r="BY99">
         <v>865</v>
       </c>
+      <c r="BZ99">
+        <v>866</v>
+      </c>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -24602,8 +24899,11 @@
       <c r="BY100">
         <v>59</v>
       </c>
+      <c r="BZ100">
+        <v>60</v>
+      </c>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -24835,8 +25135,11 @@
       <c r="BY101">
         <v>84</v>
       </c>
+      <c r="BZ101">
+        <v>89</v>
+      </c>
     </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -25068,8 +25371,11 @@
       <c r="BY102" s="2">
         <v>1261</v>
       </c>
+      <c r="BZ102" s="2">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -25301,8 +25607,11 @@
       <c r="BY103" s="2">
         <v>342489</v>
       </c>
+      <c r="BZ103" s="2">
+        <v>351760</v>
+      </c>
     </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -25534,8 +25843,11 @@
       <c r="BY104" s="2">
         <v>5449</v>
       </c>
+      <c r="BZ104" s="2">
+        <v>5633</v>
+      </c>
     </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -25767,8 +26079,11 @@
       <c r="BY105">
         <v>127</v>
       </c>
+      <c r="BZ105">
+        <v>128</v>
+      </c>
     </row>
-    <row r="106" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -26000,8 +26315,11 @@
       <c r="BY106">
         <v>309</v>
       </c>
+      <c r="BZ106">
+        <v>309</v>
+      </c>
     </row>
-    <row r="107" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -26233,8 +26551,11 @@
       <c r="BY107" s="2">
         <v>17084</v>
       </c>
+      <c r="BZ107" s="2">
+        <v>18356</v>
+      </c>
     </row>
-    <row r="108" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -26466,8 +26787,11 @@
       <c r="BY108">
         <v>211</v>
       </c>
+      <c r="BZ108">
+        <v>212</v>
+      </c>
     </row>
-    <row r="109" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -26699,8 +27023,11 @@
       <c r="BY109" s="2">
         <v>2165</v>
       </c>
+      <c r="BZ109" s="2">
+        <v>2192</v>
+      </c>
     </row>
-    <row r="110" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -26932,8 +27259,11 @@
       <c r="BY110" s="2">
         <v>35523</v>
       </c>
+      <c r="BZ110" s="2">
+        <v>36877</v>
+      </c>
     </row>
-    <row r="111" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -27165,8 +27495,11 @@
       <c r="BY111" s="2">
         <v>1424</v>
       </c>
+      <c r="BZ111" s="2">
+        <v>1445</v>
+      </c>
     </row>
-    <row r="112" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -27398,8 +27731,11 @@
       <c r="BY112">
         <v>138</v>
       </c>
+      <c r="BZ112">
+        <v>138</v>
+      </c>
     </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -27631,8 +27967,11 @@
       <c r="BY113" s="2">
         <v>1506</v>
       </c>
+      <c r="BZ113" s="2">
+        <v>1523</v>
+      </c>
     </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -27864,8 +28203,11 @@
       <c r="BY114">
         <v>811</v>
       </c>
+      <c r="BZ114">
+        <v>818</v>
+      </c>
     </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -28097,8 +28439,11 @@
       <c r="BY115" s="2">
         <v>3172</v>
       </c>
+      <c r="BZ115" s="2">
+        <v>3178</v>
+      </c>
     </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -28330,8 +28675,11 @@
       <c r="BY116">
         <v>685</v>
       </c>
+      <c r="BZ116">
+        <v>698</v>
+      </c>
     </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -28563,8 +28911,11 @@
       <c r="BY117">
         <v>64</v>
       </c>
+      <c r="BZ117">
+        <v>65</v>
+      </c>
     </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -28796,8 +29147,11 @@
       <c r="BY118" s="2">
         <v>4350</v>
       </c>
+      <c r="BZ118" s="2">
+        <v>4403</v>
+      </c>
     </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -29029,8 +29383,11 @@
       <c r="BY119">
         <v>703</v>
       </c>
+      <c r="BZ119">
+        <v>704</v>
+      </c>
     </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -29262,8 +29619,11 @@
       <c r="BY120">
         <v>11</v>
       </c>
+      <c r="BZ120">
+        <v>12</v>
+      </c>
     </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -29495,8 +29855,11 @@
       <c r="BY121">
         <v>119</v>
       </c>
+      <c r="BZ121">
+        <v>119</v>
+      </c>
     </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -29728,8 +30091,11 @@
       <c r="BY122">
         <v>994</v>
       </c>
+      <c r="BZ122">
+        <v>1066</v>
+      </c>
     </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -29961,8 +30327,11 @@
       <c r="BY123" s="2">
         <v>1185</v>
       </c>
+      <c r="BZ123" s="2">
+        <v>1355</v>
+      </c>
     </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -30194,8 +30563,11 @@
       <c r="BY124">
         <v>19</v>
       </c>
+      <c r="BZ124">
+        <v>22</v>
+      </c>
     </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -30427,8 +30799,11 @@
       <c r="BY125" s="2">
         <v>23071</v>
       </c>
+      <c r="BZ125" s="2">
+        <v>23465</v>
+      </c>
     </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -30660,8 +31035,11 @@
       <c r="BY126">
         <v>355</v>
       </c>
+      <c r="BZ126">
+        <v>376</v>
+      </c>
     </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -30893,8 +31271,11 @@
       <c r="BY127" s="2">
         <v>2872</v>
       </c>
+      <c r="BZ127" s="2">
+        <v>3019</v>
+      </c>
     </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -31126,8 +31507,11 @@
       <c r="BY128" s="2">
         <v>9958</v>
       </c>
+      <c r="BZ128" s="2">
+        <v>10255</v>
+      </c>
     </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -31359,8 +31743,11 @@
       <c r="BY129">
         <v>773</v>
       </c>
+      <c r="BZ129">
+        <v>774</v>
+      </c>
     </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -31592,8 +31979,11 @@
       <c r="BY130">
         <v>764</v>
       </c>
+      <c r="BZ130">
+        <v>780</v>
+      </c>
     </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -31825,8 +32215,11 @@
       <c r="BY131" s="2">
         <v>6132</v>
       </c>
+      <c r="BZ131" s="2">
+        <v>6239</v>
+      </c>
     </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -32058,8 +32451,11 @@
       <c r="BY132" s="2">
         <v>1737</v>
       </c>
+      <c r="BZ132" s="2">
+        <v>1851</v>
+      </c>
     </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -32291,8 +32687,11 @@
       <c r="BY133">
         <v>5</v>
       </c>
+      <c r="BZ133">
+        <v>5</v>
+      </c>
     </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -32524,8 +32923,11 @@
       <c r="BY134">
         <v>3</v>
       </c>
+      <c r="BZ134">
+        <v>3</v>
+      </c>
     </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -32757,8 +33159,11 @@
       <c r="BY135" s="2">
         <v>3026</v>
       </c>
+      <c r="BZ135" s="2">
+        <v>3277</v>
+      </c>
     </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -32990,8 +33395,11 @@
       <c r="BY136">
         <v>132</v>
       </c>
+      <c r="BZ136">
+        <v>137</v>
+      </c>
     </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -33223,8 +33631,11 @@
       <c r="BY137">
         <v>5</v>
       </c>
+      <c r="BZ137">
+        <v>5</v>
+      </c>
     </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -33456,8 +33867,11 @@
       <c r="BY138">
         <v>32</v>
       </c>
+      <c r="BZ138">
+        <v>33</v>
+      </c>
     </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -33689,8 +34103,11 @@
       <c r="BY139" s="2">
         <v>2806</v>
       </c>
+      <c r="BZ139" s="2">
+        <v>2820</v>
+      </c>
     </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -33922,8 +34339,11 @@
       <c r="BY140">
         <v>212</v>
       </c>
+      <c r="BZ140">
+        <v>224</v>
+      </c>
     </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -34155,8 +34575,11 @@
       <c r="BY141" s="2">
         <v>1513</v>
       </c>
+      <c r="BZ141" s="2">
+        <v>1527</v>
+      </c>
     </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -34388,8 +34811,11 @@
       <c r="BY142">
         <v>300</v>
       </c>
+      <c r="BZ142">
+        <v>300</v>
+      </c>
     </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -34621,8 +35047,11 @@
       <c r="BY143" s="2">
         <v>1695</v>
       </c>
+      <c r="BZ143" s="2">
+        <v>1703</v>
+      </c>
     </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -34854,8 +35283,11 @@
       <c r="BY144">
         <v>625</v>
       </c>
+      <c r="BZ144">
+        <v>632</v>
+      </c>
     </row>
-    <row r="145" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -35087,8 +35519,11 @@
       <c r="BY145">
         <v>1029</v>
       </c>
+      <c r="BZ145">
+        <v>1266</v>
+      </c>
     </row>
-    <row r="146" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -35320,8 +35755,11 @@
       <c r="BY146">
         <v>809</v>
       </c>
+      <c r="BZ146">
+        <v>1142</v>
+      </c>
     </row>
-    <row r="147" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -35553,8 +35991,11 @@
       <c r="BY147">
         <v>783</v>
       </c>
+      <c r="BZ147">
+        <v>986</v>
+      </c>
     </row>
-    <row r="148" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -35786,8 +36227,11 @@
       <c r="BY148" s="2">
         <v>5321</v>
       </c>
+      <c r="BZ148" s="2">
+        <v>5438</v>
+      </c>
     </row>
-    <row r="149" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -36019,8 +36463,11 @@
       <c r="BY149">
         <v>1261</v>
       </c>
+      <c r="BZ149">
+        <v>1278</v>
+      </c>
     </row>
-    <row r="150" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -36252,8 +36699,11 @@
       <c r="BY150">
         <v>124</v>
       </c>
+      <c r="BZ150">
+        <v>124</v>
+      </c>
     </row>
-    <row r="151" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -36485,8 +36935,11 @@
       <c r="BY151">
         <v>518</v>
       </c>
+      <c r="BZ151">
+        <v>534</v>
+      </c>
     </row>
-    <row r="152" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -36718,8 +37171,11 @@
       <c r="BY152" s="2">
         <v>1250</v>
       </c>
+      <c r="BZ152" s="2">
+        <v>1272</v>
+      </c>
     </row>
-    <row r="153" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -36951,8 +37407,11 @@
       <c r="BY153">
         <v>1</v>
       </c>
+      <c r="BZ153">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -37184,8 +37643,11 @@
       <c r="BY154" s="2">
         <v>17260</v>
       </c>
+      <c r="BZ154" s="2">
+        <v>17410</v>
+      </c>
     </row>
-    <row r="155" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -37417,8 +37879,11 @@
       <c r="BY155">
         <v>549</v>
       </c>
+      <c r="BZ155">
+        <v>556</v>
+      </c>
     </row>
-    <row r="156" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -37650,8 +38115,11 @@
       <c r="BY156">
         <v>137</v>
       </c>
+      <c r="BZ156">
+        <v>146</v>
+      </c>
     </row>
-    <row r="157" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -37883,8 +38351,11 @@
       <c r="BY157" s="2">
         <v>17180</v>
       </c>
+      <c r="BZ157" s="2">
+        <v>17890</v>
+      </c>
     </row>
-    <row r="158" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -38116,8 +38587,11 @@
       <c r="BY158">
         <v>23</v>
       </c>
+      <c r="BZ158">
+        <v>23</v>
+      </c>
     </row>
-    <row r="159" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -38349,8 +38823,11 @@
       <c r="BY159">
         <v>2908</v>
       </c>
+      <c r="BZ159">
+        <v>2960</v>
+      </c>
     </row>
-    <row r="160" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -38582,8 +39059,11 @@
       <c r="BY160">
         <v>136</v>
       </c>
+      <c r="BZ160">
+        <v>137</v>
+      </c>
     </row>
-    <row r="161" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -38815,8 +39295,11 @@
       <c r="BY161">
         <v>131</v>
       </c>
+      <c r="BZ161">
+        <v>135</v>
+      </c>
     </row>
-    <row r="162" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -39048,8 +39531,11 @@
       <c r="BY162">
         <v>378</v>
       </c>
+      <c r="BZ162">
+        <v>378</v>
+      </c>
     </row>
-    <row r="163" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -39281,8 +39767,11 @@
       <c r="BY163" s="2">
         <v>2739</v>
       </c>
+      <c r="BZ163" s="2">
+        <v>2804</v>
+      </c>
     </row>
-    <row r="164" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -39514,8 +40003,11 @@
       <c r="BY164" s="2">
         <v>5115</v>
       </c>
+      <c r="BZ164" s="2">
+        <v>5207</v>
+      </c>
     </row>
-    <row r="165" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -39747,8 +40239,11 @@
       <c r="BY165" s="2">
         <v>3046</v>
       </c>
+      <c r="BZ165" s="2">
+        <v>3067</v>
+      </c>
     </row>
-    <row r="166" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -39980,8 +40475,11 @@
       <c r="BY166">
         <v>72</v>
       </c>
+      <c r="BZ166">
+        <v>74</v>
+      </c>
     </row>
-    <row r="167" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -40213,8 +40711,11 @@
       <c r="BY167" s="2">
         <v>7368</v>
       </c>
+      <c r="BZ167" s="2">
+        <v>7564</v>
+      </c>
     </row>
-    <row r="168" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -40446,8 +40947,11 @@
       <c r="BY168" s="2">
         <v>1748</v>
       </c>
+      <c r="BZ168" s="2">
+        <v>1872</v>
+      </c>
     </row>
-    <row r="169" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -40679,8 +41183,11 @@
       <c r="BY169">
         <v>119</v>
       </c>
+      <c r="BZ169">
+        <v>120</v>
+      </c>
     </row>
-    <row r="170" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -40912,8 +41419,11 @@
       <c r="BY170">
         <v>267</v>
       </c>
+      <c r="BZ170">
+        <v>269</v>
+      </c>
     </row>
-    <row r="171" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -41145,8 +41655,11 @@
       <c r="BY171">
         <v>381</v>
       </c>
+      <c r="BZ171">
+        <v>393</v>
+      </c>
     </row>
-    <row r="172" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -41378,8 +41891,11 @@
       <c r="BY172" s="2">
         <v>35864</v>
       </c>
+      <c r="BZ172" s="2">
+        <v>36715</v>
+      </c>
     </row>
-    <row r="173" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -41611,8 +42127,11 @@
       <c r="BY173" s="2">
         <v>3158</v>
       </c>
+      <c r="BZ173" s="2">
+        <v>3162</v>
+      </c>
     </row>
-    <row r="174" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -41844,8 +42363,11 @@
       <c r="BY174">
         <v>303</v>
       </c>
+      <c r="BZ174">
+        <v>322</v>
+      </c>
     </row>
-    <row r="175" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -42077,8 +42599,11 @@
       <c r="BY175">
         <v>35</v>
       </c>
+      <c r="BZ175">
+        <v>35</v>
+      </c>
     </row>
-    <row r="176" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -42310,8 +42835,11 @@
       <c r="BY176" s="2">
         <v>3973</v>
       </c>
+      <c r="BZ176" s="2">
+        <v>4008</v>
+      </c>
     </row>
-    <row r="177" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -42543,8 +43071,11 @@
       <c r="BY177" s="2">
         <v>1901</v>
       </c>
+      <c r="BZ177" s="2">
+        <v>1908</v>
+      </c>
     </row>
-    <row r="178" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -42776,8 +43307,11 @@
       <c r="BY178">
         <v>367</v>
       </c>
+      <c r="BZ178">
+        <v>412</v>
+      </c>
     </row>
-    <row r="179" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -43009,8 +43543,11 @@
       <c r="BY179">
         <v>216</v>
       </c>
+      <c r="BZ179">
+        <v>223</v>
+      </c>
     </row>
-    <row r="180" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -43242,8 +43779,11 @@
       <c r="BY180" s="2">
         <v>10421</v>
       </c>
+      <c r="BZ180" s="2">
+        <v>10936</v>
+      </c>
     </row>
-    <row r="181" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -43475,8 +44015,11 @@
       <c r="BY181">
         <v>157</v>
       </c>
+      <c r="BZ181">
+        <v>158</v>
+      </c>
     </row>
-    <row r="182" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -43708,8 +44251,11 @@
       <c r="BY182">
         <v>126</v>
       </c>
+      <c r="BZ182">
+        <v>126</v>
+      </c>
     </row>
-    <row r="183" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -43941,8 +44487,11 @@
       <c r="BY183" s="2">
         <v>2250</v>
       </c>
+      <c r="BZ183" s="2">
+        <v>2339</v>
+      </c>
     </row>
-    <row r="184" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -44174,8 +44723,11 @@
       <c r="BY184">
         <v>702</v>
       </c>
+      <c r="BZ184">
+        <v>706</v>
+      </c>
     </row>
-    <row r="185" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -44407,8 +44959,11 @@
       <c r="BY185">
         <v>757</v>
       </c>
+      <c r="BZ185">
+        <v>778</v>
+      </c>
     </row>
-    <row r="186" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -44640,8 +45195,11 @@
       <c r="BY186" s="2">
         <v>7495</v>
       </c>
+      <c r="BZ186" s="2">
+        <v>7590</v>
+      </c>
     </row>
-    <row r="187" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -44873,8 +45431,11 @@
       <c r="BY187">
         <v>346</v>
       </c>
+      <c r="BZ187">
+        <v>346</v>
+      </c>
     </row>
-    <row r="188" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -45106,8 +45667,11 @@
       <c r="BY188" s="2">
         <v>1995</v>
       </c>
+      <c r="BZ188" s="2">
+        <v>1996</v>
+      </c>
     </row>
-    <row r="189" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -45339,8 +45903,11 @@
       <c r="BY189" s="2">
         <v>3281</v>
       </c>
+      <c r="BZ189" s="2">
+        <v>3323</v>
+      </c>
     </row>
-    <row r="190" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -45572,8 +46139,11 @@
       <c r="BY190" s="2">
         <v>16864</v>
       </c>
+      <c r="BZ190" s="2">
+        <v>16903</v>
+      </c>
     </row>
-    <row r="191" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -45805,8 +46375,11 @@
       <c r="BY191">
         <v>145</v>
       </c>
+      <c r="BZ191">
+        <v>323</v>
+      </c>
     </row>
-    <row r="192" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -46038,8 +46611,11 @@
       <c r="BY192">
         <v>168</v>
       </c>
+      <c r="BZ192">
+        <v>171</v>
+      </c>
     </row>
-    <row r="193" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -46271,8 +46847,11 @@
       <c r="BY193" s="2">
         <v>5886</v>
       </c>
+      <c r="BZ193" s="2">
+        <v>5937</v>
+      </c>
     </row>
-    <row r="194" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -46504,8 +47083,11 @@
       <c r="BY194">
         <v>122</v>
       </c>
+      <c r="BZ194">
+        <v>122</v>
+      </c>
     </row>
-    <row r="195" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -46737,8 +47319,11 @@
       <c r="BY195">
         <v>151</v>
       </c>
+      <c r="BZ195">
+        <v>151</v>
+      </c>
     </row>
-    <row r="196" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -46970,8 +47555,11 @@
       <c r="BY196">
         <v>529</v>
       </c>
+      <c r="BZ196">
+        <v>531</v>
+      </c>
     </row>
-    <row r="197" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -47203,8 +47791,11 @@
       <c r="BY197">
         <v>315</v>
       </c>
+      <c r="BZ197">
+        <v>317</v>
+      </c>
     </row>
-    <row r="198" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -47436,8 +48027,11 @@
       <c r="BY198">
         <v>276</v>
       </c>
+      <c r="BZ198">
+        <v>280</v>
+      </c>
     </row>
-    <row r="199" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -47669,8 +48263,11 @@
       <c r="BY199">
         <v>12</v>
       </c>
+      <c r="BZ199">
+        <v>13</v>
+      </c>
     </row>
-    <row r="200" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -47902,8 +48499,11 @@
       <c r="BY200">
         <v>864</v>
       </c>
+      <c r="BZ200">
+        <v>1163</v>
+      </c>
     </row>
-    <row r="201" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -48135,8 +48735,11 @@
       <c r="BY201" s="2">
         <v>5926</v>
       </c>
+      <c r="BZ201" s="2">
+        <v>6028</v>
+      </c>
     </row>
-    <row r="202" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -48368,8 +48971,11 @@
       <c r="BY202">
         <v>400</v>
       </c>
+      <c r="BZ202">
+        <v>416</v>
+      </c>
     </row>
-    <row r="203" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -48601,8 +49207,11 @@
       <c r="BY203" s="2">
         <v>4452</v>
       </c>
+      <c r="BZ203" s="2">
+        <v>4505</v>
+      </c>
     </row>
-    <row r="204" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -48834,8 +49443,11 @@
       <c r="BY204">
         <v>573</v>
       </c>
+      <c r="BZ204">
+        <v>589</v>
+      </c>
     </row>
-    <row r="205" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -49067,8 +49679,11 @@
       <c r="BY205">
         <v>415</v>
       </c>
+      <c r="BZ205">
+        <v>427</v>
+      </c>
     </row>
-    <row r="206" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -49300,8 +49915,11 @@
       <c r="BY206">
         <v>877</v>
       </c>
+      <c r="BZ206">
+        <v>890</v>
+      </c>
     </row>
-    <row r="207" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -49533,8 +50151,11 @@
       <c r="BY207" s="2">
         <v>1728</v>
       </c>
+      <c r="BZ207" s="2">
+        <v>1784</v>
+      </c>
     </row>
-    <row r="208" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -49766,8 +50387,11 @@
       <c r="BY208">
         <v>206</v>
       </c>
+      <c r="BZ208">
+        <v>208</v>
+      </c>
     </row>
-    <row r="209" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -49999,8 +50623,11 @@
       <c r="BY209">
         <v>136</v>
       </c>
+      <c r="BZ209">
+        <v>140</v>
+      </c>
     </row>
-    <row r="210" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -50232,8 +50859,11 @@
       <c r="BY210">
         <v>112</v>
       </c>
+      <c r="BZ210">
+        <v>112</v>
+      </c>
     </row>
-    <row r="211" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -50465,8 +51095,11 @@
       <c r="BY211">
         <v>50</v>
       </c>
+      <c r="BZ211">
+        <v>50</v>
+      </c>
     </row>
-    <row r="212" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -50698,8 +51331,11 @@
       <c r="BY212" s="2">
         <v>1667</v>
       </c>
+      <c r="BZ212" s="2">
+        <v>1683</v>
+      </c>
     </row>
-    <row r="213" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -50931,8 +51567,11 @@
       <c r="BY213">
         <v>42</v>
       </c>
+      <c r="BZ213">
+        <v>42</v>
+      </c>
     </row>
-    <row r="214" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -51164,8 +51803,11 @@
       <c r="BY214" s="2">
         <v>9736</v>
       </c>
+      <c r="BZ214" s="2">
+        <v>10536</v>
+      </c>
     </row>
-    <row r="215" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -51397,8 +52039,11 @@
       <c r="BY215">
         <v>320</v>
       </c>
+      <c r="BZ215">
+        <v>322</v>
+      </c>
     </row>
-    <row r="216" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -51630,8 +52275,11 @@
       <c r="BY216" s="2">
         <v>4492</v>
       </c>
+      <c r="BZ216" s="2">
+        <v>4570</v>
+      </c>
     </row>
-    <row r="217" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -51863,8 +52511,11 @@
       <c r="BY217">
         <v>161</v>
       </c>
+      <c r="BZ217">
+        <v>166</v>
+      </c>
     </row>
-    <row r="218" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -52096,8 +52747,11 @@
       <c r="BY218">
         <v>34</v>
       </c>
+      <c r="BZ218">
+        <v>34</v>
+      </c>
     </row>
-    <row r="219" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -52329,8 +52983,11 @@
       <c r="BY219">
         <v>13</v>
       </c>
+      <c r="BZ219">
+        <v>13</v>
+      </c>
     </row>
-    <row r="220" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -52562,8 +53219,11 @@
       <c r="BY220">
         <v>70</v>
       </c>
+      <c r="BZ220">
+        <v>72</v>
+      </c>
     </row>
-    <row r="221" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -52795,8 +53455,11 @@
       <c r="BY221">
         <v>325</v>
       </c>
+      <c r="BZ221">
+        <v>330</v>
+      </c>
     </row>
-    <row r="222" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -53028,8 +53691,11 @@
       <c r="BY222" s="2">
         <v>117759</v>
       </c>
+      <c r="BZ222" s="2">
+        <v>120120</v>
+      </c>
     </row>
-    <row r="223" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -53261,8 +53927,11 @@
       <c r="BY223" s="2">
         <v>11076</v>
       </c>
+      <c r="BZ223" s="2">
+        <v>11150</v>
+      </c>
     </row>
-    <row r="224" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -53494,8 +54163,11 @@
       <c r="BY224">
         <v>6</v>
       </c>
+      <c r="BZ224">
+        <v>6</v>
+      </c>
     </row>
-    <row r="225" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -53727,8 +54399,11 @@
       <c r="BY225">
         <v>307</v>
       </c>
+      <c r="BZ225">
+        <v>308</v>
+      </c>
     </row>
-    <row r="226" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -53960,8 +54635,11 @@
       <c r="BY226">
         <v>43</v>
       </c>
+      <c r="BZ226">
+        <v>43</v>
+      </c>
     </row>
-    <row r="227" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -54193,8 +54871,11 @@
       <c r="BY227" s="2">
         <v>3261</v>
       </c>
+      <c r="BZ227" s="2">
+        <v>3309</v>
+      </c>
     </row>
-    <row r="228" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -54426,8 +55107,11 @@
       <c r="BY228" s="2">
         <v>4122</v>
       </c>
+      <c r="BZ228" s="2">
+        <v>4223</v>
+      </c>
     </row>
-    <row r="229" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -54659,8 +55343,11 @@
       <c r="BY229" s="2">
         <v>77130</v>
       </c>
+      <c r="BZ229" s="2">
+        <v>78799</v>
+      </c>
     </row>
-    <row r="230" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -54892,8 +55579,11 @@
       <c r="BY230">
         <v>865</v>
       </c>
+      <c r="BZ230">
+        <v>910</v>
+      </c>
     </row>
-    <row r="231" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -55125,8 +55815,11 @@
       <c r="BY231">
         <v>2568</v>
       </c>
+      <c r="BZ231">
+        <v>2581</v>
+      </c>
     </row>
-    <row r="232" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -55358,8 +56051,11 @@
       <c r="BY232">
         <v>598</v>
       </c>
+      <c r="BZ232">
+        <v>636</v>
+      </c>
     </row>
-    <row r="233" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -55591,8 +56287,11 @@
       <c r="BY233">
         <v>164</v>
       </c>
+      <c r="BZ233">
+        <v>164</v>
+      </c>
     </row>
-    <row r="234" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -55824,8 +56523,11 @@
       <c r="BY234" s="2">
         <v>1154</v>
       </c>
+      <c r="BZ234" s="2">
+        <v>1156</v>
+      </c>
     </row>
-    <row r="235" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -56057,8 +56759,11 @@
       <c r="BY235" s="2">
         <v>2110</v>
       </c>
+      <c r="BZ235" s="2">
+        <v>2113</v>
+      </c>
     </row>
-    <row r="236" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -56290,8 +56995,11 @@
       <c r="BY236" s="2">
         <v>1720</v>
       </c>
+      <c r="BZ236" s="2">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="237" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -56523,8 +57231,11 @@
       <c r="BY237" s="2">
         <v>5802</v>
       </c>
+      <c r="BZ237" s="2">
+        <v>5945</v>
+      </c>
     </row>
-    <row r="238" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -56756,8 +57467,11 @@
       <c r="BY238" s="2">
         <v>20065</v>
       </c>
+      <c r="BZ238" s="2">
+        <v>20180</v>
+      </c>
     </row>
-    <row r="239" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -56989,8 +57703,11 @@
       <c r="BY239" s="2">
         <v>2439</v>
       </c>
+      <c r="BZ239" s="2">
+        <v>2497</v>
+      </c>
     </row>
-    <row r="240" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -57222,8 +57939,11 @@
       <c r="BY240">
         <v>283</v>
       </c>
+      <c r="BZ240">
+        <v>286</v>
+      </c>
     </row>
-    <row r="241" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -57455,8 +58175,11 @@
       <c r="BY241" s="2">
         <v>2833</v>
       </c>
+      <c r="BZ241" s="2">
+        <v>2843</v>
+      </c>
     </row>
-    <row r="242" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -57688,8 +58411,11 @@
       <c r="BY242" s="2">
         <v>11298</v>
       </c>
+      <c r="BZ242" s="2">
+        <v>11514</v>
+      </c>
     </row>
-    <row r="243" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -57921,8 +58647,11 @@
       <c r="BY243" s="2">
         <v>2895</v>
       </c>
+      <c r="BZ243" s="2">
+        <v>2931</v>
+      </c>
     </row>
-    <row r="244" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -58154,8 +58883,11 @@
       <c r="BY244">
         <v>152</v>
       </c>
+      <c r="BZ244">
+        <v>155</v>
+      </c>
     </row>
-    <row r="245" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -58387,8 +59119,11 @@
       <c r="BY245" s="2">
         <v>8514</v>
       </c>
+      <c r="BZ245" s="2">
+        <v>8681</v>
+      </c>
     </row>
-    <row r="246" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -58620,8 +59355,11 @@
       <c r="BY246">
         <v>408</v>
       </c>
+      <c r="BZ246">
+        <v>417</v>
+      </c>
     </row>
-    <row r="247" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -58853,8 +59591,11 @@
       <c r="BY247" s="2">
         <v>2265</v>
       </c>
+      <c r="BZ247" s="2">
+        <v>2291</v>
+      </c>
     </row>
-    <row r="248" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -59086,8 +59827,11 @@
       <c r="BY248" s="2">
         <v>25281</v>
       </c>
+      <c r="BZ248" s="2">
+        <v>25805</v>
+      </c>
     </row>
-    <row r="249" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -59319,8 +60063,11 @@
       <c r="BY249" s="2">
         <v>1758</v>
       </c>
+      <c r="BZ249" s="2">
+        <v>1788</v>
+      </c>
     </row>
-    <row r="250" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -59552,8 +60299,11 @@
       <c r="BY250">
         <v>50</v>
       </c>
+      <c r="BZ250">
+        <v>52</v>
+      </c>
     </row>
-    <row r="251" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -59785,8 +60535,11 @@
       <c r="BY251" s="2">
         <v>2230</v>
       </c>
+      <c r="BZ251" s="2">
+        <v>2296</v>
+      </c>
     </row>
-    <row r="252" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -60018,8 +60771,11 @@
       <c r="BY252">
         <v>1004</v>
       </c>
+      <c r="BZ252">
+        <v>1033</v>
+      </c>
     </row>
-    <row r="253" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -60251,8 +61007,11 @@
       <c r="BY253">
         <v>344</v>
       </c>
+      <c r="BZ253">
+        <v>365</v>
+      </c>
     </row>
-    <row r="254" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -60484,8 +61243,11 @@
       <c r="BY254">
         <v>767</v>
       </c>
+      <c r="BZ254">
+        <v>767</v>
+      </c>
     </row>
-    <row r="255" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -60717,8 +61479,11 @@
       <c r="BY255">
         <v>819</v>
       </c>
+      <c r="BZ255">
+        <v>934</v>
+      </c>
     </row>
-    <row r="256" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -60950,8 +61715,11 @@
       <c r="BY256">
         <v>467</v>
       </c>
+      <c r="BZ256">
+        <v>520</v>
+      </c>
     </row>
-    <row r="257" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -61183,8 +61951,11 @@
       <c r="BY257" s="2">
         <v>5358</v>
       </c>
+      <c r="BZ257" s="2">
+        <v>5381</v>
+      </c>
     </row>
-    <row r="258" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -61417,8 +62188,11 @@
       <c r="BY258" s="2">
         <v>536385</v>
       </c>
+      <c r="BZ258" s="2">
+        <v>551854</v>
+      </c>
     </row>
-    <row r="259" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>257</v>
       </c>
@@ -61664,8 +62438,12 @@
         <f>SUM(BY3:BY258)</f>
         <v>2371709</v>
       </c>
+      <c r="BZ259" s="10">
+        <f>SUM(BZ3:BZ258)</f>
+        <v>2431861</v>
+      </c>
     </row>
-    <row r="261" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>261</v>
       </c>
@@ -61678,7 +62456,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="1:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:78" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="21" t="s">
         <v>258</v>
       </c>
@@ -61691,7 +62469,7 @@
       <c r="H262" s="22"/>
       <c r="I262" s="22"/>
     </row>
-    <row r="263" spans="1:77" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:78" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="23" t="s">
         <v>259</v>
       </c>
@@ -61704,7 +62482,7 @@
       <c r="H263" s="24"/>
       <c r="I263" s="24"/>
     </row>
-    <row r="264" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:78" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="23" t="s">
         <v>260</v>
       </c>
@@ -61717,7 +62495,7 @@
       <c r="H264" s="24"/>
       <c r="I264" s="24"/>
     </row>
-    <row r="265" spans="1:77" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:78" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11" t="s">
         <v>288</v>
       </c>
@@ -61792,9 +62570,9 @@
       <c r="BR265" s="13"/>
       <c r="BS265" s="13"/>
     </row>
-    <row r="266" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B266" s="18"/>
       <c r="C266" s="13"/>
@@ -61805,7 +62583,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:77" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:78" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="23" t="s">
         <v>278</v>
       </c>
